--- a/BackTest/2020-01-16 BackTest OCN.xlsx
+++ b/BackTest/2020-01-16 BackTest OCN.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M208"/>
+  <dimension ref="A1:M209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4616</v>
+        <v>0.4608</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4698</v>
+        <v>0.4699</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4698</v>
+        <v>0.4699</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4598</v>
+        <v>0.4599</v>
       </c>
       <c r="F2" t="n">
-        <v>357550</v>
+        <v>81060</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4562383333333334</v>
+        <v>0.4558500000000001</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4696</v>
+        <v>0.4616</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4696</v>
+        <v>0.4698</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4696</v>
+        <v>0.4698</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4696</v>
+        <v>0.4598</v>
       </c>
       <c r="F3" t="n">
-        <v>67690</v>
+        <v>357550</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4566233333333334</v>
+        <v>0.4562383333333334</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.4585</v>
+        <v>0.4696</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4493</v>
+        <v>0.4696</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4585</v>
+        <v>0.4696</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4493</v>
+        <v>0.4696</v>
       </c>
       <c r="F4" t="n">
-        <v>2679961.1224</v>
+        <v>67690</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4566700000000001</v>
+        <v>0.4566233333333334</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.4561</v>
+        <v>0.4585</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4641</v>
+        <v>0.4493</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4644</v>
+        <v>0.4585</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4461</v>
+        <v>0.4493</v>
       </c>
       <c r="F5" t="n">
-        <v>951745.8455000001</v>
+        <v>2679961.1224</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4569633333333334</v>
+        <v>0.4566700000000001</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.4597</v>
+        <v>0.4561</v>
       </c>
       <c r="C6" t="n">
-        <v>0.455</v>
+        <v>0.4641</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4597</v>
+        <v>0.4644</v>
       </c>
       <c r="E6" t="n">
-        <v>0.455</v>
+        <v>0.4461</v>
       </c>
       <c r="F6" t="n">
-        <v>1929732.2189</v>
+        <v>951745.8455000001</v>
       </c>
       <c r="G6" t="n">
-        <v>0.457105</v>
+        <v>0.4569633333333334</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -611,19 +611,19 @@
         <v>0.4597</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4571</v>
+        <v>0.455</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4671</v>
+        <v>0.4597</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4571</v>
+        <v>0.455</v>
       </c>
       <c r="F7" t="n">
-        <v>314566.1086</v>
+        <v>1929732.2189</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4572816666666667</v>
+        <v>0.457105</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.4571</v>
+        <v>0.4597</v>
       </c>
       <c r="C8" t="n">
         <v>0.4571</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4571</v>
+        <v>0.4671</v>
       </c>
       <c r="E8" t="n">
         <v>0.4571</v>
       </c>
       <c r="F8" t="n">
-        <v>11013</v>
+        <v>314566.1086</v>
       </c>
       <c r="G8" t="n">
-        <v>0.4573533333333334</v>
+        <v>0.4572816666666667</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.4598</v>
+        <v>0.4571</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4565</v>
+        <v>0.4571</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4666</v>
+        <v>0.4571</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4565</v>
+        <v>0.4571</v>
       </c>
       <c r="F9" t="n">
-        <v>521950</v>
+        <v>11013</v>
       </c>
       <c r="G9" t="n">
-        <v>0.457415</v>
+        <v>0.4573533333333334</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.4546</v>
+        <v>0.4598</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4546</v>
+        <v>0.4565</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4546</v>
+        <v>0.4666</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4546</v>
+        <v>0.4565</v>
       </c>
       <c r="F10" t="n">
-        <v>64390</v>
+        <v>521950</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4576516666666667</v>
+        <v>0.457415</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.4565</v>
+        <v>0.4546</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4564</v>
+        <v>0.4546</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4657</v>
+        <v>0.4546</v>
       </c>
       <c r="E11" t="n">
-        <v>0.4515</v>
+        <v>0.4546</v>
       </c>
       <c r="F11" t="n">
-        <v>971936.291</v>
+        <v>64390</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4577116666666666</v>
+        <v>0.4576516666666667</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
+        <v>0.4565</v>
+      </c>
+      <c r="C12" t="n">
         <v>0.4564</v>
       </c>
-      <c r="C12" t="n">
-        <v>0.4651</v>
-      </c>
       <c r="D12" t="n">
-        <v>0.4652</v>
+        <v>0.4657</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4552</v>
+        <v>0.4515</v>
       </c>
       <c r="F12" t="n">
-        <v>301077.709</v>
+        <v>971936.291</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4576983333333333</v>
+        <v>0.4577116666666666</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.4544</v>
+        <v>0.4564</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4544</v>
+        <v>0.4651</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4544</v>
+        <v>0.4652</v>
       </c>
       <c r="E13" t="n">
-        <v>0.4544</v>
+        <v>0.4552</v>
       </c>
       <c r="F13" t="n">
-        <v>71590</v>
+        <v>301077.709</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4575099999999999</v>
+        <v>0.4576983333333333</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.4549</v>
+        <v>0.4544</v>
       </c>
       <c r="C14" t="n">
-        <v>0.455</v>
+        <v>0.4544</v>
       </c>
       <c r="D14" t="n">
-        <v>0.455</v>
+        <v>0.4544</v>
       </c>
       <c r="E14" t="n">
-        <v>0.4549</v>
+        <v>0.4544</v>
       </c>
       <c r="F14" t="n">
-        <v>379140</v>
+        <v>71590</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4573299999999998</v>
+        <v>0.4575099999999999</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.4561</v>
+        <v>0.4549</v>
       </c>
       <c r="C15" t="n">
         <v>0.455</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4561</v>
+        <v>0.455</v>
       </c>
       <c r="E15" t="n">
-        <v>0.455</v>
+        <v>0.4549</v>
       </c>
       <c r="F15" t="n">
-        <v>183956.737</v>
+        <v>379140</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4574033333333331</v>
+        <v>0.4573299999999998</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.455</v>
+        <v>0.4561</v>
       </c>
       <c r="C16" t="n">
         <v>0.455</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4566</v>
+        <v>0.4561</v>
       </c>
       <c r="E16" t="n">
         <v>0.455</v>
       </c>
       <c r="F16" t="n">
-        <v>300825.632</v>
+        <v>183956.737</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4573616666666664</v>
+        <v>0.4574033333333331</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -961,29 +961,35 @@
         <v>0.455</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4648</v>
+        <v>0.455</v>
       </c>
       <c r="D17" t="n">
-        <v>0.4648</v>
+        <v>0.4566</v>
       </c>
       <c r="E17" t="n">
         <v>0.455</v>
       </c>
       <c r="F17" t="n">
-        <v>30357</v>
+        <v>300825.632</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4574966666666664</v>
+        <v>0.4573616666666664</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0.455</v>
+      </c>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -993,22 +999,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.4566</v>
+        <v>0.455</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4565</v>
+        <v>0.4648</v>
       </c>
       <c r="D18" t="n">
-        <v>0.4566</v>
+        <v>0.4648</v>
       </c>
       <c r="E18" t="n">
-        <v>0.4565</v>
+        <v>0.455</v>
       </c>
       <c r="F18" t="n">
-        <v>257560</v>
+        <v>30357</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4576049999999998</v>
+        <v>0.4574966666666664</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1018,7 +1024,11 @@
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1028,32 +1038,38 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.4466</v>
+        <v>0.4566</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4548</v>
+        <v>0.4565</v>
       </c>
       <c r="D19" t="n">
+        <v>0.4566</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.4565</v>
+      </c>
+      <c r="F19" t="n">
+        <v>257560</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.4576049999999998</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
         <v>0.4648</v>
       </c>
-      <c r="E19" t="n">
-        <v>0.4464</v>
-      </c>
-      <c r="F19" t="n">
-        <v>3091497.195</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.4576616666666664</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1063,22 +1079,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.4548</v>
+        <v>0.4466</v>
       </c>
       <c r="C20" t="n">
         <v>0.4548</v>
       </c>
       <c r="D20" t="n">
-        <v>0.4548</v>
+        <v>0.4648</v>
       </c>
       <c r="E20" t="n">
-        <v>0.4547</v>
+        <v>0.4464</v>
       </c>
       <c r="F20" t="n">
-        <v>1185997.465</v>
+        <v>3091497.195</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4577199999999997</v>
+        <v>0.4576616666666664</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1088,7 +1104,11 @@
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1101,19 +1121,19 @@
         <v>0.4548</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4648</v>
+        <v>0.4548</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4648</v>
+        <v>0.4548</v>
       </c>
       <c r="E21" t="n">
-        <v>0.4548</v>
+        <v>0.4547</v>
       </c>
       <c r="F21" t="n">
-        <v>1543926.0966</v>
+        <v>1185997.465</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4579549999999997</v>
+        <v>0.4577199999999997</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1123,7 +1143,11 @@
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1133,22 +1157,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.4526</v>
+        <v>0.4548</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4635</v>
+        <v>0.4648</v>
       </c>
       <c r="D22" t="n">
-        <v>0.4636</v>
+        <v>0.4648</v>
       </c>
       <c r="E22" t="n">
-        <v>0.4526</v>
+        <v>0.4548</v>
       </c>
       <c r="F22" t="n">
-        <v>319330</v>
+        <v>1543926.0966</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4581699999999997</v>
+        <v>0.4579549999999997</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1158,7 +1182,11 @@
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1168,22 +1196,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.4634</v>
+        <v>0.4526</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4545</v>
+        <v>0.4635</v>
       </c>
       <c r="D23" t="n">
-        <v>0.4634</v>
+        <v>0.4636</v>
       </c>
       <c r="E23" t="n">
-        <v>0.454</v>
+        <v>0.4526</v>
       </c>
       <c r="F23" t="n">
-        <v>1347655.1497</v>
+        <v>319330</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4582266666666663</v>
+        <v>0.4581699999999997</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1193,7 +1221,11 @@
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1203,22 +1235,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.458</v>
+        <v>0.4634</v>
       </c>
       <c r="C24" t="n">
-        <v>0.4558</v>
+        <v>0.4545</v>
       </c>
       <c r="D24" t="n">
-        <v>0.463</v>
+        <v>0.4634</v>
       </c>
       <c r="E24" t="n">
-        <v>0.4557</v>
+        <v>0.454</v>
       </c>
       <c r="F24" t="n">
-        <v>423216</v>
+        <v>1347655.1497</v>
       </c>
       <c r="G24" t="n">
-        <v>0.458308333333333</v>
+        <v>0.4582266666666663</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1228,7 +1260,11 @@
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1238,22 +1274,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.4555</v>
+        <v>0.458</v>
       </c>
       <c r="C25" t="n">
-        <v>0.4555</v>
+        <v>0.4558</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4555</v>
+        <v>0.463</v>
       </c>
       <c r="E25" t="n">
-        <v>0.4555</v>
+        <v>0.4557</v>
       </c>
       <c r="F25" t="n">
-        <v>673040.8303</v>
+        <v>423216</v>
       </c>
       <c r="G25" t="n">
-        <v>0.458353333333333</v>
+        <v>0.458308333333333</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1263,7 +1299,11 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1273,22 +1313,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.4576</v>
+        <v>0.4555</v>
       </c>
       <c r="C26" t="n">
-        <v>0.4576</v>
+        <v>0.4555</v>
       </c>
       <c r="D26" t="n">
-        <v>0.4627</v>
+        <v>0.4555</v>
       </c>
       <c r="E26" t="n">
-        <v>0.4575</v>
+        <v>0.4555</v>
       </c>
       <c r="F26" t="n">
-        <v>154888</v>
+        <v>673040.8303</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4584849999999996</v>
+        <v>0.458353333333333</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1298,7 +1338,11 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1308,22 +1352,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.4577</v>
+        <v>0.4576</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4577</v>
+        <v>0.4576</v>
       </c>
       <c r="D27" t="n">
-        <v>0.4577</v>
+        <v>0.4627</v>
       </c>
       <c r="E27" t="n">
-        <v>0.4577</v>
+        <v>0.4575</v>
       </c>
       <c r="F27" t="n">
-        <v>128780</v>
+        <v>154888</v>
       </c>
       <c r="G27" t="n">
-        <v>0.458508333333333</v>
+        <v>0.4584849999999996</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1333,7 +1377,11 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1355,10 +1403,10 @@
         <v>0.4577</v>
       </c>
       <c r="F28" t="n">
-        <v>17045.1548</v>
+        <v>128780</v>
       </c>
       <c r="G28" t="n">
-        <v>0.4587516666666663</v>
+        <v>0.458508333333333</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1368,7 +1416,11 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1390,10 +1442,10 @@
         <v>0.4577</v>
       </c>
       <c r="F29" t="n">
-        <v>64390</v>
+        <v>17045.1548</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4589416666666662</v>
+        <v>0.4587516666666663</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1403,7 +1455,11 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1413,22 +1469,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.4578</v>
+        <v>0.4577</v>
       </c>
       <c r="C30" t="n">
-        <v>0.4578</v>
+        <v>0.4577</v>
       </c>
       <c r="D30" t="n">
-        <v>0.4578</v>
+        <v>0.4577</v>
       </c>
       <c r="E30" t="n">
-        <v>0.4578</v>
+        <v>0.4577</v>
       </c>
       <c r="F30" t="n">
-        <v>379437.5513</v>
+        <v>64390</v>
       </c>
       <c r="G30" t="n">
-        <v>0.4590733333333329</v>
+        <v>0.4589416666666662</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1438,7 +1494,11 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1451,33 +1511,31 @@
         <v>0.4578</v>
       </c>
       <c r="C31" t="n">
-        <v>0.4679</v>
+        <v>0.4578</v>
       </c>
       <c r="D31" t="n">
-        <v>0.4679</v>
+        <v>0.4578</v>
       </c>
       <c r="E31" t="n">
-        <v>0.45</v>
+        <v>0.4578</v>
       </c>
       <c r="F31" t="n">
-        <v>3280058.7202</v>
+        <v>379437.5513</v>
       </c>
       <c r="G31" t="n">
-        <v>0.4593283333333329</v>
+        <v>0.4590733333333329</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>0.4578</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M31" t="n">
@@ -1489,32 +1547,30 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.458</v>
+        <v>0.4578</v>
       </c>
       <c r="C32" t="n">
-        <v>0.4676</v>
+        <v>0.4679</v>
       </c>
       <c r="D32" t="n">
-        <v>0.4676</v>
+        <v>0.4679</v>
       </c>
       <c r="E32" t="n">
-        <v>0.458</v>
+        <v>0.45</v>
       </c>
       <c r="F32" t="n">
-        <v>3169050.7514</v>
+        <v>3280058.7202</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4595766666666662</v>
+        <v>0.4593283333333329</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>0.4679</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr">
         <is>
@@ -1530,22 +1586,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.4587</v>
+        <v>0.458</v>
       </c>
       <c r="C33" t="n">
-        <v>0.459</v>
+        <v>0.4676</v>
       </c>
       <c r="D33" t="n">
         <v>0.4676</v>
       </c>
       <c r="E33" t="n">
-        <v>0.4587</v>
+        <v>0.458</v>
       </c>
       <c r="F33" t="n">
-        <v>527105</v>
+        <v>3169050.7514</v>
       </c>
       <c r="G33" t="n">
-        <v>0.4597283333333329</v>
+        <v>0.4595766666666662</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1569,22 +1625,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
+        <v>0.4587</v>
+      </c>
+      <c r="C34" t="n">
         <v>0.459</v>
-      </c>
-      <c r="C34" t="n">
-        <v>0.4676</v>
       </c>
       <c r="D34" t="n">
         <v>0.4676</v>
       </c>
       <c r="E34" t="n">
-        <v>0.459</v>
+        <v>0.4587</v>
       </c>
       <c r="F34" t="n">
-        <v>111898</v>
+        <v>527105</v>
       </c>
       <c r="G34" t="n">
-        <v>0.460023333333333</v>
+        <v>0.4597283333333329</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1620,10 +1676,10 @@
         <v>0.459</v>
       </c>
       <c r="F35" t="n">
-        <v>334782</v>
+        <v>111898</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4602499999999996</v>
+        <v>0.460023333333333</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1647,22 +1703,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.4673</v>
+        <v>0.459</v>
       </c>
       <c r="C36" t="n">
-        <v>0.4673</v>
+        <v>0.4676</v>
       </c>
       <c r="D36" t="n">
-        <v>0.4673</v>
+        <v>0.4676</v>
       </c>
       <c r="E36" t="n">
-        <v>0.4673</v>
+        <v>0.459</v>
       </c>
       <c r="F36" t="n">
-        <v>6375.7575</v>
+        <v>334782</v>
       </c>
       <c r="G36" t="n">
-        <v>0.460438333333333</v>
+        <v>0.4602499999999996</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1686,22 +1742,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.4579</v>
+        <v>0.4673</v>
       </c>
       <c r="C37" t="n">
-        <v>0.4675</v>
+        <v>0.4673</v>
       </c>
       <c r="D37" t="n">
-        <v>0.4675</v>
+        <v>0.4673</v>
       </c>
       <c r="E37" t="n">
-        <v>0.4579</v>
+        <v>0.4673</v>
       </c>
       <c r="F37" t="n">
-        <v>800078.441</v>
+        <v>6375.7575</v>
       </c>
       <c r="G37" t="n">
-        <v>0.4606299999999997</v>
+        <v>0.460438333333333</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1725,22 +1781,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.467</v>
+        <v>0.4579</v>
       </c>
       <c r="C38" t="n">
-        <v>0.4673</v>
+        <v>0.4675</v>
       </c>
       <c r="D38" t="n">
-        <v>0.4673</v>
+        <v>0.4675</v>
       </c>
       <c r="E38" t="n">
-        <v>0.467</v>
+        <v>0.4579</v>
       </c>
       <c r="F38" t="n">
-        <v>168096</v>
+        <v>800078.441</v>
       </c>
       <c r="G38" t="n">
-        <v>0.460808333333333</v>
+        <v>0.4606299999999997</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1764,22 +1820,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.4579</v>
+        <v>0.467</v>
       </c>
       <c r="C39" t="n">
-        <v>0.4674</v>
+        <v>0.4673</v>
       </c>
       <c r="D39" t="n">
-        <v>0.4674</v>
+        <v>0.4673</v>
       </c>
       <c r="E39" t="n">
-        <v>0.4579</v>
+        <v>0.467</v>
       </c>
       <c r="F39" t="n">
-        <v>344550.968</v>
+        <v>168096</v>
       </c>
       <c r="G39" t="n">
-        <v>0.4607649999999997</v>
+        <v>0.460808333333333</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1803,22 +1859,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.4649</v>
+        <v>0.4579</v>
       </c>
       <c r="C40" t="n">
-        <v>0.4578</v>
+        <v>0.4674</v>
       </c>
       <c r="D40" t="n">
-        <v>0.4649</v>
+        <v>0.4674</v>
       </c>
       <c r="E40" t="n">
-        <v>0.4578</v>
+        <v>0.4579</v>
       </c>
       <c r="F40" t="n">
-        <v>1541659.5232</v>
+        <v>344550.968</v>
       </c>
       <c r="G40" t="n">
-        <v>0.4606616666666664</v>
+        <v>0.4607649999999997</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1842,22 +1898,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.4667</v>
+        <v>0.4649</v>
       </c>
       <c r="C41" t="n">
-        <v>0.4579</v>
+        <v>0.4578</v>
       </c>
       <c r="D41" t="n">
-        <v>0.4673</v>
+        <v>0.4649</v>
       </c>
       <c r="E41" t="n">
-        <v>0.4579</v>
+        <v>0.4578</v>
       </c>
       <c r="F41" t="n">
-        <v>969053.946</v>
+        <v>1541659.5232</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4605599999999997</v>
+        <v>0.4606616666666664</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1881,22 +1937,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.4579</v>
+        <v>0.4667</v>
       </c>
       <c r="C42" t="n">
         <v>0.4579</v>
       </c>
       <c r="D42" t="n">
-        <v>0.4579</v>
+        <v>0.4673</v>
       </c>
       <c r="E42" t="n">
         <v>0.4579</v>
       </c>
       <c r="F42" t="n">
-        <v>7942.13</v>
+        <v>969053.946</v>
       </c>
       <c r="G42" t="n">
-        <v>0.4605266666666664</v>
+        <v>0.4605599999999997</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1920,22 +1976,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.4578</v>
+        <v>0.4579</v>
       </c>
       <c r="C43" t="n">
-        <v>0.4578</v>
+        <v>0.4579</v>
       </c>
       <c r="D43" t="n">
-        <v>0.4578</v>
+        <v>0.4579</v>
       </c>
       <c r="E43" t="n">
-        <v>0.4578</v>
+        <v>0.4579</v>
       </c>
       <c r="F43" t="n">
-        <v>164931.138</v>
+        <v>7942.13</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4603249999999997</v>
+        <v>0.4605266666666664</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1962,19 +2018,19 @@
         <v>0.4578</v>
       </c>
       <c r="C44" t="n">
-        <v>0.4577</v>
+        <v>0.4578</v>
       </c>
       <c r="D44" t="n">
         <v>0.4578</v>
       </c>
       <c r="E44" t="n">
-        <v>0.4577</v>
+        <v>0.4578</v>
       </c>
       <c r="F44" t="n">
-        <v>3283582.1803</v>
+        <v>164931.138</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4602799999999997</v>
+        <v>0.4603249999999997</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1998,22 +2054,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.4576</v>
+        <v>0.4578</v>
       </c>
       <c r="C45" t="n">
-        <v>0.4576</v>
+        <v>0.4577</v>
       </c>
       <c r="D45" t="n">
-        <v>0.4576</v>
+        <v>0.4578</v>
       </c>
       <c r="E45" t="n">
-        <v>0.4576</v>
+        <v>0.4577</v>
       </c>
       <c r="F45" t="n">
-        <v>100000</v>
+        <v>3283582.1803</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4600749999999997</v>
+        <v>0.4602799999999997</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2037,22 +2093,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.45</v>
+        <v>0.4576</v>
       </c>
       <c r="C46" t="n">
-        <v>0.4502</v>
+        <v>0.4576</v>
       </c>
       <c r="D46" t="n">
-        <v>0.4502</v>
+        <v>0.4576</v>
       </c>
       <c r="E46" t="n">
-        <v>0.45</v>
+        <v>0.4576</v>
       </c>
       <c r="F46" t="n">
-        <v>331733.0984</v>
+        <v>100000</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4598766666666663</v>
+        <v>0.4600749999999997</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2076,22 +2132,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.4576</v>
+        <v>0.45</v>
       </c>
       <c r="C47" t="n">
-        <v>0.4577</v>
+        <v>0.4502</v>
       </c>
       <c r="D47" t="n">
-        <v>0.4577</v>
+        <v>0.4502</v>
       </c>
       <c r="E47" t="n">
-        <v>0.4576</v>
+        <v>0.45</v>
       </c>
       <c r="F47" t="n">
-        <v>894617.7572</v>
+        <v>331733.0984</v>
       </c>
       <c r="G47" t="n">
-        <v>0.459803333333333</v>
+        <v>0.4598766666666663</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2118,19 +2174,19 @@
         <v>0.4576</v>
       </c>
       <c r="C48" t="n">
-        <v>0.4576</v>
+        <v>0.4577</v>
       </c>
       <c r="D48" t="n">
-        <v>0.4576</v>
+        <v>0.4577</v>
       </c>
       <c r="E48" t="n">
         <v>0.4576</v>
       </c>
       <c r="F48" t="n">
-        <v>265898.8275</v>
+        <v>894617.7572</v>
       </c>
       <c r="G48" t="n">
-        <v>0.4597266666666663</v>
+        <v>0.459803333333333</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2154,22 +2210,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.4631</v>
+        <v>0.4576</v>
       </c>
       <c r="C49" t="n">
-        <v>0.4692</v>
+        <v>0.4576</v>
       </c>
       <c r="D49" t="n">
-        <v>0.4692</v>
+        <v>0.4576</v>
       </c>
       <c r="E49" t="n">
-        <v>0.4631</v>
+        <v>0.4576</v>
       </c>
       <c r="F49" t="n">
-        <v>127664</v>
+        <v>265898.8275</v>
       </c>
       <c r="G49" t="n">
-        <v>0.4597166666666663</v>
+        <v>0.4597266666666663</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2193,22 +2249,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
+        <v>0.4631</v>
+      </c>
+      <c r="C50" t="n">
         <v>0.4692</v>
       </c>
-      <c r="C50" t="n">
-        <v>0.4731</v>
-      </c>
       <c r="D50" t="n">
-        <v>0.4731</v>
+        <v>0.4692</v>
       </c>
       <c r="E50" t="n">
-        <v>0.4692</v>
+        <v>0.4631</v>
       </c>
       <c r="F50" t="n">
-        <v>2033837.7811</v>
+        <v>127664</v>
       </c>
       <c r="G50" t="n">
-        <v>0.4598999999999996</v>
+        <v>0.4597166666666663</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2232,22 +2288,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
+        <v>0.4692</v>
+      </c>
+      <c r="C51" t="n">
         <v>0.4731</v>
       </c>
-      <c r="C51" t="n">
-        <v>0.4898</v>
-      </c>
       <c r="D51" t="n">
-        <v>0.4899</v>
+        <v>0.4731</v>
       </c>
       <c r="E51" t="n">
-        <v>0.4731</v>
+        <v>0.4692</v>
       </c>
       <c r="F51" t="n">
-        <v>4444263.0573</v>
+        <v>2033837.7811</v>
       </c>
       <c r="G51" t="n">
-        <v>0.4602366666666663</v>
+        <v>0.4598999999999996</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2271,22 +2327,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.4843</v>
+        <v>0.4731</v>
       </c>
       <c r="C52" t="n">
-        <v>0.4843</v>
+        <v>0.4898</v>
       </c>
       <c r="D52" t="n">
         <v>0.4899</v>
       </c>
       <c r="E52" t="n">
-        <v>0.4798</v>
+        <v>0.4731</v>
       </c>
       <c r="F52" t="n">
-        <v>1050337.5513</v>
+        <v>4444263.0573</v>
       </c>
       <c r="G52" t="n">
-        <v>0.4608516666666663</v>
+        <v>0.4602366666666663</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2313,7 +2369,7 @@
         <v>0.4843</v>
       </c>
       <c r="C53" t="n">
-        <v>0.4848</v>
+        <v>0.4843</v>
       </c>
       <c r="D53" t="n">
         <v>0.4899</v>
@@ -2322,10 +2378,10 @@
         <v>0.4798</v>
       </c>
       <c r="F53" t="n">
-        <v>468030</v>
+        <v>1050337.5513</v>
       </c>
       <c r="G53" t="n">
-        <v>0.4612666666666663</v>
+        <v>0.4608516666666663</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2349,22 +2405,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.4895</v>
+        <v>0.4843</v>
       </c>
       <c r="C54" t="n">
-        <v>0.4895</v>
+        <v>0.4848</v>
       </c>
       <c r="D54" t="n">
-        <v>0.4895</v>
+        <v>0.4899</v>
       </c>
       <c r="E54" t="n">
-        <v>0.4895</v>
+        <v>0.4798</v>
       </c>
       <c r="F54" t="n">
-        <v>1955.6555</v>
+        <v>468030</v>
       </c>
       <c r="G54" t="n">
-        <v>0.4617599999999996</v>
+        <v>0.4612666666666663</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2388,39 +2444,37 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.4844</v>
+        <v>0.4895</v>
       </c>
       <c r="C55" t="n">
-        <v>0.4844</v>
+        <v>0.4895</v>
       </c>
       <c r="D55" t="n">
-        <v>0.4844</v>
+        <v>0.4895</v>
       </c>
       <c r="E55" t="n">
-        <v>0.4844</v>
+        <v>0.4895</v>
       </c>
       <c r="F55" t="n">
-        <v>124090</v>
+        <v>1955.6555</v>
       </c>
       <c r="G55" t="n">
-        <v>0.4623316666666663</v>
+        <v>0.4617599999999996</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2439,24 +2493,20 @@
         <v>0.4844</v>
       </c>
       <c r="F56" t="n">
-        <v>2122368</v>
+        <v>124090</v>
       </c>
       <c r="G56" t="n">
-        <v>0.4627416666666663</v>
+        <v>0.4623316666666663</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2466,36 +2516,32 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.4895</v>
+        <v>0.4844</v>
       </c>
       <c r="C57" t="n">
-        <v>0.49</v>
+        <v>0.4844</v>
       </c>
       <c r="D57" t="n">
-        <v>0.49</v>
+        <v>0.4844</v>
       </c>
       <c r="E57" t="n">
-        <v>0.4895</v>
+        <v>0.4844</v>
       </c>
       <c r="F57" t="n">
-        <v>2135782</v>
+        <v>2122368</v>
       </c>
       <c r="G57" t="n">
-        <v>0.4632449999999996</v>
+        <v>0.4627416666666663</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2505,36 +2551,32 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
+        <v>0.4895</v>
+      </c>
+      <c r="C58" t="n">
         <v>0.49</v>
       </c>
-      <c r="C58" t="n">
-        <v>0.4906</v>
-      </c>
       <c r="D58" t="n">
-        <v>0.4906</v>
+        <v>0.49</v>
       </c>
       <c r="E58" t="n">
-        <v>0.49</v>
+        <v>0.4895</v>
       </c>
       <c r="F58" t="n">
-        <v>1328275.9093</v>
+        <v>2135782</v>
       </c>
       <c r="G58" t="n">
-        <v>0.4638099999999996</v>
+        <v>0.4632449999999996</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2544,7 +2586,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.4906</v>
+        <v>0.49</v>
       </c>
       <c r="C59" t="n">
         <v>0.4906</v>
@@ -2553,27 +2595,23 @@
         <v>0.4906</v>
       </c>
       <c r="E59" t="n">
-        <v>0.4906</v>
+        <v>0.49</v>
       </c>
       <c r="F59" t="n">
-        <v>4100</v>
+        <v>1328275.9093</v>
       </c>
       <c r="G59" t="n">
-        <v>0.4643233333333329</v>
+        <v>0.4638099999999996</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2583,36 +2621,32 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.4905</v>
+        <v>0.4906</v>
       </c>
       <c r="C60" t="n">
-        <v>0.4905</v>
+        <v>0.4906</v>
       </c>
       <c r="D60" t="n">
-        <v>0.4905</v>
+        <v>0.4906</v>
       </c>
       <c r="E60" t="n">
-        <v>0.4905</v>
+        <v>0.4906</v>
       </c>
       <c r="F60" t="n">
-        <v>6098.9219</v>
+        <v>4100</v>
       </c>
       <c r="G60" t="n">
-        <v>0.4648333333333329</v>
+        <v>0.4643233333333329</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2622,36 +2656,32 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.4799</v>
+        <v>0.4905</v>
       </c>
       <c r="C61" t="n">
-        <v>0.4799</v>
+        <v>0.4905</v>
       </c>
       <c r="D61" t="n">
-        <v>0.4799</v>
+        <v>0.4905</v>
       </c>
       <c r="E61" t="n">
-        <v>0.4799</v>
+        <v>0.4905</v>
       </c>
       <c r="F61" t="n">
-        <v>25000</v>
+        <v>6098.9219</v>
       </c>
       <c r="G61" t="n">
-        <v>0.4649999999999996</v>
+        <v>0.4648333333333329</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2664,19 +2694,19 @@
         <v>0.4799</v>
       </c>
       <c r="C62" t="n">
-        <v>0.4749</v>
+        <v>0.4799</v>
       </c>
       <c r="D62" t="n">
-        <v>0.485</v>
+        <v>0.4799</v>
       </c>
       <c r="E62" t="n">
-        <v>0.47</v>
+        <v>0.4799</v>
       </c>
       <c r="F62" t="n">
-        <v>374445.84</v>
+        <v>25000</v>
       </c>
       <c r="G62" t="n">
-        <v>0.4650849999999996</v>
+        <v>0.4649999999999996</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2686,11 +2716,7 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2700,22 +2726,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.4603</v>
+        <v>0.4799</v>
       </c>
       <c r="C63" t="n">
-        <v>0.4505</v>
+        <v>0.4749</v>
       </c>
       <c r="D63" t="n">
-        <v>0.4603</v>
+        <v>0.485</v>
       </c>
       <c r="E63" t="n">
-        <v>0.4505</v>
+        <v>0.47</v>
       </c>
       <c r="F63" t="n">
-        <v>381879.9093</v>
+        <v>374445.84</v>
       </c>
       <c r="G63" t="n">
-        <v>0.4647666666666663</v>
+        <v>0.4650849999999996</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2725,11 +2751,7 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2739,22 +2761,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.4725</v>
+        <v>0.4603</v>
       </c>
       <c r="C64" t="n">
-        <v>0.4733</v>
+        <v>0.4505</v>
       </c>
       <c r="D64" t="n">
-        <v>0.4733</v>
+        <v>0.4603</v>
       </c>
       <c r="E64" t="n">
-        <v>0.4725</v>
+        <v>0.4505</v>
       </c>
       <c r="F64" t="n">
-        <v>207680</v>
+        <v>381879.9093</v>
       </c>
       <c r="G64" t="n">
-        <v>0.4651666666666662</v>
+        <v>0.4647666666666663</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2764,11 +2786,7 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2778,22 +2796,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.4713</v>
+        <v>0.4725</v>
       </c>
       <c r="C65" t="n">
-        <v>0.4761</v>
+        <v>0.4733</v>
       </c>
       <c r="D65" t="n">
-        <v>0.4761</v>
+        <v>0.4733</v>
       </c>
       <c r="E65" t="n">
-        <v>0.4713</v>
+        <v>0.4725</v>
       </c>
       <c r="F65" t="n">
-        <v>209269.6448</v>
+        <v>207680</v>
       </c>
       <c r="G65" t="n">
-        <v>0.4653666666666663</v>
+        <v>0.4651666666666662</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2803,11 +2821,7 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2817,22 +2831,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.4858</v>
+        <v>0.4713</v>
       </c>
       <c r="C66" t="n">
-        <v>0.4858</v>
+        <v>0.4761</v>
       </c>
       <c r="D66" t="n">
-        <v>0.4858</v>
+        <v>0.4761</v>
       </c>
       <c r="E66" t="n">
-        <v>0.4858</v>
+        <v>0.4713</v>
       </c>
       <c r="F66" t="n">
-        <v>2654.8655</v>
+        <v>209269.6448</v>
       </c>
       <c r="G66" t="n">
-        <v>0.4658799999999996</v>
+        <v>0.4653666666666663</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2842,11 +2856,7 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2856,22 +2866,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.4801</v>
+        <v>0.4858</v>
       </c>
       <c r="C67" t="n">
-        <v>0.4801</v>
+        <v>0.4858</v>
       </c>
       <c r="D67" t="n">
-        <v>0.4801</v>
+        <v>0.4858</v>
       </c>
       <c r="E67" t="n">
-        <v>0.4801</v>
+        <v>0.4858</v>
       </c>
       <c r="F67" t="n">
-        <v>70970</v>
+        <v>2654.8655</v>
       </c>
       <c r="G67" t="n">
-        <v>0.466263333333333</v>
+        <v>0.4658799999999996</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2881,11 +2891,7 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2895,22 +2901,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.4796</v>
+        <v>0.4801</v>
       </c>
       <c r="C68" t="n">
-        <v>0.4793</v>
+        <v>0.4801</v>
       </c>
       <c r="D68" t="n">
-        <v>0.4796</v>
+        <v>0.4801</v>
       </c>
       <c r="E68" t="n">
-        <v>0.4793</v>
+        <v>0.4801</v>
       </c>
       <c r="F68" t="n">
-        <v>231901.9704</v>
+        <v>70970</v>
       </c>
       <c r="G68" t="n">
-        <v>0.466633333333333</v>
+        <v>0.466263333333333</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2920,11 +2926,7 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2934,22 +2936,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
+        <v>0.4796</v>
+      </c>
+      <c r="C69" t="n">
         <v>0.4793</v>
       </c>
-      <c r="C69" t="n">
-        <v>0.4799</v>
-      </c>
       <c r="D69" t="n">
-        <v>0.4799</v>
+        <v>0.4796</v>
       </c>
       <c r="E69" t="n">
         <v>0.4793</v>
       </c>
       <c r="F69" t="n">
-        <v>90289.10000000001</v>
+        <v>231901.9704</v>
       </c>
       <c r="G69" t="n">
-        <v>0.467023333333333</v>
+        <v>0.466633333333333</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2959,11 +2961,7 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2973,22 +2971,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.4798</v>
+        <v>0.4793</v>
       </c>
       <c r="C70" t="n">
-        <v>0.4797</v>
+        <v>0.4799</v>
       </c>
       <c r="D70" t="n">
-        <v>0.48</v>
+        <v>0.4799</v>
       </c>
       <c r="E70" t="n">
-        <v>0.4797</v>
+        <v>0.4793</v>
       </c>
       <c r="F70" t="n">
-        <v>806027.6</v>
+        <v>90289.10000000001</v>
       </c>
       <c r="G70" t="n">
-        <v>0.4674416666666664</v>
+        <v>0.467023333333333</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2998,11 +2996,7 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3012,22 +3006,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.4801</v>
+        <v>0.4798</v>
       </c>
       <c r="C71" t="n">
-        <v>0.4801</v>
+        <v>0.4797</v>
       </c>
       <c r="D71" t="n">
-        <v>0.4801</v>
+        <v>0.48</v>
       </c>
       <c r="E71" t="n">
-        <v>0.4801</v>
+        <v>0.4797</v>
       </c>
       <c r="F71" t="n">
-        <v>69300</v>
+        <v>806027.6</v>
       </c>
       <c r="G71" t="n">
-        <v>0.4678366666666663</v>
+        <v>0.4674416666666664</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3037,11 +3031,7 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3051,22 +3041,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.476</v>
+        <v>0.4801</v>
       </c>
       <c r="C72" t="n">
-        <v>0.476</v>
+        <v>0.4801</v>
       </c>
       <c r="D72" t="n">
-        <v>0.476</v>
+        <v>0.4801</v>
       </c>
       <c r="E72" t="n">
-        <v>0.476</v>
+        <v>0.4801</v>
       </c>
       <c r="F72" t="n">
-        <v>9985</v>
+        <v>69300</v>
       </c>
       <c r="G72" t="n">
-        <v>0.468018333333333</v>
+        <v>0.4678366666666663</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3076,11 +3066,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3090,22 +3076,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.4799</v>
+        <v>0.476</v>
       </c>
       <c r="C73" t="n">
-        <v>0.48</v>
+        <v>0.476</v>
       </c>
       <c r="D73" t="n">
-        <v>0.48</v>
+        <v>0.476</v>
       </c>
       <c r="E73" t="n">
-        <v>0.4799</v>
+        <v>0.476</v>
       </c>
       <c r="F73" t="n">
-        <v>366673.2</v>
+        <v>9985</v>
       </c>
       <c r="G73" t="n">
-        <v>0.4684449999999997</v>
+        <v>0.468018333333333</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3115,11 +3101,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3132,19 +3114,19 @@
         <v>0.4799</v>
       </c>
       <c r="C74" t="n">
-        <v>0.4799</v>
+        <v>0.48</v>
       </c>
       <c r="D74" t="n">
-        <v>0.4799</v>
+        <v>0.48</v>
       </c>
       <c r="E74" t="n">
         <v>0.4799</v>
       </c>
       <c r="F74" t="n">
-        <v>3080.78</v>
+        <v>366673.2</v>
       </c>
       <c r="G74" t="n">
-        <v>0.4688599999999997</v>
+        <v>0.4684449999999997</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3154,11 +3136,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3168,7 +3146,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.4798</v>
+        <v>0.4799</v>
       </c>
       <c r="C75" t="n">
         <v>0.4799</v>
@@ -3177,13 +3155,13 @@
         <v>0.4799</v>
       </c>
       <c r="E75" t="n">
-        <v>0.4798</v>
+        <v>0.4799</v>
       </c>
       <c r="F75" t="n">
-        <v>13680</v>
+        <v>3080.78</v>
       </c>
       <c r="G75" t="n">
-        <v>0.4692749999999998</v>
+        <v>0.4688599999999997</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3193,11 +3171,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3210,19 +3184,19 @@
         <v>0.4798</v>
       </c>
       <c r="C76" t="n">
-        <v>0.4798</v>
+        <v>0.4799</v>
       </c>
       <c r="D76" t="n">
-        <v>0.4798</v>
+        <v>0.4799</v>
       </c>
       <c r="E76" t="n">
         <v>0.4798</v>
       </c>
       <c r="F76" t="n">
-        <v>4577</v>
+        <v>13680</v>
       </c>
       <c r="G76" t="n">
-        <v>0.4696883333333332</v>
+        <v>0.4692749999999998</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3232,11 +3206,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3246,22 +3216,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.4799</v>
+        <v>0.4798</v>
       </c>
       <c r="C77" t="n">
-        <v>0.4799</v>
+        <v>0.4798</v>
       </c>
       <c r="D77" t="n">
-        <v>0.4799</v>
+        <v>0.4798</v>
       </c>
       <c r="E77" t="n">
-        <v>0.4799</v>
+        <v>0.4798</v>
       </c>
       <c r="F77" t="n">
-        <v>10859</v>
+        <v>4577</v>
       </c>
       <c r="G77" t="n">
-        <v>0.4699399999999999</v>
+        <v>0.4696883333333332</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3271,11 +3241,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3285,22 +3251,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.4798</v>
+        <v>0.4799</v>
       </c>
       <c r="C78" t="n">
-        <v>0.4798</v>
+        <v>0.4799</v>
       </c>
       <c r="D78" t="n">
-        <v>0.4798</v>
+        <v>0.4799</v>
       </c>
       <c r="E78" t="n">
-        <v>0.4798</v>
+        <v>0.4799</v>
       </c>
       <c r="F78" t="n">
-        <v>5645.1957</v>
+        <v>10859</v>
       </c>
       <c r="G78" t="n">
-        <v>0.4703283333333332</v>
+        <v>0.4699399999999999</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3310,11 +3276,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3324,22 +3286,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.4799</v>
+        <v>0.4798</v>
       </c>
       <c r="C79" t="n">
-        <v>0.4799</v>
+        <v>0.4798</v>
       </c>
       <c r="D79" t="n">
-        <v>0.4799</v>
+        <v>0.4798</v>
       </c>
       <c r="E79" t="n">
-        <v>0.4799</v>
+        <v>0.4798</v>
       </c>
       <c r="F79" t="n">
-        <v>379506.2917</v>
+        <v>5645.1957</v>
       </c>
       <c r="G79" t="n">
-        <v>0.4707466666666666</v>
+        <v>0.4703283333333332</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3349,11 +3311,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3363,22 +3321,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.476</v>
+        <v>0.4799</v>
       </c>
       <c r="C80" t="n">
-        <v>0.476</v>
+        <v>0.4799</v>
       </c>
       <c r="D80" t="n">
-        <v>0.476</v>
+        <v>0.4799</v>
       </c>
       <c r="E80" t="n">
-        <v>0.476</v>
+        <v>0.4799</v>
       </c>
       <c r="F80" t="n">
-        <v>13832.328</v>
+        <v>379506.2917</v>
       </c>
       <c r="G80" t="n">
-        <v>0.4710999999999999</v>
+        <v>0.4707466666666666</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3388,11 +3346,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3414,10 +3368,10 @@
         <v>0.476</v>
       </c>
       <c r="F81" t="n">
-        <v>94445.14599999999</v>
+        <v>13832.328</v>
       </c>
       <c r="G81" t="n">
-        <v>0.4712866666666666</v>
+        <v>0.4710999999999999</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3427,11 +3381,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3441,22 +3391,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.4798</v>
+        <v>0.476</v>
       </c>
       <c r="C82" t="n">
-        <v>0.48</v>
+        <v>0.476</v>
       </c>
       <c r="D82" t="n">
-        <v>0.48</v>
+        <v>0.476</v>
       </c>
       <c r="E82" t="n">
-        <v>0.4798</v>
+        <v>0.476</v>
       </c>
       <c r="F82" t="n">
-        <v>1524996.4</v>
+        <v>94445.14599999999</v>
       </c>
       <c r="G82" t="n">
-        <v>0.4715616666666665</v>
+        <v>0.4712866666666666</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3466,11 +3416,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3480,22 +3426,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
+        <v>0.4798</v>
+      </c>
+      <c r="C83" t="n">
         <v>0.48</v>
       </c>
-      <c r="C83" t="n">
-        <v>0.4855</v>
-      </c>
       <c r="D83" t="n">
-        <v>0.4855</v>
+        <v>0.48</v>
       </c>
       <c r="E83" t="n">
-        <v>0.48</v>
+        <v>0.4798</v>
       </c>
       <c r="F83" t="n">
-        <v>840395</v>
+        <v>1524996.4</v>
       </c>
       <c r="G83" t="n">
-        <v>0.4720783333333332</v>
+        <v>0.4715616666666665</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3505,11 +3451,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3519,22 +3461,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.484</v>
+        <v>0.48</v>
       </c>
       <c r="C84" t="n">
-        <v>0.485</v>
+        <v>0.4855</v>
       </c>
       <c r="D84" t="n">
-        <v>0.485</v>
+        <v>0.4855</v>
       </c>
       <c r="E84" t="n">
-        <v>0.484</v>
+        <v>0.48</v>
       </c>
       <c r="F84" t="n">
-        <v>766941.1735</v>
+        <v>840395</v>
       </c>
       <c r="G84" t="n">
-        <v>0.4725649999999998</v>
+        <v>0.4720783333333332</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3544,11 +3486,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3558,7 +3496,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.485</v>
+        <v>0.484</v>
       </c>
       <c r="C85" t="n">
         <v>0.485</v>
@@ -3567,13 +3505,13 @@
         <v>0.485</v>
       </c>
       <c r="E85" t="n">
-        <v>0.485</v>
+        <v>0.484</v>
       </c>
       <c r="F85" t="n">
-        <v>355815.2537</v>
+        <v>766941.1735</v>
       </c>
       <c r="G85" t="n">
-        <v>0.4730566666666665</v>
+        <v>0.4725649999999998</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3583,11 +3521,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3609,10 +3543,10 @@
         <v>0.485</v>
       </c>
       <c r="F86" t="n">
-        <v>7285</v>
+        <v>355815.2537</v>
       </c>
       <c r="G86" t="n">
-        <v>0.4735133333333332</v>
+        <v>0.4730566666666665</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3622,11 +3556,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3639,19 +3569,19 @@
         <v>0.485</v>
       </c>
       <c r="C87" t="n">
-        <v>0.4856</v>
+        <v>0.485</v>
       </c>
       <c r="D87" t="n">
-        <v>0.4856</v>
+        <v>0.485</v>
       </c>
       <c r="E87" t="n">
         <v>0.485</v>
       </c>
       <c r="F87" t="n">
-        <v>2888000.9584</v>
+        <v>7285</v>
       </c>
       <c r="G87" t="n">
-        <v>0.4739783333333332</v>
+        <v>0.4735133333333332</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3661,11 +3591,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3675,22 +3601,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="C88" t="n">
         <v>0.4856</v>
       </c>
-      <c r="C88" t="n">
-        <v>0.4898</v>
-      </c>
       <c r="D88" t="n">
-        <v>0.4898</v>
+        <v>0.4856</v>
       </c>
       <c r="E88" t="n">
-        <v>0.4856</v>
+        <v>0.485</v>
       </c>
       <c r="F88" t="n">
-        <v>1308772.3</v>
+        <v>2888000.9584</v>
       </c>
       <c r="G88" t="n">
-        <v>0.4745133333333332</v>
+        <v>0.4739783333333332</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3700,11 +3626,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3714,7 +3636,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.4898</v>
+        <v>0.4856</v>
       </c>
       <c r="C89" t="n">
         <v>0.4898</v>
@@ -3723,13 +3645,13 @@
         <v>0.4898</v>
       </c>
       <c r="E89" t="n">
-        <v>0.4898</v>
+        <v>0.4856</v>
       </c>
       <c r="F89" t="n">
-        <v>6959</v>
+        <v>1308772.3</v>
       </c>
       <c r="G89" t="n">
-        <v>0.4750483333333332</v>
+        <v>0.4745133333333332</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3739,11 +3661,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3756,19 +3674,19 @@
         <v>0.4898</v>
       </c>
       <c r="C90" t="n">
-        <v>0.4899</v>
+        <v>0.4898</v>
       </c>
       <c r="D90" t="n">
-        <v>0.4899</v>
+        <v>0.4898</v>
       </c>
       <c r="E90" t="n">
-        <v>0.485</v>
+        <v>0.4898</v>
       </c>
       <c r="F90" t="n">
-        <v>15355.7279</v>
+        <v>6959</v>
       </c>
       <c r="G90" t="n">
-        <v>0.4755833333333332</v>
+        <v>0.4750483333333332</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3778,11 +3696,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3792,7 +3706,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.4899</v>
+        <v>0.4898</v>
       </c>
       <c r="C91" t="n">
         <v>0.4899</v>
@@ -3801,13 +3715,13 @@
         <v>0.4899</v>
       </c>
       <c r="E91" t="n">
-        <v>0.4899</v>
+        <v>0.485</v>
       </c>
       <c r="F91" t="n">
-        <v>6851</v>
+        <v>15355.7279</v>
       </c>
       <c r="G91" t="n">
-        <v>0.4759499999999999</v>
+        <v>0.4755833333333332</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3817,11 +3731,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3843,10 +3753,10 @@
         <v>0.4899</v>
       </c>
       <c r="F92" t="n">
-        <v>189028</v>
+        <v>6851</v>
       </c>
       <c r="G92" t="n">
-        <v>0.4763216666666665</v>
+        <v>0.4759499999999999</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3856,11 +3766,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3882,10 +3788,10 @@
         <v>0.4899</v>
       </c>
       <c r="F93" t="n">
-        <v>350722.1635</v>
+        <v>189028</v>
       </c>
       <c r="G93" t="n">
-        <v>0.4768366666666665</v>
+        <v>0.4763216666666665</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3895,11 +3801,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3921,10 +3823,10 @@
         <v>0.4899</v>
       </c>
       <c r="F94" t="n">
-        <v>982001</v>
+        <v>350722.1635</v>
       </c>
       <c r="G94" t="n">
-        <v>0.4772083333333331</v>
+        <v>0.4768366666666665</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3934,11 +3836,7 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3960,10 +3858,10 @@
         <v>0.4899</v>
       </c>
       <c r="F95" t="n">
-        <v>114508.1116</v>
+        <v>982001</v>
       </c>
       <c r="G95" t="n">
-        <v>0.4775799999999997</v>
+        <v>0.4772083333333331</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3973,11 +3871,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3999,10 +3893,10 @@
         <v>0.4899</v>
       </c>
       <c r="F96" t="n">
-        <v>320617.3157</v>
+        <v>114508.1116</v>
       </c>
       <c r="G96" t="n">
-        <v>0.4779566666666664</v>
+        <v>0.4775799999999997</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4012,11 +3906,7 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4038,10 +3928,10 @@
         <v>0.4899</v>
       </c>
       <c r="F97" t="n">
-        <v>864135.4282</v>
+        <v>320617.3157</v>
       </c>
       <c r="G97" t="n">
-        <v>0.4783299999999996</v>
+        <v>0.4779566666666664</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4051,11 +3941,7 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4068,19 +3954,19 @@
         <v>0.4899</v>
       </c>
       <c r="C98" t="n">
-        <v>0.4949</v>
+        <v>0.4899</v>
       </c>
       <c r="D98" t="n">
-        <v>0.4949</v>
+        <v>0.4899</v>
       </c>
       <c r="E98" t="n">
         <v>0.4899</v>
       </c>
       <c r="F98" t="n">
-        <v>398142</v>
+        <v>864135.4282</v>
       </c>
       <c r="G98" t="n">
-        <v>0.4787899999999997</v>
+        <v>0.4783299999999996</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4090,11 +3976,7 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4104,22 +3986,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
+        <v>0.4899</v>
+      </c>
+      <c r="C99" t="n">
         <v>0.4949</v>
       </c>
-      <c r="C99" t="n">
-        <v>0.4983</v>
-      </c>
       <c r="D99" t="n">
-        <v>0.4983</v>
+        <v>0.4949</v>
       </c>
       <c r="E99" t="n">
-        <v>0.4949</v>
+        <v>0.4899</v>
       </c>
       <c r="F99" t="n">
-        <v>75000</v>
+        <v>398142</v>
       </c>
       <c r="G99" t="n">
-        <v>0.4793049999999996</v>
+        <v>0.4787899999999997</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4129,11 +4011,7 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4143,22 +4021,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.498</v>
+        <v>0.4949</v>
       </c>
       <c r="C100" t="n">
-        <v>0.498</v>
+        <v>0.4983</v>
       </c>
       <c r="D100" t="n">
-        <v>0.498</v>
+        <v>0.4983</v>
       </c>
       <c r="E100" t="n">
-        <v>0.498</v>
+        <v>0.4949</v>
       </c>
       <c r="F100" t="n">
-        <v>64896.5397</v>
+        <v>75000</v>
       </c>
       <c r="G100" t="n">
-        <v>0.4799749999999997</v>
+        <v>0.4793049999999996</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4168,11 +4046,7 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4194,10 +4068,10 @@
         <v>0.498</v>
       </c>
       <c r="F101" t="n">
-        <v>50000</v>
+        <v>64896.5397</v>
       </c>
       <c r="G101" t="n">
-        <v>0.480643333333333</v>
+        <v>0.4799749999999997</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4207,11 +4081,7 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4233,10 +4103,10 @@
         <v>0.498</v>
       </c>
       <c r="F102" t="n">
-        <v>75000</v>
+        <v>50000</v>
       </c>
       <c r="G102" t="n">
-        <v>0.4813116666666664</v>
+        <v>0.480643333333333</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4246,11 +4116,7 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4260,22 +4126,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>0.4935</v>
+        <v>0.498</v>
       </c>
       <c r="C103" t="n">
-        <v>0.4979</v>
+        <v>0.498</v>
       </c>
       <c r="D103" t="n">
-        <v>0.4979</v>
+        <v>0.498</v>
       </c>
       <c r="E103" t="n">
-        <v>0.4935</v>
+        <v>0.498</v>
       </c>
       <c r="F103" t="n">
-        <v>391098</v>
+        <v>75000</v>
       </c>
       <c r="G103" t="n">
-        <v>0.4819799999999998</v>
+        <v>0.4813116666666664</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4285,11 +4151,7 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4299,22 +4161,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>0.4978</v>
+        <v>0.4935</v>
       </c>
       <c r="C104" t="n">
-        <v>0.4978</v>
+        <v>0.4979</v>
       </c>
       <c r="D104" t="n">
         <v>0.4979</v>
       </c>
       <c r="E104" t="n">
-        <v>0.4978</v>
+        <v>0.4935</v>
       </c>
       <c r="F104" t="n">
-        <v>58800</v>
+        <v>391098</v>
       </c>
       <c r="G104" t="n">
-        <v>0.4826483333333332</v>
+        <v>0.4819799999999998</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4324,11 +4186,7 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4338,22 +4196,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>0.4977</v>
+        <v>0.4978</v>
       </c>
       <c r="C105" t="n">
         <v>0.4978</v>
       </c>
       <c r="D105" t="n">
+        <v>0.4979</v>
+      </c>
+      <c r="E105" t="n">
         <v>0.4978</v>
       </c>
-      <c r="E105" t="n">
-        <v>0.4977</v>
-      </c>
       <c r="F105" t="n">
-        <v>8090.48</v>
+        <v>58800</v>
       </c>
       <c r="G105" t="n">
-        <v>0.4833183333333332</v>
+        <v>0.4826483333333332</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4363,11 +4221,7 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4377,22 +4231,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>0.4979</v>
+        <v>0.4977</v>
       </c>
       <c r="C106" t="n">
-        <v>0.498</v>
+        <v>0.4978</v>
       </c>
       <c r="D106" t="n">
-        <v>0.498</v>
+        <v>0.4978</v>
       </c>
       <c r="E106" t="n">
-        <v>0.4979</v>
+        <v>0.4977</v>
       </c>
       <c r="F106" t="n">
-        <v>986882</v>
+        <v>8090.48</v>
       </c>
       <c r="G106" t="n">
-        <v>0.4841149999999999</v>
+        <v>0.4833183333333332</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4402,11 +4256,7 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4416,22 +4266,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
+        <v>0.4979</v>
+      </c>
+      <c r="C107" t="n">
         <v>0.498</v>
       </c>
-      <c r="C107" t="n">
-        <v>0.4981</v>
-      </c>
       <c r="D107" t="n">
-        <v>0.4981</v>
+        <v>0.498</v>
       </c>
       <c r="E107" t="n">
-        <v>0.498</v>
+        <v>0.4979</v>
       </c>
       <c r="F107" t="n">
-        <v>2054011.58</v>
+        <v>986882</v>
       </c>
       <c r="G107" t="n">
-        <v>0.4847883333333333</v>
+        <v>0.4841149999999999</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4441,11 +4291,7 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4455,22 +4301,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
+        <v>0.498</v>
+      </c>
+      <c r="C108" t="n">
         <v>0.4981</v>
       </c>
-      <c r="C108" t="n">
-        <v>0.5</v>
-      </c>
       <c r="D108" t="n">
-        <v>0.5</v>
+        <v>0.4981</v>
       </c>
       <c r="E108" t="n">
-        <v>0.4981</v>
+        <v>0.498</v>
       </c>
       <c r="F108" t="n">
-        <v>4277605.9</v>
+        <v>2054011.58</v>
       </c>
       <c r="G108" t="n">
-        <v>0.485495</v>
+        <v>0.4847883333333333</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4480,11 +4326,7 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4494,7 +4336,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>0.5</v>
+        <v>0.4981</v>
       </c>
       <c r="C109" t="n">
         <v>0.5</v>
@@ -4503,56 +4345,54 @@
         <v>0.5</v>
       </c>
       <c r="E109" t="n">
-        <v>0.5</v>
+        <v>0.4981</v>
       </c>
       <c r="F109" t="n">
-        <v>4372606.7964</v>
+        <v>4277605.9</v>
       </c>
       <c r="G109" t="n">
-        <v>0.4860083333333333</v>
+        <v>0.485495</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>0.5054999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="C110" t="n">
-        <v>0.5086000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="D110" t="n">
-        <v>0.5086000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="E110" t="n">
-        <v>0.5054999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="F110" t="n">
-        <v>20019</v>
+        <v>4372606.7964</v>
       </c>
       <c r="G110" t="n">
-        <v>0.4866</v>
+        <v>0.4860083333333333</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
@@ -4566,28 +4406,28 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>0.4938</v>
+        <v>0.5054999999999999</v>
       </c>
       <c r="C111" t="n">
-        <v>0.4938</v>
+        <v>0.5086000000000001</v>
       </c>
       <c r="D111" t="n">
-        <v>0.4938</v>
+        <v>0.5086000000000001</v>
       </c>
       <c r="E111" t="n">
-        <v>0.4938</v>
+        <v>0.5054999999999999</v>
       </c>
       <c r="F111" t="n">
-        <v>7291.345</v>
+        <v>20019</v>
       </c>
       <c r="G111" t="n">
-        <v>0.4866666666666666</v>
+        <v>0.4866</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
@@ -4601,28 +4441,28 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>0.5086000000000001</v>
+        <v>0.4938</v>
       </c>
       <c r="C112" t="n">
-        <v>0.5087</v>
+        <v>0.4938</v>
       </c>
       <c r="D112" t="n">
-        <v>0.5087</v>
+        <v>0.4938</v>
       </c>
       <c r="E112" t="n">
-        <v>0.5086000000000001</v>
+        <v>0.4938</v>
       </c>
       <c r="F112" t="n">
-        <v>55000</v>
+        <v>7291.345</v>
       </c>
       <c r="G112" t="n">
-        <v>0.4870733333333333</v>
+        <v>0.4866666666666666</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
@@ -4636,7 +4476,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>0.5087</v>
+        <v>0.5086000000000001</v>
       </c>
       <c r="C113" t="n">
         <v>0.5087</v>
@@ -4645,13 +4485,13 @@
         <v>0.5087</v>
       </c>
       <c r="E113" t="n">
-        <v>0.5087</v>
+        <v>0.5086000000000001</v>
       </c>
       <c r="F113" t="n">
-        <v>410160</v>
+        <v>55000</v>
       </c>
       <c r="G113" t="n">
-        <v>0.4874716666666667</v>
+        <v>0.4870733333333333</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4683,10 +4523,10 @@
         <v>0.5087</v>
       </c>
       <c r="F114" t="n">
-        <v>1814721</v>
+        <v>410160</v>
       </c>
       <c r="G114" t="n">
-        <v>0.4877916666666667</v>
+        <v>0.4874716666666667</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4709,25 +4549,25 @@
         <v>0.5087</v>
       </c>
       <c r="C115" t="n">
-        <v>0.5238</v>
+        <v>0.5087</v>
       </c>
       <c r="D115" t="n">
-        <v>0.5238</v>
+        <v>0.5087</v>
       </c>
       <c r="E115" t="n">
         <v>0.5087</v>
       </c>
       <c r="F115" t="n">
-        <v>3180991.81862226</v>
+        <v>1814721</v>
       </c>
       <c r="G115" t="n">
-        <v>0.4884483333333334</v>
+        <v>0.4877916666666667</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
@@ -4741,22 +4581,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>0.5101</v>
+        <v>0.5087</v>
       </c>
       <c r="C116" t="n">
-        <v>0.5234</v>
+        <v>0.5238</v>
       </c>
       <c r="D116" t="n">
-        <v>0.5234</v>
+        <v>0.5238</v>
       </c>
       <c r="E116" t="n">
-        <v>0.5073</v>
+        <v>0.5087</v>
       </c>
       <c r="F116" t="n">
-        <v>3106829.9897</v>
+        <v>3180991.81862226</v>
       </c>
       <c r="G116" t="n">
-        <v>0.4890983333333334</v>
+        <v>0.4884483333333334</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4776,7 +4616,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>0.5134</v>
+        <v>0.5101</v>
       </c>
       <c r="C117" t="n">
         <v>0.5234</v>
@@ -4785,19 +4625,19 @@
         <v>0.5234</v>
       </c>
       <c r="E117" t="n">
-        <v>0.5134</v>
+        <v>0.5073</v>
       </c>
       <c r="F117" t="n">
-        <v>124698</v>
+        <v>3106829.9897</v>
       </c>
       <c r="G117" t="n">
-        <v>0.489655</v>
+        <v>0.4890983333333334</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
@@ -4811,7 +4651,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>0.5234</v>
+        <v>0.5134</v>
       </c>
       <c r="C118" t="n">
         <v>0.5234</v>
@@ -4820,19 +4660,19 @@
         <v>0.5234</v>
       </c>
       <c r="E118" t="n">
-        <v>0.5234</v>
+        <v>0.5134</v>
       </c>
       <c r="F118" t="n">
-        <v>19309.8263</v>
+        <v>124698</v>
       </c>
       <c r="G118" t="n">
-        <v>0.4902016666666666</v>
+        <v>0.489655</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
@@ -4846,28 +4686,28 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>0.5111</v>
+        <v>0.5234</v>
       </c>
       <c r="C119" t="n">
-        <v>0.5082</v>
+        <v>0.5234</v>
       </c>
       <c r="D119" t="n">
-        <v>0.5111</v>
+        <v>0.5234</v>
       </c>
       <c r="E119" t="n">
-        <v>0.5082</v>
+        <v>0.5234</v>
       </c>
       <c r="F119" t="n">
-        <v>231671.4949</v>
+        <v>19309.8263</v>
       </c>
       <c r="G119" t="n">
-        <v>0.490495</v>
+        <v>0.4902016666666666</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
@@ -4881,22 +4721,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>0.5082</v>
+        <v>0.5111</v>
       </c>
       <c r="C120" t="n">
         <v>0.5082</v>
       </c>
       <c r="D120" t="n">
-        <v>0.5082</v>
+        <v>0.5111</v>
       </c>
       <c r="E120" t="n">
         <v>0.5082</v>
       </c>
       <c r="F120" t="n">
-        <v>16508.5051</v>
+        <v>231671.4949</v>
       </c>
       <c r="G120" t="n">
-        <v>0.4907899999999999</v>
+        <v>0.490495</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4916,22 +4756,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>0.5081</v>
+        <v>0.5082</v>
       </c>
       <c r="C121" t="n">
-        <v>0.5079</v>
+        <v>0.5082</v>
       </c>
       <c r="D121" t="n">
-        <v>0.5081</v>
+        <v>0.5082</v>
       </c>
       <c r="E121" t="n">
-        <v>0.4936</v>
+        <v>0.5082</v>
       </c>
       <c r="F121" t="n">
-        <v>913161.0801</v>
+        <v>16508.5051</v>
       </c>
       <c r="G121" t="n">
-        <v>0.4912566666666666</v>
+        <v>0.4907899999999999</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4951,22 +4791,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>0.4966</v>
+        <v>0.5081</v>
       </c>
       <c r="C122" t="n">
-        <v>0.4966</v>
+        <v>0.5079</v>
       </c>
       <c r="D122" t="n">
-        <v>0.4966</v>
+        <v>0.5081</v>
       </c>
       <c r="E122" t="n">
-        <v>0.4966</v>
+        <v>0.4936</v>
       </c>
       <c r="F122" t="n">
-        <v>50000</v>
+        <v>913161.0801</v>
       </c>
       <c r="G122" t="n">
-        <v>0.4916183333333332</v>
+        <v>0.4912566666666666</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4986,22 +4826,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>0.5036</v>
+        <v>0.4966</v>
       </c>
       <c r="C123" t="n">
-        <v>0.4967</v>
+        <v>0.4966</v>
       </c>
       <c r="D123" t="n">
-        <v>0.5036</v>
+        <v>0.4966</v>
       </c>
       <c r="E123" t="n">
         <v>0.4966</v>
       </c>
       <c r="F123" t="n">
-        <v>301328.769</v>
+        <v>50000</v>
       </c>
       <c r="G123" t="n">
-        <v>0.4923883333333332</v>
+        <v>0.4916183333333332</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5021,22 +4861,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>0.4966</v>
+        <v>0.5036</v>
       </c>
       <c r="C124" t="n">
-        <v>0.4966</v>
+        <v>0.4967</v>
       </c>
       <c r="D124" t="n">
-        <v>0.5079</v>
+        <v>0.5036</v>
       </c>
       <c r="E124" t="n">
         <v>0.4966</v>
       </c>
       <c r="F124" t="n">
-        <v>183010</v>
+        <v>301328.769</v>
       </c>
       <c r="G124" t="n">
-        <v>0.4927766666666666</v>
+        <v>0.4923883333333332</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5059,7 +4899,7 @@
         <v>0.4966</v>
       </c>
       <c r="C125" t="n">
-        <v>0.5079</v>
+        <v>0.4966</v>
       </c>
       <c r="D125" t="n">
         <v>0.5079</v>
@@ -5068,10 +4908,10 @@
         <v>0.4966</v>
       </c>
       <c r="F125" t="n">
-        <v>100000</v>
+        <v>183010</v>
       </c>
       <c r="G125" t="n">
-        <v>0.4933066666666666</v>
+        <v>0.4927766666666666</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5091,22 +4931,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>0.5068</v>
+        <v>0.4966</v>
       </c>
       <c r="C126" t="n">
-        <v>0.5068</v>
+        <v>0.5079</v>
       </c>
       <c r="D126" t="n">
-        <v>0.5068</v>
+        <v>0.5079</v>
       </c>
       <c r="E126" t="n">
-        <v>0.5068</v>
+        <v>0.4966</v>
       </c>
       <c r="F126" t="n">
-        <v>1973.164956590371</v>
+        <v>100000</v>
       </c>
       <c r="G126" t="n">
-        <v>0.4936566666666665</v>
+        <v>0.4933066666666666</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5129,19 +4969,19 @@
         <v>0.5068</v>
       </c>
       <c r="C127" t="n">
-        <v>0.507</v>
+        <v>0.5068</v>
       </c>
       <c r="D127" t="n">
-        <v>0.507</v>
+        <v>0.5068</v>
       </c>
       <c r="E127" t="n">
         <v>0.5068</v>
       </c>
       <c r="F127" t="n">
-        <v>207195.5654</v>
+        <v>1973.164956590371</v>
       </c>
       <c r="G127" t="n">
-        <v>0.4941049999999999</v>
+        <v>0.4936566666666665</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5161,22 +5001,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>0.5013</v>
+        <v>0.5068</v>
       </c>
       <c r="C128" t="n">
-        <v>0.5013</v>
+        <v>0.507</v>
       </c>
       <c r="D128" t="n">
-        <v>0.5013</v>
+        <v>0.507</v>
       </c>
       <c r="E128" t="n">
-        <v>0.5013</v>
+        <v>0.5068</v>
       </c>
       <c r="F128" t="n">
-        <v>103737.11</v>
+        <v>207195.5654</v>
       </c>
       <c r="G128" t="n">
-        <v>0.4944716666666666</v>
+        <v>0.4941049999999999</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5196,22 +5036,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>0.5029</v>
+        <v>0.5013</v>
       </c>
       <c r="C129" t="n">
-        <v>0.5034999999999999</v>
+        <v>0.5013</v>
       </c>
       <c r="D129" t="n">
-        <v>0.5068</v>
+        <v>0.5013</v>
       </c>
       <c r="E129" t="n">
-        <v>0.5029</v>
+        <v>0.5013</v>
       </c>
       <c r="F129" t="n">
-        <v>1251066.7103</v>
+        <v>103737.11</v>
       </c>
       <c r="G129" t="n">
-        <v>0.4948649999999999</v>
+        <v>0.4944716666666666</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5231,22 +5071,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
+        <v>0.5029</v>
+      </c>
+      <c r="C130" t="n">
         <v>0.5034999999999999</v>
       </c>
-      <c r="C130" t="n">
-        <v>0.505</v>
-      </c>
       <c r="D130" t="n">
-        <v>0.505</v>
+        <v>0.5068</v>
       </c>
       <c r="E130" t="n">
-        <v>0.5034999999999999</v>
+        <v>0.5029</v>
       </c>
       <c r="F130" t="n">
-        <v>1141249.5424</v>
+        <v>1251066.7103</v>
       </c>
       <c r="G130" t="n">
-        <v>0.4952866666666665</v>
+        <v>0.4948649999999999</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5269,19 +5109,19 @@
         <v>0.5034999999999999</v>
       </c>
       <c r="C131" t="n">
-        <v>0.5034999999999999</v>
+        <v>0.505</v>
       </c>
       <c r="D131" t="n">
-        <v>0.5044999999999999</v>
+        <v>0.505</v>
       </c>
       <c r="E131" t="n">
         <v>0.5034999999999999</v>
       </c>
       <c r="F131" t="n">
-        <v>3091207.2589</v>
+        <v>1141249.5424</v>
       </c>
       <c r="G131" t="n">
-        <v>0.4956766666666665</v>
+        <v>0.4952866666666665</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5307,16 +5147,16 @@
         <v>0.5034999999999999</v>
       </c>
       <c r="D132" t="n">
-        <v>0.5068</v>
+        <v>0.5044999999999999</v>
       </c>
       <c r="E132" t="n">
         <v>0.5034999999999999</v>
       </c>
       <c r="F132" t="n">
-        <v>573325.8194</v>
+        <v>3091207.2589</v>
       </c>
       <c r="G132" t="n">
-        <v>0.4961349999999998</v>
+        <v>0.4956766666666665</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5336,22 +5176,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>0.503</v>
+        <v>0.5034999999999999</v>
       </c>
       <c r="C133" t="n">
-        <v>0.5034</v>
+        <v>0.5034999999999999</v>
       </c>
       <c r="D133" t="n">
-        <v>0.5034</v>
+        <v>0.5068</v>
       </c>
       <c r="E133" t="n">
-        <v>0.503</v>
+        <v>0.5034999999999999</v>
       </c>
       <c r="F133" t="n">
-        <v>351967.3363</v>
+        <v>573325.8194</v>
       </c>
       <c r="G133" t="n">
-        <v>0.4965249999999998</v>
+        <v>0.4961349999999998</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5371,22 +5211,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>0.5034999999999999</v>
+        <v>0.503</v>
       </c>
       <c r="C134" t="n">
-        <v>0.507</v>
+        <v>0.5034</v>
       </c>
       <c r="D134" t="n">
-        <v>0.507</v>
+        <v>0.5034</v>
       </c>
       <c r="E134" t="n">
-        <v>0.5034999999999999</v>
+        <v>0.503</v>
       </c>
       <c r="F134" t="n">
-        <v>331465.5655</v>
+        <v>351967.3363</v>
       </c>
       <c r="G134" t="n">
-        <v>0.4969766666666665</v>
+        <v>0.4965249999999998</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5406,22 +5246,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>0.505</v>
+        <v>0.5034999999999999</v>
       </c>
       <c r="C135" t="n">
-        <v>0.504</v>
+        <v>0.507</v>
       </c>
       <c r="D135" t="n">
-        <v>0.505</v>
+        <v>0.507</v>
       </c>
       <c r="E135" t="n">
-        <v>0.504</v>
+        <v>0.5034999999999999</v>
       </c>
       <c r="F135" t="n">
-        <v>1252001.8109</v>
+        <v>331465.5655</v>
       </c>
       <c r="G135" t="n">
-        <v>0.4973783333333331</v>
+        <v>0.4969766666666665</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5441,22 +5281,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>0.504</v>
+        <v>0.505</v>
       </c>
       <c r="C136" t="n">
         <v>0.504</v>
       </c>
       <c r="D136" t="n">
-        <v>0.504</v>
+        <v>0.505</v>
       </c>
       <c r="E136" t="n">
         <v>0.504</v>
       </c>
       <c r="F136" t="n">
-        <v>285538.6961</v>
+        <v>1252001.8109</v>
       </c>
       <c r="G136" t="n">
-        <v>0.4977816666666665</v>
+        <v>0.4973783333333331</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5476,22 +5316,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>0.505</v>
+        <v>0.504</v>
       </c>
       <c r="C137" t="n">
-        <v>0.507</v>
+        <v>0.504</v>
       </c>
       <c r="D137" t="n">
-        <v>0.507</v>
+        <v>0.504</v>
       </c>
       <c r="E137" t="n">
-        <v>0.505</v>
+        <v>0.504</v>
       </c>
       <c r="F137" t="n">
-        <v>420113.4712</v>
+        <v>285538.6961</v>
       </c>
       <c r="G137" t="n">
-        <v>0.4982333333333332</v>
+        <v>0.4977816666666665</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5511,22 +5351,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="C138" t="n">
         <v>0.507</v>
       </c>
-      <c r="C138" t="n">
-        <v>0.506</v>
-      </c>
       <c r="D138" t="n">
-        <v>0.5239</v>
+        <v>0.507</v>
       </c>
       <c r="E138" t="n">
-        <v>0.506</v>
+        <v>0.505</v>
       </c>
       <c r="F138" t="n">
-        <v>1975000</v>
+        <v>420113.4712</v>
       </c>
       <c r="G138" t="n">
-        <v>0.4986699999999998</v>
+        <v>0.4982333333333332</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5546,22 +5386,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>0.5139</v>
+        <v>0.507</v>
       </c>
       <c r="C139" t="n">
-        <v>0.5239</v>
+        <v>0.506</v>
       </c>
       <c r="D139" t="n">
         <v>0.5239</v>
       </c>
       <c r="E139" t="n">
-        <v>0.5139</v>
+        <v>0.506</v>
       </c>
       <c r="F139" t="n">
-        <v>189000</v>
+        <v>1975000</v>
       </c>
       <c r="G139" t="n">
-        <v>0.4994033333333332</v>
+        <v>0.4986699999999998</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5581,7 +5421,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>0.513</v>
+        <v>0.5139</v>
       </c>
       <c r="C140" t="n">
         <v>0.5239</v>
@@ -5590,13 +5430,13 @@
         <v>0.5239</v>
       </c>
       <c r="E140" t="n">
-        <v>0.507</v>
+        <v>0.5139</v>
       </c>
       <c r="F140" t="n">
-        <v>1019312.6982</v>
+        <v>189000</v>
       </c>
       <c r="G140" t="n">
-        <v>0.5002016666666665</v>
+        <v>0.4994033333333332</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5616,22 +5456,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>0.5071</v>
+        <v>0.513</v>
       </c>
       <c r="C141" t="n">
-        <v>0.507</v>
+        <v>0.5239</v>
       </c>
       <c r="D141" t="n">
-        <v>0.5071</v>
+        <v>0.5239</v>
       </c>
       <c r="E141" t="n">
         <v>0.507</v>
       </c>
       <c r="F141" t="n">
-        <v>608623.09</v>
+        <v>1019312.6982</v>
       </c>
       <c r="G141" t="n">
-        <v>0.5007183333333333</v>
+        <v>0.5002016666666665</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5651,22 +5491,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>0.5238</v>
+        <v>0.5071</v>
       </c>
       <c r="C142" t="n">
-        <v>0.5238</v>
+        <v>0.507</v>
       </c>
       <c r="D142" t="n">
-        <v>0.5238</v>
+        <v>0.5071</v>
       </c>
       <c r="E142" t="n">
         <v>0.507</v>
       </c>
       <c r="F142" t="n">
-        <v>165192.76</v>
+        <v>608623.09</v>
       </c>
       <c r="G142" t="n">
-        <v>0.5014483333333333</v>
+        <v>0.5007183333333333</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5686,22 +5526,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>0.507</v>
+        <v>0.5238</v>
       </c>
       <c r="C143" t="n">
-        <v>0.507</v>
+        <v>0.5238</v>
       </c>
       <c r="D143" t="n">
-        <v>0.507</v>
+        <v>0.5238</v>
       </c>
       <c r="E143" t="n">
         <v>0.507</v>
       </c>
       <c r="F143" t="n">
-        <v>244.4526</v>
+        <v>165192.76</v>
       </c>
       <c r="G143" t="n">
-        <v>0.5018066666666666</v>
+        <v>0.5014483333333333</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5721,22 +5561,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>0.5067</v>
+        <v>0.507</v>
       </c>
       <c r="C144" t="n">
-        <v>0.5044</v>
+        <v>0.507</v>
       </c>
       <c r="D144" t="n">
-        <v>0.5067</v>
+        <v>0.507</v>
       </c>
       <c r="E144" t="n">
-        <v>0.5044</v>
+        <v>0.507</v>
       </c>
       <c r="F144" t="n">
-        <v>250412</v>
+        <v>244.4526</v>
       </c>
       <c r="G144" t="n">
-        <v>0.50213</v>
+        <v>0.5018066666666666</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5756,22 +5596,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>0.5066000000000001</v>
+        <v>0.5067</v>
       </c>
       <c r="C145" t="n">
-        <v>0.5066000000000001</v>
+        <v>0.5044</v>
       </c>
       <c r="D145" t="n">
-        <v>0.5066000000000001</v>
+        <v>0.5067</v>
       </c>
       <c r="E145" t="n">
-        <v>0.5066000000000001</v>
+        <v>0.5044</v>
       </c>
       <c r="F145" t="n">
-        <v>1046.5555</v>
+        <v>250412</v>
       </c>
       <c r="G145" t="n">
-        <v>0.50249</v>
+        <v>0.50213</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5791,22 +5631,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>0.5001</v>
+        <v>0.5066000000000001</v>
       </c>
       <c r="C146" t="n">
-        <v>0.5001</v>
+        <v>0.5066000000000001</v>
       </c>
       <c r="D146" t="n">
-        <v>0.5001</v>
+        <v>0.5066000000000001</v>
       </c>
       <c r="E146" t="n">
-        <v>0.5001</v>
+        <v>0.5066000000000001</v>
       </c>
       <c r="F146" t="n">
-        <v>486000</v>
+        <v>1046.5555</v>
       </c>
       <c r="G146" t="n">
-        <v>0.5027416666666666</v>
+        <v>0.50249</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5826,22 +5666,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>0.4979</v>
+        <v>0.5001</v>
       </c>
       <c r="C147" t="n">
-        <v>0.4863</v>
+        <v>0.5001</v>
       </c>
       <c r="D147" t="n">
-        <v>0.4979</v>
+        <v>0.5001</v>
       </c>
       <c r="E147" t="n">
-        <v>0.4863</v>
+        <v>0.5001</v>
       </c>
       <c r="F147" t="n">
-        <v>100000</v>
+        <v>486000</v>
       </c>
       <c r="G147" t="n">
-        <v>0.5027533333333333</v>
+        <v>0.5027416666666666</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5861,22 +5701,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>0.4865</v>
+        <v>0.4979</v>
       </c>
       <c r="C148" t="n">
-        <v>0.4864</v>
+        <v>0.4863</v>
       </c>
       <c r="D148" t="n">
-        <v>0.4865</v>
+        <v>0.4979</v>
       </c>
       <c r="E148" t="n">
-        <v>0.4864</v>
+        <v>0.4863</v>
       </c>
       <c r="F148" t="n">
-        <v>2500000</v>
+        <v>100000</v>
       </c>
       <c r="G148" t="n">
-        <v>0.5026966666666667</v>
+        <v>0.5027533333333333</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5896,22 +5736,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>0.4963</v>
+        <v>0.4865</v>
       </c>
       <c r="C149" t="n">
-        <v>0.4863</v>
+        <v>0.4864</v>
       </c>
       <c r="D149" t="n">
-        <v>0.4963</v>
+        <v>0.4865</v>
       </c>
       <c r="E149" t="n">
-        <v>0.4863</v>
+        <v>0.4864</v>
       </c>
       <c r="F149" t="n">
-        <v>943764.1676</v>
+        <v>2500000</v>
       </c>
       <c r="G149" t="n">
-        <v>0.5026383333333333</v>
+        <v>0.5026966666666667</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5931,22 +5771,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>0.4958</v>
+        <v>0.4963</v>
       </c>
       <c r="C150" t="n">
-        <v>0.4958</v>
+        <v>0.4863</v>
       </c>
       <c r="D150" t="n">
-        <v>0.4958</v>
+        <v>0.4963</v>
       </c>
       <c r="E150" t="n">
-        <v>0.4958</v>
+        <v>0.4863</v>
       </c>
       <c r="F150" t="n">
-        <v>1545.5655</v>
+        <v>943764.1676</v>
       </c>
       <c r="G150" t="n">
-        <v>0.5027366666666667</v>
+        <v>0.5026383333333333</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5966,22 +5806,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>0.4956</v>
+        <v>0.4958</v>
       </c>
       <c r="C151" t="n">
-        <v>0.4956</v>
+        <v>0.4958</v>
       </c>
       <c r="D151" t="n">
-        <v>0.4956</v>
+        <v>0.4958</v>
       </c>
       <c r="E151" t="n">
-        <v>0.4956</v>
+        <v>0.4958</v>
       </c>
       <c r="F151" t="n">
-        <v>6796.6886</v>
+        <v>1545.5655</v>
       </c>
       <c r="G151" t="n">
-        <v>0.5028316666666667</v>
+        <v>0.5027366666666667</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -6001,22 +5841,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>0.4867</v>
+        <v>0.4956</v>
       </c>
       <c r="C152" t="n">
-        <v>0.4954</v>
+        <v>0.4956</v>
       </c>
       <c r="D152" t="n">
-        <v>0.4954</v>
+        <v>0.4956</v>
       </c>
       <c r="E152" t="n">
-        <v>0.4867</v>
+        <v>0.4956</v>
       </c>
       <c r="F152" t="n">
-        <v>291548</v>
+        <v>6796.6886</v>
       </c>
       <c r="G152" t="n">
-        <v>0.5029233333333334</v>
+        <v>0.5028316666666667</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -6036,7 +5876,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>0.4954</v>
+        <v>0.4867</v>
       </c>
       <c r="C153" t="n">
         <v>0.4954</v>
@@ -6045,13 +5885,13 @@
         <v>0.4954</v>
       </c>
       <c r="E153" t="n">
-        <v>0.4954</v>
+        <v>0.4867</v>
       </c>
       <c r="F153" t="n">
-        <v>0.345</v>
+        <v>291548</v>
       </c>
       <c r="G153" t="n">
-        <v>0.5030150000000001</v>
+        <v>0.5029233333333334</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -6083,10 +5923,10 @@
         <v>0.4954</v>
       </c>
       <c r="F154" t="n">
-        <v>11699.655</v>
+        <v>0.345</v>
       </c>
       <c r="G154" t="n">
-        <v>0.5031066666666668</v>
+        <v>0.5030150000000001</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -6106,22 +5946,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>0.49</v>
+        <v>0.4954</v>
       </c>
       <c r="C155" t="n">
-        <v>0.49</v>
+        <v>0.4954</v>
       </c>
       <c r="D155" t="n">
-        <v>0.49</v>
+        <v>0.4954</v>
       </c>
       <c r="E155" t="n">
-        <v>0.49</v>
+        <v>0.4954</v>
       </c>
       <c r="F155" t="n">
-        <v>6796.6886</v>
+        <v>11699.655</v>
       </c>
       <c r="G155" t="n">
-        <v>0.5031083333333334</v>
+        <v>0.5031066666666668</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6141,22 +5981,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>0.4951</v>
+        <v>0.49</v>
       </c>
       <c r="C156" t="n">
-        <v>0.4951</v>
+        <v>0.49</v>
       </c>
       <c r="D156" t="n">
-        <v>0.4951</v>
+        <v>0.49</v>
       </c>
       <c r="E156" t="n">
-        <v>0.4951</v>
+        <v>0.49</v>
       </c>
       <c r="F156" t="n">
-        <v>17858.45920139366</v>
+        <v>6796.6886</v>
       </c>
       <c r="G156" t="n">
-        <v>0.5031950000000002</v>
+        <v>0.5031083333333334</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6176,19 +6016,19 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>0.49</v>
+        <v>0.4951</v>
       </c>
       <c r="C157" t="n">
-        <v>0.4899</v>
+        <v>0.4951</v>
       </c>
       <c r="D157" t="n">
-        <v>0.49</v>
+        <v>0.4951</v>
       </c>
       <c r="E157" t="n">
-        <v>0.4899</v>
+        <v>0.4951</v>
       </c>
       <c r="F157" t="n">
-        <v>8774.0046</v>
+        <v>17858.45920139366</v>
       </c>
       <c r="G157" t="n">
         <v>0.5031950000000002</v>
@@ -6211,22 +6051,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>0.489</v>
+        <v>0.49</v>
       </c>
       <c r="C158" t="n">
-        <v>0.489</v>
+        <v>0.4899</v>
       </c>
       <c r="D158" t="n">
-        <v>0.489</v>
+        <v>0.49</v>
       </c>
       <c r="E158" t="n">
-        <v>0.489</v>
+        <v>0.4899</v>
       </c>
       <c r="F158" t="n">
-        <v>70658.65240000001</v>
+        <v>8774.0046</v>
       </c>
       <c r="G158" t="n">
-        <v>0.5030966666666667</v>
+        <v>0.5031950000000002</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6258,10 +6098,10 @@
         <v>0.489</v>
       </c>
       <c r="F159" t="n">
-        <v>173223.3261</v>
+        <v>70658.65240000001</v>
       </c>
       <c r="G159" t="n">
-        <v>0.5029416666666668</v>
+        <v>0.5030966666666667</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6281,22 +6121,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>0.4898</v>
+        <v>0.489</v>
       </c>
       <c r="C160" t="n">
-        <v>0.4898</v>
+        <v>0.489</v>
       </c>
       <c r="D160" t="n">
-        <v>0.4898</v>
+        <v>0.489</v>
       </c>
       <c r="E160" t="n">
-        <v>0.4898</v>
+        <v>0.489</v>
       </c>
       <c r="F160" t="n">
-        <v>13675.9811</v>
+        <v>173223.3261</v>
       </c>
       <c r="G160" t="n">
-        <v>0.5028050000000001</v>
+        <v>0.5029416666666668</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6316,22 +6156,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>0.4899</v>
+        <v>0.4898</v>
       </c>
       <c r="C161" t="n">
-        <v>0.4899</v>
+        <v>0.4898</v>
       </c>
       <c r="D161" t="n">
-        <v>0.4899</v>
+        <v>0.4898</v>
       </c>
       <c r="E161" t="n">
-        <v>0.4899</v>
+        <v>0.4898</v>
       </c>
       <c r="F161" t="n">
-        <v>1653.8567</v>
+        <v>13675.9811</v>
       </c>
       <c r="G161" t="n">
-        <v>0.5026700000000001</v>
+        <v>0.5028050000000001</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6351,22 +6191,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>0.49</v>
+        <v>0.4899</v>
       </c>
       <c r="C162" t="n">
-        <v>0.49</v>
+        <v>0.4899</v>
       </c>
       <c r="D162" t="n">
-        <v>0.49</v>
+        <v>0.4899</v>
       </c>
       <c r="E162" t="n">
-        <v>0.49</v>
+        <v>0.4899</v>
       </c>
       <c r="F162" t="n">
-        <v>16328</v>
+        <v>1653.8567</v>
       </c>
       <c r="G162" t="n">
-        <v>0.5025366666666666</v>
+        <v>0.5026700000000001</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6398,10 +6238,10 @@
         <v>0.49</v>
       </c>
       <c r="F163" t="n">
-        <v>30000</v>
+        <v>16328</v>
       </c>
       <c r="G163" t="n">
-        <v>0.502405</v>
+        <v>0.5025366666666666</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6421,22 +6261,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>0.4964</v>
+        <v>0.49</v>
       </c>
       <c r="C164" t="n">
-        <v>0.4964</v>
+        <v>0.49</v>
       </c>
       <c r="D164" t="n">
-        <v>0.4964</v>
+        <v>0.49</v>
       </c>
       <c r="E164" t="n">
-        <v>0.4964</v>
+        <v>0.49</v>
       </c>
       <c r="F164" t="n">
-        <v>1244.6723</v>
+        <v>30000</v>
       </c>
       <c r="G164" t="n">
-        <v>0.5023816666666666</v>
+        <v>0.502405</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6456,22 +6296,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>0.4962</v>
+        <v>0.4964</v>
       </c>
       <c r="C165" t="n">
-        <v>0.4962</v>
+        <v>0.4964</v>
       </c>
       <c r="D165" t="n">
-        <v>0.4962</v>
+        <v>0.4964</v>
       </c>
       <c r="E165" t="n">
-        <v>0.4962</v>
+        <v>0.4964</v>
       </c>
       <c r="F165" t="n">
-        <v>16557.83958081419</v>
+        <v>1244.6723</v>
       </c>
       <c r="G165" t="n">
-        <v>0.502355</v>
+        <v>0.5023816666666666</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6491,22 +6331,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>0.4963</v>
+        <v>0.4962</v>
       </c>
       <c r="C166" t="n">
-        <v>0.4963</v>
+        <v>0.4962</v>
       </c>
       <c r="D166" t="n">
-        <v>0.4963</v>
+        <v>0.4962</v>
       </c>
       <c r="E166" t="n">
-        <v>0.4963</v>
+        <v>0.4962</v>
       </c>
       <c r="F166" t="n">
-        <v>18086.9607</v>
+        <v>16557.83958081419</v>
       </c>
       <c r="G166" t="n">
-        <v>0.5023266666666666</v>
+        <v>0.502355</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6526,22 +6366,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>0.4881</v>
+        <v>0.4963</v>
       </c>
       <c r="C167" t="n">
-        <v>0.4881</v>
+        <v>0.4963</v>
       </c>
       <c r="D167" t="n">
-        <v>0.4881</v>
+        <v>0.4963</v>
       </c>
       <c r="E167" t="n">
-        <v>0.4881</v>
+        <v>0.4963</v>
       </c>
       <c r="F167" t="n">
-        <v>225268.6385</v>
+        <v>18086.9607</v>
       </c>
       <c r="G167" t="n">
-        <v>0.5021599999999999</v>
+        <v>0.5023266666666666</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6561,22 +6401,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>0.4962</v>
+        <v>0.4881</v>
       </c>
       <c r="C168" t="n">
-        <v>0.4962</v>
+        <v>0.4881</v>
       </c>
       <c r="D168" t="n">
-        <v>0.4962</v>
+        <v>0.4881</v>
       </c>
       <c r="E168" t="n">
-        <v>0.4962</v>
+        <v>0.4881</v>
       </c>
       <c r="F168" t="n">
-        <v>1111</v>
+        <v>225268.6385</v>
       </c>
       <c r="G168" t="n">
-        <v>0.5020966666666666</v>
+        <v>0.5021599999999999</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6608,10 +6448,10 @@
         <v>0.4962</v>
       </c>
       <c r="F169" t="n">
-        <v>23612.7995</v>
+        <v>1111</v>
       </c>
       <c r="G169" t="n">
-        <v>0.5020333333333333</v>
+        <v>0.5020966666666666</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6631,22 +6471,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>0.4881</v>
+        <v>0.4962</v>
       </c>
       <c r="C170" t="n">
-        <v>0.48</v>
+        <v>0.4962</v>
       </c>
       <c r="D170" t="n">
-        <v>0.4881</v>
+        <v>0.4962</v>
       </c>
       <c r="E170" t="n">
-        <v>0.48</v>
+        <v>0.4962</v>
       </c>
       <c r="F170" t="n">
-        <v>8052698.4398</v>
+        <v>23612.7995</v>
       </c>
       <c r="G170" t="n">
-        <v>0.5015566666666667</v>
+        <v>0.5020333333333333</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6666,22 +6506,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
+        <v>0.4881</v>
+      </c>
+      <c r="C171" t="n">
         <v>0.48</v>
       </c>
-      <c r="C171" t="n">
-        <v>0.4799</v>
-      </c>
       <c r="D171" t="n">
+        <v>0.4881</v>
+      </c>
+      <c r="E171" t="n">
         <v>0.48</v>
       </c>
-      <c r="E171" t="n">
-        <v>0.4799</v>
-      </c>
       <c r="F171" t="n">
-        <v>1564505.0208</v>
+        <v>8052698.4398</v>
       </c>
       <c r="G171" t="n">
-        <v>0.501325</v>
+        <v>0.5015566666666667</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6701,22 +6541,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>0.4813</v>
+        <v>0.48</v>
       </c>
       <c r="C172" t="n">
+        <v>0.4799</v>
+      </c>
+      <c r="D172" t="n">
         <v>0.48</v>
       </c>
-      <c r="D172" t="n">
-        <v>0.4863</v>
-      </c>
       <c r="E172" t="n">
-        <v>0.48</v>
+        <v>0.4799</v>
       </c>
       <c r="F172" t="n">
-        <v>4339058.2977</v>
+        <v>1564505.0208</v>
       </c>
       <c r="G172" t="n">
-        <v>0.5008466666666667</v>
+        <v>0.501325</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6736,22 +6576,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>0.4719</v>
+        <v>0.4813</v>
       </c>
       <c r="C173" t="n">
-        <v>0.47</v>
+        <v>0.48</v>
       </c>
       <c r="D173" t="n">
-        <v>0.4719</v>
+        <v>0.4863</v>
       </c>
       <c r="E173" t="n">
-        <v>0.4699</v>
+        <v>0.48</v>
       </c>
       <c r="F173" t="n">
-        <v>4352788.4362</v>
+        <v>4339058.2977</v>
       </c>
       <c r="G173" t="n">
-        <v>0.5002016666666667</v>
+        <v>0.5008466666666667</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6771,22 +6611,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
+        <v>0.4719</v>
+      </c>
+      <c r="C174" t="n">
         <v>0.47</v>
       </c>
-      <c r="C174" t="n">
-        <v>0.483</v>
-      </c>
       <c r="D174" t="n">
-        <v>0.483</v>
+        <v>0.4719</v>
       </c>
       <c r="E174" t="n">
-        <v>0.47</v>
+        <v>0.4699</v>
       </c>
       <c r="F174" t="n">
-        <v>109054.0913</v>
+        <v>4352788.4362</v>
       </c>
       <c r="G174" t="n">
-        <v>0.4997733333333333</v>
+        <v>0.5002016666666667</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6806,22 +6646,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="C175" t="n">
         <v>0.483</v>
       </c>
-      <c r="C175" t="n">
-        <v>0.4929</v>
-      </c>
       <c r="D175" t="n">
-        <v>0.493</v>
+        <v>0.483</v>
       </c>
       <c r="E175" t="n">
-        <v>0.4829</v>
+        <v>0.47</v>
       </c>
       <c r="F175" t="n">
-        <v>271693.9</v>
+        <v>109054.0913</v>
       </c>
       <c r="G175" t="n">
-        <v>0.4992583333333332</v>
+        <v>0.4997733333333333</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6841,22 +6681,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>0.4922</v>
+        <v>0.483</v>
       </c>
       <c r="C176" t="n">
-        <v>0.4922</v>
+        <v>0.4929</v>
       </c>
       <c r="D176" t="n">
-        <v>0.4922</v>
+        <v>0.493</v>
       </c>
       <c r="E176" t="n">
-        <v>0.4922</v>
+        <v>0.4829</v>
       </c>
       <c r="F176" t="n">
-        <v>18617.2814</v>
+        <v>271693.9</v>
       </c>
       <c r="G176" t="n">
-        <v>0.4987383333333332</v>
+        <v>0.4992583333333332</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6888,10 +6728,10 @@
         <v>0.4922</v>
       </c>
       <c r="F177" t="n">
-        <v>2400</v>
+        <v>18617.2814</v>
       </c>
       <c r="G177" t="n">
-        <v>0.4982183333333333</v>
+        <v>0.4987383333333332</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6914,19 +6754,19 @@
         <v>0.4922</v>
       </c>
       <c r="C178" t="n">
-        <v>0.4804</v>
+        <v>0.4922</v>
       </c>
       <c r="D178" t="n">
-        <v>0.4923</v>
+        <v>0.4922</v>
       </c>
       <c r="E178" t="n">
-        <v>0.4804</v>
+        <v>0.4922</v>
       </c>
       <c r="F178" t="n">
-        <v>1153394</v>
+        <v>2400</v>
       </c>
       <c r="G178" t="n">
-        <v>0.4975016666666666</v>
+        <v>0.4982183333333333</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6946,22 +6786,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>0.4937</v>
+        <v>0.4922</v>
       </c>
       <c r="C179" t="n">
-        <v>0.4937</v>
+        <v>0.4804</v>
       </c>
       <c r="D179" t="n">
-        <v>0.4937</v>
+        <v>0.4923</v>
       </c>
       <c r="E179" t="n">
-        <v>0.4937</v>
+        <v>0.4804</v>
       </c>
       <c r="F179" t="n">
-        <v>69328.07369999999</v>
+        <v>1153394</v>
       </c>
       <c r="G179" t="n">
-        <v>0.49726</v>
+        <v>0.4975016666666666</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6981,22 +6821,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>0.481</v>
+        <v>0.4937</v>
       </c>
       <c r="C180" t="n">
-        <v>0.481</v>
+        <v>0.4937</v>
       </c>
       <c r="D180" t="n">
-        <v>0.481</v>
+        <v>0.4937</v>
       </c>
       <c r="E180" t="n">
-        <v>0.481</v>
+        <v>0.4937</v>
       </c>
       <c r="F180" t="n">
-        <v>70084.70050000001</v>
+        <v>69328.07369999999</v>
       </c>
       <c r="G180" t="n">
-        <v>0.4968066666666667</v>
+        <v>0.49726</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -7028,10 +6868,10 @@
         <v>0.481</v>
       </c>
       <c r="F181" t="n">
-        <v>1259.7987</v>
+        <v>70084.70050000001</v>
       </c>
       <c r="G181" t="n">
-        <v>0.4963583333333334</v>
+        <v>0.4968066666666667</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -7051,22 +6891,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>0.4829</v>
+        <v>0.481</v>
       </c>
       <c r="C182" t="n">
         <v>0.481</v>
       </c>
       <c r="D182" t="n">
-        <v>0.4829</v>
+        <v>0.481</v>
       </c>
       <c r="E182" t="n">
         <v>0.481</v>
       </c>
       <c r="F182" t="n">
-        <v>1177128.9633</v>
+        <v>1259.7987</v>
       </c>
       <c r="G182" t="n">
-        <v>0.4960983333333334</v>
+        <v>0.4963583333333334</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -7086,22 +6926,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
+        <v>0.4829</v>
+      </c>
+      <c r="C183" t="n">
         <v>0.481</v>
       </c>
-      <c r="C183" t="n">
-        <v>0.4926</v>
-      </c>
       <c r="D183" t="n">
-        <v>0.4927</v>
+        <v>0.4829</v>
       </c>
       <c r="E183" t="n">
         <v>0.481</v>
       </c>
       <c r="F183" t="n">
-        <v>4121896.0843</v>
+        <v>1177128.9633</v>
       </c>
       <c r="G183" t="n">
-        <v>0.4960300000000001</v>
+        <v>0.4960983333333334</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -7121,35 +6961,31 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>0.4837</v>
+        <v>0.481</v>
       </c>
       <c r="C184" t="n">
-        <v>0.4837</v>
+        <v>0.4926</v>
       </c>
       <c r="D184" t="n">
-        <v>0.4837</v>
+        <v>0.4927</v>
       </c>
       <c r="E184" t="n">
-        <v>0.4837</v>
+        <v>0.481</v>
       </c>
       <c r="F184" t="n">
-        <v>18617.2814</v>
+        <v>4121896.0843</v>
       </c>
       <c r="G184" t="n">
-        <v>0.4958150000000001</v>
+        <v>0.4960300000000001</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="n">
-        <v>0.4926</v>
-      </c>
-      <c r="K184" t="n">
-        <v>0.4926</v>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr"/>
       <c r="M184" t="n">
         <v>1</v>
@@ -7172,28 +7008,20 @@
         <v>0.4837</v>
       </c>
       <c r="F185" t="n">
-        <v>41357.0734</v>
+        <v>18617.2814</v>
       </c>
       <c r="G185" t="n">
-        <v>0.4954116666666667</v>
+        <v>0.4958150000000001</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="n">
-        <v>0.4837</v>
-      </c>
-      <c r="K185" t="n">
-        <v>0.4926</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -7203,40 +7031,32 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>0.4933</v>
+        <v>0.4837</v>
       </c>
       <c r="C186" t="n">
-        <v>0.4933</v>
+        <v>0.4837</v>
       </c>
       <c r="D186" t="n">
-        <v>0.4933</v>
+        <v>0.4837</v>
       </c>
       <c r="E186" t="n">
-        <v>0.4933</v>
+        <v>0.4837</v>
       </c>
       <c r="F186" t="n">
-        <v>89195.21589296575</v>
+        <v>41357.0734</v>
       </c>
       <c r="G186" t="n">
-        <v>0.4951866666666668</v>
+        <v>0.4954116666666667</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="n">
-        <v>0.4837</v>
-      </c>
-      <c r="K186" t="n">
-        <v>0.4926</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -7246,22 +7066,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>0.4895</v>
+        <v>0.4933</v>
       </c>
       <c r="C187" t="n">
-        <v>0.4895</v>
+        <v>0.4933</v>
       </c>
       <c r="D187" t="n">
-        <v>0.4895</v>
+        <v>0.4933</v>
       </c>
       <c r="E187" t="n">
-        <v>0.4895</v>
+        <v>0.4933</v>
       </c>
       <c r="F187" t="n">
-        <v>54884</v>
+        <v>89195.21589296575</v>
       </c>
       <c r="G187" t="n">
-        <v>0.494895</v>
+        <v>0.4951866666666668</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7281,22 +7101,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>0.4838</v>
+        <v>0.4895</v>
       </c>
       <c r="C188" t="n">
-        <v>0.4838</v>
+        <v>0.4895</v>
       </c>
       <c r="D188" t="n">
-        <v>0.4838</v>
+        <v>0.4895</v>
       </c>
       <c r="E188" t="n">
-        <v>0.4838</v>
+        <v>0.4895</v>
       </c>
       <c r="F188" t="n">
-        <v>2924.965</v>
+        <v>54884</v>
       </c>
       <c r="G188" t="n">
-        <v>0.4946033333333333</v>
+        <v>0.494895</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7328,10 +7148,10 @@
         <v>0.4838</v>
       </c>
       <c r="F189" t="n">
-        <v>6397.5691</v>
+        <v>2924.965</v>
       </c>
       <c r="G189" t="n">
-        <v>0.494275</v>
+        <v>0.4946033333333333</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7363,10 +7183,10 @@
         <v>0.4838</v>
       </c>
       <c r="F190" t="n">
-        <v>152617.3352</v>
+        <v>6397.5691</v>
       </c>
       <c r="G190" t="n">
-        <v>0.4939216666666667</v>
+        <v>0.494275</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7386,22 +7206,22 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>0.4862</v>
+        <v>0.4838</v>
       </c>
       <c r="C191" t="n">
-        <v>0.4862</v>
+        <v>0.4838</v>
       </c>
       <c r="D191" t="n">
-        <v>0.4862</v>
+        <v>0.4838</v>
       </c>
       <c r="E191" t="n">
-        <v>0.4862</v>
+        <v>0.4838</v>
       </c>
       <c r="F191" t="n">
-        <v>33527.0091</v>
+        <v>152617.3352</v>
       </c>
       <c r="G191" t="n">
-        <v>0.4936333333333334</v>
+        <v>0.4939216666666667</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7424,19 +7244,19 @@
         <v>0.4862</v>
       </c>
       <c r="C192" t="n">
-        <v>0.4926</v>
+        <v>0.4862</v>
       </c>
       <c r="D192" t="n">
-        <v>0.4926</v>
+        <v>0.4862</v>
       </c>
       <c r="E192" t="n">
         <v>0.4862</v>
       </c>
       <c r="F192" t="n">
-        <v>1260305.7622</v>
+        <v>33527.0091</v>
       </c>
       <c r="G192" t="n">
-        <v>0.4934516666666667</v>
+        <v>0.4936333333333334</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7456,22 +7276,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>0.4925</v>
+        <v>0.4862</v>
       </c>
       <c r="C193" t="n">
-        <v>0.4925</v>
+        <v>0.4926</v>
       </c>
       <c r="D193" t="n">
-        <v>0.4925</v>
+        <v>0.4926</v>
       </c>
       <c r="E193" t="n">
-        <v>0.4925</v>
+        <v>0.4862</v>
       </c>
       <c r="F193" t="n">
-        <v>710770</v>
+        <v>1260305.7622</v>
       </c>
       <c r="G193" t="n">
-        <v>0.49327</v>
+        <v>0.4934516666666667</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7491,22 +7311,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>0.4866</v>
+        <v>0.4925</v>
       </c>
       <c r="C194" t="n">
-        <v>0.4866</v>
+        <v>0.4925</v>
       </c>
       <c r="D194" t="n">
-        <v>0.4866</v>
+        <v>0.4925</v>
       </c>
       <c r="E194" t="n">
-        <v>0.4866</v>
+        <v>0.4925</v>
       </c>
       <c r="F194" t="n">
-        <v>1806.1135</v>
+        <v>710770</v>
       </c>
       <c r="G194" t="n">
-        <v>0.49293</v>
+        <v>0.49327</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7526,22 +7346,22 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>0.4933</v>
+        <v>0.4866</v>
       </c>
       <c r="C195" t="n">
-        <v>0.4933</v>
+        <v>0.4866</v>
       </c>
       <c r="D195" t="n">
-        <v>0.4933</v>
+        <v>0.4866</v>
       </c>
       <c r="E195" t="n">
-        <v>0.4933</v>
+        <v>0.4866</v>
       </c>
       <c r="F195" t="n">
-        <v>17405.5637</v>
+        <v>1806.1135</v>
       </c>
       <c r="G195" t="n">
-        <v>0.4927516666666667</v>
+        <v>0.49293</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7561,22 +7381,22 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>0.4931</v>
+        <v>0.4933</v>
       </c>
       <c r="C196" t="n">
-        <v>0.4931</v>
+        <v>0.4933</v>
       </c>
       <c r="D196" t="n">
-        <v>0.4931</v>
+        <v>0.4933</v>
       </c>
       <c r="E196" t="n">
-        <v>0.4931</v>
+        <v>0.4933</v>
       </c>
       <c r="F196" t="n">
-        <v>4045.24</v>
+        <v>17405.5637</v>
       </c>
       <c r="G196" t="n">
-        <v>0.49257</v>
+        <v>0.4927516666666667</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7596,22 +7416,22 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>0.4932</v>
+        <v>0.4931</v>
       </c>
       <c r="C197" t="n">
-        <v>0.4932</v>
+        <v>0.4931</v>
       </c>
       <c r="D197" t="n">
-        <v>0.4932</v>
+        <v>0.4931</v>
       </c>
       <c r="E197" t="n">
-        <v>0.4932</v>
+        <v>0.4931</v>
       </c>
       <c r="F197" t="n">
-        <v>669293</v>
+        <v>4045.24</v>
       </c>
       <c r="G197" t="n">
-        <v>0.4923399999999999</v>
+        <v>0.49257</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7643,10 +7463,10 @@
         <v>0.4932</v>
       </c>
       <c r="F198" t="n">
-        <v>2500</v>
+        <v>669293</v>
       </c>
       <c r="G198" t="n">
-        <v>0.4921266666666667</v>
+        <v>0.4923399999999999</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7681,7 +7501,7 @@
         <v>2500</v>
       </c>
       <c r="G199" t="n">
-        <v>0.491615</v>
+        <v>0.4921266666666667</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7701,22 +7521,22 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>0.4931</v>
+        <v>0.4932</v>
       </c>
       <c r="C200" t="n">
-        <v>0.4931</v>
+        <v>0.4932</v>
       </c>
       <c r="D200" t="n">
-        <v>0.4931</v>
+        <v>0.4932</v>
       </c>
       <c r="E200" t="n">
-        <v>0.4931</v>
+        <v>0.4932</v>
       </c>
       <c r="F200" t="n">
-        <v>54884</v>
+        <v>2500</v>
       </c>
       <c r="G200" t="n">
-        <v>0.4911016666666666</v>
+        <v>0.491615</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7736,22 +7556,22 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>0.4932</v>
+        <v>0.4931</v>
       </c>
       <c r="C201" t="n">
-        <v>0.4932</v>
+        <v>0.4931</v>
       </c>
       <c r="D201" t="n">
-        <v>0.4932</v>
+        <v>0.4931</v>
       </c>
       <c r="E201" t="n">
-        <v>0.4932</v>
+        <v>0.4931</v>
       </c>
       <c r="F201" t="n">
-        <v>436458.5911</v>
+        <v>54884</v>
       </c>
       <c r="G201" t="n">
-        <v>0.4908716666666667</v>
+        <v>0.4911016666666666</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7783,10 +7603,10 @@
         <v>0.4932</v>
       </c>
       <c r="F202" t="n">
-        <v>187955.6</v>
+        <v>436458.5911</v>
       </c>
       <c r="G202" t="n">
-        <v>0.4903616666666666</v>
+        <v>0.4908716666666667</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7818,10 +7638,10 @@
         <v>0.4932</v>
       </c>
       <c r="F203" t="n">
-        <v>5000</v>
+        <v>187955.6</v>
       </c>
       <c r="G203" t="n">
-        <v>0.4901316666666666</v>
+        <v>0.4903616666666666</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7853,10 +7673,10 @@
         <v>0.4932</v>
       </c>
       <c r="F204" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="G204" t="n">
-        <v>0.489945</v>
+        <v>0.4901316666666666</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7876,22 +7696,22 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>0.4931</v>
+        <v>0.4932</v>
       </c>
       <c r="C205" t="n">
-        <v>0.4931</v>
+        <v>0.4932</v>
       </c>
       <c r="D205" t="n">
-        <v>0.4931</v>
+        <v>0.4932</v>
       </c>
       <c r="E205" t="n">
-        <v>0.4931</v>
+        <v>0.4932</v>
       </c>
       <c r="F205" t="n">
-        <v>13015.09</v>
+        <v>2500</v>
       </c>
       <c r="G205" t="n">
-        <v>0.48972</v>
+        <v>0.489945</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7923,10 +7743,10 @@
         <v>0.4931</v>
       </c>
       <c r="F206" t="n">
-        <v>3000</v>
+        <v>13015.09</v>
       </c>
       <c r="G206" t="n">
-        <v>0.4896033333333333</v>
+        <v>0.48972</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -7952,16 +7772,16 @@
         <v>0.4931</v>
       </c>
       <c r="D207" t="n">
-        <v>0.4932</v>
+        <v>0.4931</v>
       </c>
       <c r="E207" t="n">
-        <v>0.4929</v>
+        <v>0.4931</v>
       </c>
       <c r="F207" t="n">
-        <v>629828.7979</v>
+        <v>3000</v>
       </c>
       <c r="G207" t="n">
-        <v>0.4897166666666666</v>
+        <v>0.4896033333333333</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -7981,22 +7801,22 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>0.493</v>
+        <v>0.4931</v>
       </c>
       <c r="C208" t="n">
         <v>0.4931</v>
       </c>
       <c r="D208" t="n">
-        <v>0.4931</v>
+        <v>0.4932</v>
       </c>
       <c r="E208" t="n">
-        <v>0.493</v>
+        <v>0.4929</v>
       </c>
       <c r="F208" t="n">
-        <v>5849</v>
+        <v>629828.7979</v>
       </c>
       <c r="G208" t="n">
-        <v>0.4898283333333333</v>
+        <v>0.4897166666666666</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -8011,6 +7831,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>0.493</v>
+      </c>
+      <c r="C209" t="n">
+        <v>0.4931</v>
+      </c>
+      <c r="D209" t="n">
+        <v>0.4931</v>
+      </c>
+      <c r="E209" t="n">
+        <v>0.493</v>
+      </c>
+      <c r="F209" t="n">
+        <v>5849</v>
+      </c>
+      <c r="G209" t="n">
+        <v>0.4898283333333333</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
+      <c r="M209" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-16 BackTest OCN.xlsx
+++ b/BackTest/2020-01-16 BackTest OCN.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M209"/>
+  <dimension ref="A1:N219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>81060</v>
       </c>
       <c r="G2" t="n">
+        <v>0.4606</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.4558500000000001</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,27 @@
         <v>357550</v>
       </c>
       <c r="G3" t="n">
+        <v>0.4611133333333333</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.4562383333333334</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.4699</v>
+      </c>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +535,25 @@
         <v>67690</v>
       </c>
       <c r="G4" t="n">
+        <v>0.4616066666666666</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.4566233333333334</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +577,25 @@
         <v>2679961.1224</v>
       </c>
       <c r="G5" t="n">
+        <v>0.4602399999999999</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.4566700000000001</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +619,25 @@
         <v>951745.8455000001</v>
       </c>
       <c r="G6" t="n">
+        <v>0.4603733333333332</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.4569633333333334</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +661,25 @@
         <v>1929732.2189</v>
       </c>
       <c r="G7" t="n">
+        <v>0.4593999999999999</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.457105</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +703,25 @@
         <v>314566.1086</v>
       </c>
       <c r="G8" t="n">
+        <v>0.4600466666666665</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.4572816666666667</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +745,25 @@
         <v>11013</v>
       </c>
       <c r="G9" t="n">
+        <v>0.4598599999999998</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.4573533333333334</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +787,27 @@
         <v>521950</v>
       </c>
       <c r="G10" t="n">
+        <v>0.4596333333333332</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.457415</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.4571</v>
+      </c>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +831,27 @@
         <v>64390</v>
       </c>
       <c r="G11" t="n">
+        <v>0.4599333333333331</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.4576516666666667</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.4565</v>
+      </c>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +875,27 @@
         <v>971936.291</v>
       </c>
       <c r="G12" t="n">
+        <v>0.4597066666666665</v>
+      </c>
+      <c r="H12" t="n">
         <v>0.4577116666666666</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.4546</v>
+      </c>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +919,27 @@
         <v>301077.709</v>
       </c>
       <c r="G13" t="n">
+        <v>0.4600599999999999</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.4576983333333333</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.4564</v>
+      </c>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +963,25 @@
         <v>71590</v>
       </c>
       <c r="G14" t="n">
+        <v>0.4599066666666666</v>
+      </c>
+      <c r="H14" t="n">
         <v>0.4575099999999999</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +1005,27 @@
         <v>379140</v>
       </c>
       <c r="G15" t="n">
+        <v>0.4595866666666666</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.4573299999999998</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.4544</v>
+      </c>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +1049,25 @@
         <v>183956.737</v>
       </c>
       <c r="G16" t="n">
+        <v>0.4592599999999999</v>
+      </c>
+      <c r="H16" t="n">
         <v>0.4574033333333331</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,24 +1091,25 @@
         <v>300825.632</v>
       </c>
       <c r="G17" t="n">
+        <v>0.4582666666666666</v>
+      </c>
+      <c r="H17" t="n">
         <v>0.4573616666666664</v>
       </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0.455</v>
+        <v>0</v>
       </c>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1014,22 +1133,25 @@
         <v>30357</v>
       </c>
       <c r="G18" t="n">
+        <v>0.4579333333333332</v>
+      </c>
+      <c r="H18" t="n">
         <v>0.4574966666666664</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1053,24 +1175,25 @@
         <v>257560</v>
       </c>
       <c r="G19" t="n">
+        <v>0.45706</v>
+      </c>
+      <c r="H19" t="n">
         <v>0.4576049999999998</v>
       </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0.4648</v>
+        <v>0</v>
       </c>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1094,22 +1217,25 @@
         <v>3091497.195</v>
       </c>
       <c r="G20" t="n">
+        <v>0.4574266666666666</v>
+      </c>
+      <c r="H20" t="n">
         <v>0.4576616666666664</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1133,22 +1259,27 @@
         <v>1185997.465</v>
       </c>
       <c r="G21" t="n">
+        <v>0.4568066666666665</v>
+      </c>
+      <c r="H21" t="n">
         <v>0.4577199999999997</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.4548</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1172,22 +1303,27 @@
         <v>1543926.0966</v>
       </c>
       <c r="G22" t="n">
+        <v>0.4574599999999999</v>
+      </c>
+      <c r="H22" t="n">
         <v>0.4579549999999997</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.4548</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1211,22 +1347,27 @@
         <v>319330</v>
       </c>
       <c r="G23" t="n">
+        <v>0.4578866666666666</v>
+      </c>
+      <c r="H23" t="n">
         <v>0.4581699999999997</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.4648</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1250,22 +1391,27 @@
         <v>1347655.1497</v>
       </c>
       <c r="G24" t="n">
+        <v>0.4577133333333333</v>
+      </c>
+      <c r="H24" t="n">
         <v>0.4582266666666663</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.4635</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1289,22 +1435,27 @@
         <v>423216</v>
       </c>
       <c r="G25" t="n">
+        <v>0.4576666666666666</v>
+      </c>
+      <c r="H25" t="n">
         <v>0.458308333333333</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.4545</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1328,22 +1479,27 @@
         <v>673040.8303</v>
       </c>
       <c r="G26" t="n">
+        <v>0.4577266666666666</v>
+      </c>
+      <c r="H26" t="n">
         <v>0.458353333333333</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.4558</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1367,22 +1523,27 @@
         <v>154888</v>
       </c>
       <c r="G27" t="n">
+        <v>0.4578066666666666</v>
+      </c>
+      <c r="H27" t="n">
         <v>0.4584849999999996</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.4555</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1406,22 +1567,27 @@
         <v>128780</v>
       </c>
       <c r="G28" t="n">
+        <v>0.4573133333333333</v>
+      </c>
+      <c r="H28" t="n">
         <v>0.458508333333333</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.4576</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1445,22 +1611,27 @@
         <v>17045.1548</v>
       </c>
       <c r="G29" t="n">
+        <v>0.4575333333333333</v>
+      </c>
+      <c r="H29" t="n">
         <v>0.4587516666666663</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.4577</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1484,22 +1655,27 @@
         <v>64390</v>
       </c>
       <c r="G30" t="n">
+        <v>0.4577133333333333</v>
+      </c>
+      <c r="H30" t="n">
         <v>0.4589416666666662</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.4577</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1523,22 +1699,27 @@
         <v>379437.5513</v>
       </c>
       <c r="G31" t="n">
+        <v>0.4578999999999999</v>
+      </c>
+      <c r="H31" t="n">
         <v>0.4590733333333329</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.4577</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1562,22 +1743,27 @@
         <v>3280058.7202</v>
       </c>
       <c r="G32" t="n">
+        <v>0.4587599999999999</v>
+      </c>
+      <c r="H32" t="n">
         <v>0.4593283333333329</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.4578</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1601,22 +1787,25 @@
         <v>3169050.7514</v>
       </c>
       <c r="G33" t="n">
+        <v>0.4589466666666666</v>
+      </c>
+      <c r="H33" t="n">
         <v>0.4595766666666662</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1640,22 +1829,25 @@
         <v>527105</v>
       </c>
       <c r="G34" t="n">
+        <v>0.4591133333333332</v>
+      </c>
+      <c r="H34" t="n">
         <v>0.4597283333333329</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1679,22 +1871,25 @@
         <v>111898</v>
       </c>
       <c r="G35" t="n">
+        <v>0.4599666666666666</v>
+      </c>
+      <c r="H35" t="n">
         <v>0.460023333333333</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1718,22 +1913,25 @@
         <v>334782</v>
       </c>
       <c r="G36" t="n">
+        <v>0.46082</v>
+      </c>
+      <c r="H36" t="n">
         <v>0.4602499999999996</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1757,22 +1955,25 @@
         <v>6375.7575</v>
       </c>
       <c r="G37" t="n">
+        <v>0.4609866666666666</v>
+      </c>
+      <c r="H37" t="n">
         <v>0.460438333333333</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1796,22 +1997,25 @@
         <v>800078.441</v>
       </c>
       <c r="G38" t="n">
+        <v>0.4612533333333333</v>
+      </c>
+      <c r="H38" t="n">
         <v>0.4606299999999997</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1835,22 +2039,25 @@
         <v>168096</v>
       </c>
       <c r="G39" t="n">
+        <v>0.4621066666666666</v>
+      </c>
+      <c r="H39" t="n">
         <v>0.460808333333333</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1874,22 +2081,25 @@
         <v>344550.968</v>
       </c>
       <c r="G40" t="n">
+        <v>0.4628799999999999</v>
+      </c>
+      <c r="H40" t="n">
         <v>0.4607649999999997</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1913,22 +2123,25 @@
         <v>1541659.5232</v>
       </c>
       <c r="G41" t="n">
+        <v>0.4630333333333332</v>
+      </c>
+      <c r="H41" t="n">
         <v>0.4606616666666664</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1952,22 +2165,25 @@
         <v>969053.946</v>
       </c>
       <c r="G42" t="n">
+        <v>0.4630533333333332</v>
+      </c>
+      <c r="H42" t="n">
         <v>0.4605599999999997</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1991,22 +2207,25 @@
         <v>7942.13</v>
       </c>
       <c r="G43" t="n">
+        <v>0.4630666666666665</v>
+      </c>
+      <c r="H43" t="n">
         <v>0.4605266666666664</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2030,22 +2249,27 @@
         <v>164931.138</v>
       </c>
       <c r="G44" t="n">
+        <v>0.4630733333333331</v>
+      </c>
+      <c r="H44" t="n">
         <v>0.4603249999999997</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
+        <v>1</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.4579</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2069,22 +2293,27 @@
         <v>3283582.1803</v>
       </c>
       <c r="G45" t="n">
+        <v>0.4630733333333331</v>
+      </c>
+      <c r="H45" t="n">
         <v>0.4602799999999997</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.4578</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2108,22 +2337,27 @@
         <v>100000</v>
       </c>
       <c r="G46" t="n">
+        <v>0.4630599999999998</v>
+      </c>
+      <c r="H46" t="n">
         <v>0.4600749999999997</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.4577</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2147,22 +2381,27 @@
         <v>331733.0984</v>
       </c>
       <c r="G47" t="n">
+        <v>0.4618799999999998</v>
+      </c>
+      <c r="H47" t="n">
         <v>0.4598766666666663</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.4576</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2186,22 +2425,27 @@
         <v>894617.7572</v>
       </c>
       <c r="G48" t="n">
+        <v>0.4612199999999998</v>
+      </c>
+      <c r="H48" t="n">
         <v>0.459803333333333</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
+        <v>1</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.4502</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2225,22 +2469,27 @@
         <v>265898.8275</v>
       </c>
       <c r="G49" t="n">
+        <v>0.4611266666666665</v>
+      </c>
+      <c r="H49" t="n">
         <v>0.4597266666666663</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
+        <v>1</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.4577</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2264,22 +2513,27 @@
         <v>127664</v>
       </c>
       <c r="G50" t="n">
+        <v>0.4612333333333332</v>
+      </c>
+      <c r="H50" t="n">
         <v>0.4597166666666663</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
+        <v>1</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.4576</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,22 +2557,27 @@
         <v>2033837.7811</v>
       </c>
       <c r="G51" t="n">
+        <v>0.4615999999999998</v>
+      </c>
+      <c r="H51" t="n">
         <v>0.4598999999999996</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.4692</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2342,22 +2601,25 @@
         <v>4444263.0573</v>
       </c>
       <c r="G52" t="n">
+        <v>0.4630999999999998</v>
+      </c>
+      <c r="H52" t="n">
         <v>0.4602366666666663</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2381,22 +2643,25 @@
         <v>1050337.5513</v>
       </c>
       <c r="G53" t="n">
+        <v>0.4642199999999998</v>
+      </c>
+      <c r="H53" t="n">
         <v>0.4608516666666663</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2420,22 +2685,25 @@
         <v>468030</v>
       </c>
       <c r="G54" t="n">
+        <v>0.4653866666666664</v>
+      </c>
+      <c r="H54" t="n">
         <v>0.4612666666666663</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2459,22 +2727,27 @@
         <v>1955.6555</v>
       </c>
       <c r="G55" t="n">
+        <v>0.4668599999999998</v>
+      </c>
+      <c r="H55" t="n">
         <v>0.4617599999999996</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
-        <v>1</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2496,18 +2769,25 @@
         <v>124090</v>
       </c>
       <c r="G56" t="n">
+        <v>0.4686333333333331</v>
+      </c>
+      <c r="H56" t="n">
         <v>0.4623316666666663</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
-        <v>1</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2531,18 +2811,25 @@
         <v>2122368</v>
       </c>
       <c r="G57" t="n">
+        <v>0.4703999999999998</v>
+      </c>
+      <c r="H57" t="n">
         <v>0.4627416666666663</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
-        <v>1</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2566,18 +2853,25 @@
         <v>2135782</v>
       </c>
       <c r="G58" t="n">
+        <v>0.4725399999999998</v>
+      </c>
+      <c r="H58" t="n">
         <v>0.4632449999999996</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
-        <v>1</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2601,18 +2895,25 @@
         <v>1328275.9093</v>
       </c>
       <c r="G59" t="n">
+        <v>0.4747266666666665</v>
+      </c>
+      <c r="H59" t="n">
         <v>0.4638099999999996</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
-        <v>1</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2636,18 +2937,25 @@
         <v>4100</v>
       </c>
       <c r="G60" t="n">
+        <v>0.4769199999999998</v>
+      </c>
+      <c r="H60" t="n">
         <v>0.4643233333333329</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
-        <v>1</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2671,18 +2979,25 @@
         <v>6098.9219</v>
       </c>
       <c r="G61" t="n">
+        <v>0.4791133333333331</v>
+      </c>
+      <c r="H61" t="n">
         <v>0.4648333333333329</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
-        <v>1</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2706,18 +3021,25 @@
         <v>25000</v>
       </c>
       <c r="G62" t="n">
+        <v>0.4810933333333331</v>
+      </c>
+      <c r="H62" t="n">
         <v>0.4649999999999996</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2741,18 +3063,25 @@
         <v>374445.84</v>
       </c>
       <c r="G63" t="n">
+        <v>0.4822399999999998</v>
+      </c>
+      <c r="H63" t="n">
         <v>0.4650849999999996</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2776,18 +3105,25 @@
         <v>381879.9093</v>
       </c>
       <c r="G64" t="n">
+        <v>0.4817666666666664</v>
+      </c>
+      <c r="H64" t="n">
         <v>0.4647666666666663</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2811,18 +3147,25 @@
         <v>207680</v>
       </c>
       <c r="G65" t="n">
+        <v>0.4820399999999997</v>
+      </c>
+      <c r="H65" t="n">
         <v>0.4651666666666662</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2846,18 +3189,25 @@
         <v>209269.6448</v>
       </c>
       <c r="G66" t="n">
+        <v>0.4822399999999998</v>
+      </c>
+      <c r="H66" t="n">
         <v>0.4653666666666663</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2881,18 +3231,25 @@
         <v>2654.8655</v>
       </c>
       <c r="G67" t="n">
+        <v>0.4819733333333331</v>
+      </c>
+      <c r="H67" t="n">
         <v>0.4658799999999996</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2916,18 +3273,25 @@
         <v>70970</v>
       </c>
       <c r="G68" t="n">
+        <v>0.4816933333333331</v>
+      </c>
+      <c r="H68" t="n">
         <v>0.466263333333333</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2951,18 +3315,25 @@
         <v>231901.9704</v>
       </c>
       <c r="G69" t="n">
+        <v>0.4813266666666665</v>
+      </c>
+      <c r="H69" t="n">
         <v>0.466633333333333</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2986,18 +3357,25 @@
         <v>90289.10000000001</v>
       </c>
       <c r="G70" t="n">
+        <v>0.4806866666666665</v>
+      </c>
+      <c r="H70" t="n">
         <v>0.467023333333333</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3021,18 +3399,25 @@
         <v>806027.6</v>
       </c>
       <c r="G71" t="n">
+        <v>0.4803733333333332</v>
+      </c>
+      <c r="H71" t="n">
         <v>0.4674416666666664</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3056,18 +3441,25 @@
         <v>69300</v>
       </c>
       <c r="G72" t="n">
+        <v>0.4800866666666666</v>
+      </c>
+      <c r="H72" t="n">
         <v>0.4678366666666663</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3091,18 +3483,25 @@
         <v>9985</v>
       </c>
       <c r="G73" t="n">
+        <v>0.4791533333333332</v>
+      </c>
+      <c r="H73" t="n">
         <v>0.468018333333333</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3126,18 +3525,25 @@
         <v>366673.2</v>
       </c>
       <c r="G74" t="n">
+        <v>0.4784466666666665</v>
+      </c>
+      <c r="H74" t="n">
         <v>0.4684449999999997</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3161,18 +3567,25 @@
         <v>3080.78</v>
       </c>
       <c r="G75" t="n">
+        <v>0.4777333333333332</v>
+      </c>
+      <c r="H75" t="n">
         <v>0.4688599999999997</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3196,18 +3609,25 @@
         <v>13680</v>
       </c>
       <c r="G76" t="n">
+        <v>0.4770266666666665</v>
+      </c>
+      <c r="H76" t="n">
         <v>0.4692749999999998</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3231,18 +3651,25 @@
         <v>4577</v>
       </c>
       <c r="G77" t="n">
+        <v>0.4770199999999998</v>
+      </c>
+      <c r="H77" t="n">
         <v>0.4696883333333332</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3266,18 +3693,25 @@
         <v>10859</v>
       </c>
       <c r="G78" t="n">
+        <v>0.4773533333333332</v>
+      </c>
+      <c r="H78" t="n">
         <v>0.4699399999999999</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3301,18 +3735,25 @@
         <v>5645.1957</v>
       </c>
       <c r="G79" t="n">
+        <v>0.4793066666666665</v>
+      </c>
+      <c r="H79" t="n">
         <v>0.4703283333333332</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3336,18 +3777,25 @@
         <v>379506.2917</v>
       </c>
       <c r="G80" t="n">
+        <v>0.4797466666666665</v>
+      </c>
+      <c r="H80" t="n">
         <v>0.4707466666666666</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3371,18 +3819,25 @@
         <v>13832.328</v>
       </c>
       <c r="G81" t="n">
+        <v>0.4797399999999998</v>
+      </c>
+      <c r="H81" t="n">
         <v>0.4710999999999999</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3406,18 +3861,25 @@
         <v>94445.14599999999</v>
       </c>
       <c r="G82" t="n">
+        <v>0.4790866666666665</v>
+      </c>
+      <c r="H82" t="n">
         <v>0.4712866666666666</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3441,18 +3903,25 @@
         <v>1524996.4</v>
       </c>
       <c r="G83" t="n">
+        <v>0.4790799999999998</v>
+      </c>
+      <c r="H83" t="n">
         <v>0.4715616666666665</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3476,18 +3945,25 @@
         <v>840395</v>
       </c>
       <c r="G84" t="n">
+        <v>0.4794933333333332</v>
+      </c>
+      <c r="H84" t="n">
         <v>0.4720783333333332</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3511,18 +3987,25 @@
         <v>766941.1735</v>
       </c>
       <c r="G85" t="n">
+        <v>0.4798333333333332</v>
+      </c>
+      <c r="H85" t="n">
         <v>0.4725649999999998</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3546,18 +4029,25 @@
         <v>355815.2537</v>
       </c>
       <c r="G86" t="n">
+        <v>0.4801866666666665</v>
+      </c>
+      <c r="H86" t="n">
         <v>0.4730566666666665</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3581,18 +4071,25 @@
         <v>7285</v>
       </c>
       <c r="G87" t="n">
+        <v>0.4805133333333332</v>
+      </c>
+      <c r="H87" t="n">
         <v>0.4735133333333332</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3616,18 +4113,25 @@
         <v>2888000.9584</v>
       </c>
       <c r="G88" t="n">
+        <v>0.4811533333333332</v>
+      </c>
+      <c r="H88" t="n">
         <v>0.4739783333333332</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3651,18 +4155,25 @@
         <v>1308772.3</v>
       </c>
       <c r="G89" t="n">
+        <v>0.4818066666666665</v>
+      </c>
+      <c r="H89" t="n">
         <v>0.4745133333333332</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3686,18 +4197,25 @@
         <v>6959</v>
       </c>
       <c r="G90" t="n">
+        <v>0.4824666666666665</v>
+      </c>
+      <c r="H90" t="n">
         <v>0.4750483333333332</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3721,18 +4239,25 @@
         <v>15355.7279</v>
       </c>
       <c r="G91" t="n">
+        <v>0.4831333333333332</v>
+      </c>
+      <c r="H91" t="n">
         <v>0.4755833333333332</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3756,18 +4281,25 @@
         <v>6851</v>
       </c>
       <c r="G92" t="n">
+        <v>0.4838066666666666</v>
+      </c>
+      <c r="H92" t="n">
         <v>0.4759499999999999</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3791,18 +4323,25 @@
         <v>189028</v>
       </c>
       <c r="G93" t="n">
+        <v>0.4844733333333332</v>
+      </c>
+      <c r="H93" t="n">
         <v>0.4763216666666665</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3826,18 +4365,25 @@
         <v>350722.1635</v>
       </c>
       <c r="G94" t="n">
+        <v>0.4851466666666665</v>
+      </c>
+      <c r="H94" t="n">
         <v>0.4768366666666665</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3861,18 +4407,25 @@
         <v>982001</v>
       </c>
       <c r="G95" t="n">
+        <v>0.4858133333333332</v>
+      </c>
+      <c r="H95" t="n">
         <v>0.4772083333333331</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3896,18 +4449,25 @@
         <v>114508.1116</v>
       </c>
       <c r="G96" t="n">
+        <v>0.4867399999999998</v>
+      </c>
+      <c r="H96" t="n">
         <v>0.4775799999999997</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3931,18 +4491,25 @@
         <v>320617.3157</v>
       </c>
       <c r="G97" t="n">
+        <v>0.4876666666666665</v>
+      </c>
+      <c r="H97" t="n">
         <v>0.4779566666666664</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3966,18 +4533,25 @@
         <v>864135.4282</v>
       </c>
       <c r="G98" t="n">
+        <v>0.4883266666666664</v>
+      </c>
+      <c r="H98" t="n">
         <v>0.4783299999999996</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4001,18 +4575,25 @@
         <v>398142</v>
       </c>
       <c r="G99" t="n">
+        <v>0.4889533333333331</v>
+      </c>
+      <c r="H99" t="n">
         <v>0.4787899999999997</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4036,18 +4617,25 @@
         <v>75000</v>
       </c>
       <c r="G100" t="n">
+        <v>0.4898399999999998</v>
+      </c>
+      <c r="H100" t="n">
         <v>0.4793049999999996</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4071,18 +4659,25 @@
         <v>64896.5397</v>
       </c>
       <c r="G101" t="n">
+        <v>0.4907066666666664</v>
+      </c>
+      <c r="H101" t="n">
         <v>0.4799749999999997</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4106,18 +4701,25 @@
         <v>50000</v>
       </c>
       <c r="G102" t="n">
+        <v>0.4915733333333331</v>
+      </c>
+      <c r="H102" t="n">
         <v>0.480643333333333</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4141,18 +4743,25 @@
         <v>75000</v>
       </c>
       <c r="G103" t="n">
+        <v>0.4923999999999998</v>
+      </c>
+      <c r="H103" t="n">
         <v>0.4813116666666664</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4176,18 +4785,25 @@
         <v>391098</v>
       </c>
       <c r="G104" t="n">
+        <v>0.4929399999999998</v>
+      </c>
+      <c r="H104" t="n">
         <v>0.4819799999999998</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4211,18 +4827,25 @@
         <v>58800</v>
       </c>
       <c r="G105" t="n">
+        <v>0.4934733333333332</v>
+      </c>
+      <c r="H105" t="n">
         <v>0.4826483333333332</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4246,18 +4869,25 @@
         <v>8090.48</v>
       </c>
       <c r="G106" t="n">
+        <v>0.4939999999999998</v>
+      </c>
+      <c r="H106" t="n">
         <v>0.4833183333333332</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4281,18 +4911,25 @@
         <v>986882</v>
       </c>
       <c r="G107" t="n">
+        <v>0.4945399999999998</v>
+      </c>
+      <c r="H107" t="n">
         <v>0.4841149999999999</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4316,18 +4953,25 @@
         <v>2054011.58</v>
       </c>
       <c r="G108" t="n">
+        <v>0.4950866666666665</v>
+      </c>
+      <c r="H108" t="n">
         <v>0.4847883333333333</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4351,18 +4995,25 @@
         <v>4277605.9</v>
       </c>
       <c r="G109" t="n">
+        <v>0.4957599999999998</v>
+      </c>
+      <c r="H109" t="n">
         <v>0.485495</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4386,18 +5037,25 @@
         <v>4372606.7964</v>
       </c>
       <c r="G110" t="n">
+        <v>0.4964333333333331</v>
+      </c>
+      <c r="H110" t="n">
         <v>0.4860083333333333</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4421,18 +5079,25 @@
         <v>20019</v>
       </c>
       <c r="G111" t="n">
+        <v>0.4976799999999998</v>
+      </c>
+      <c r="H111" t="n">
         <v>0.4866</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4456,18 +5121,25 @@
         <v>7291.345</v>
       </c>
       <c r="G112" t="n">
+        <v>0.4979399999999998</v>
+      </c>
+      <c r="H112" t="n">
         <v>0.4866666666666666</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4491,18 +5163,25 @@
         <v>55000</v>
       </c>
       <c r="G113" t="n">
+        <v>0.4991933333333332</v>
+      </c>
+      <c r="H113" t="n">
         <v>0.4870733333333333</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4526,18 +5205,25 @@
         <v>410160</v>
       </c>
       <c r="G114" t="n">
+        <v>0.5001133333333332</v>
+      </c>
+      <c r="H114" t="n">
         <v>0.4874716666666667</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4561,18 +5247,25 @@
         <v>1814721</v>
       </c>
       <c r="G115" t="n">
+        <v>0.5008066666666664</v>
+      </c>
+      <c r="H115" t="n">
         <v>0.4877916666666667</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4596,18 +5289,25 @@
         <v>3180991.81862226</v>
       </c>
       <c r="G116" t="n">
+        <v>0.5025266666666665</v>
+      </c>
+      <c r="H116" t="n">
         <v>0.4884483333333334</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4631,20 +5331,25 @@
         <v>3106829.9897</v>
       </c>
       <c r="G117" t="n">
+        <v>0.5042199999999997</v>
+      </c>
+      <c r="H117" t="n">
         <v>0.4890983333333334</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>1</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4666,18 +5371,21 @@
         <v>124698</v>
       </c>
       <c r="G118" t="n">
+        <v>0.505913333333333</v>
+      </c>
+      <c r="H118" t="n">
         <v>0.489655</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>1</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4701,18 +5409,21 @@
         <v>19309.8263</v>
       </c>
       <c r="G119" t="n">
+        <v>0.507613333333333</v>
+      </c>
+      <c r="H119" t="n">
         <v>0.4902016666666666</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>1</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4736,18 +5447,21 @@
         <v>231671.4949</v>
       </c>
       <c r="G120" t="n">
+        <v>0.5083066666666664</v>
+      </c>
+      <c r="H120" t="n">
         <v>0.490495</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>1</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4771,18 +5485,21 @@
         <v>16508.5051</v>
       </c>
       <c r="G121" t="n">
+        <v>0.5089999999999998</v>
+      </c>
+      <c r="H121" t="n">
         <v>0.4907899999999999</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>1</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4806,18 +5523,21 @@
         <v>913161.0801</v>
       </c>
       <c r="G122" t="n">
+        <v>0.5096599999999997</v>
+      </c>
+      <c r="H122" t="n">
         <v>0.4912566666666666</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>1</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4841,18 +5561,21 @@
         <v>50000</v>
       </c>
       <c r="G123" t="n">
+        <v>0.5095599999999997</v>
+      </c>
+      <c r="H123" t="n">
         <v>0.4916183333333332</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>1</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4876,18 +5599,21 @@
         <v>301328.769</v>
       </c>
       <c r="G124" t="n">
+        <v>0.5093399999999997</v>
+      </c>
+      <c r="H124" t="n">
         <v>0.4923883333333332</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>1</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4911,18 +5637,21 @@
         <v>183010</v>
       </c>
       <c r="G125" t="n">
+        <v>0.5091133333333331</v>
+      </c>
+      <c r="H125" t="n">
         <v>0.4927766666666666</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>1</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4946,18 +5675,21 @@
         <v>100000</v>
       </c>
       <c r="G126" t="n">
+        <v>0.5090666666666663</v>
+      </c>
+      <c r="H126" t="n">
         <v>0.4933066666666666</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>1</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4981,18 +5713,21 @@
         <v>1973.164956590371</v>
       </c>
       <c r="G127" t="n">
+        <v>0.5099333333333329</v>
+      </c>
+      <c r="H127" t="n">
         <v>0.4936566666666665</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>1</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5016,18 +5751,21 @@
         <v>207195.5654</v>
       </c>
       <c r="G128" t="n">
+        <v>0.5098199999999996</v>
+      </c>
+      <c r="H128" t="n">
         <v>0.4941049999999999</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>1</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5051,18 +5789,21 @@
         <v>103737.11</v>
       </c>
       <c r="G129" t="n">
+        <v>0.5093266666666662</v>
+      </c>
+      <c r="H129" t="n">
         <v>0.4944716666666666</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>1</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5086,18 +5827,21 @@
         <v>1251066.7103</v>
       </c>
       <c r="G130" t="n">
+        <v>0.5089799999999995</v>
+      </c>
+      <c r="H130" t="n">
         <v>0.4948649999999999</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>1</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5121,18 +5865,21 @@
         <v>1141249.5424</v>
       </c>
       <c r="G131" t="n">
+        <v>0.5077266666666662</v>
+      </c>
+      <c r="H131" t="n">
         <v>0.4952866666666665</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>1</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5156,18 +5903,21 @@
         <v>3091207.2589</v>
       </c>
       <c r="G132" t="n">
+        <v>0.5063999999999996</v>
+      </c>
+      <c r="H132" t="n">
         <v>0.4956766666666665</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>1</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5191,18 +5941,21 @@
         <v>573325.8194</v>
       </c>
       <c r="G133" t="n">
+        <v>0.5050733333333329</v>
+      </c>
+      <c r="H133" t="n">
         <v>0.4961349999999998</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>1</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5226,18 +5979,21 @@
         <v>351967.3363</v>
       </c>
       <c r="G134" t="n">
+        <v>0.5037399999999996</v>
+      </c>
+      <c r="H134" t="n">
         <v>0.4965249999999998</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>1</v>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5261,18 +6017,21 @@
         <v>331465.5655</v>
       </c>
       <c r="G135" t="n">
+        <v>0.5036599999999997</v>
+      </c>
+      <c r="H135" t="n">
         <v>0.4969766666666665</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>1</v>
+      </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5296,18 +6055,21 @@
         <v>1252001.8109</v>
       </c>
       <c r="G136" t="n">
+        <v>0.5033799999999996</v>
+      </c>
+      <c r="H136" t="n">
         <v>0.4973783333333331</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>1</v>
+      </c>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5331,18 +6093,21 @@
         <v>285538.6961</v>
       </c>
       <c r="G137" t="n">
+        <v>0.5031199999999996</v>
+      </c>
+      <c r="H137" t="n">
         <v>0.4977816666666665</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>1</v>
+      </c>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5366,18 +6131,21 @@
         <v>420113.4712</v>
       </c>
       <c r="G138" t="n">
+        <v>0.5038133333333329</v>
+      </c>
+      <c r="H138" t="n">
         <v>0.4982333333333332</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>1</v>
+      </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5401,18 +6169,21 @@
         <v>1975000</v>
       </c>
       <c r="G139" t="n">
+        <v>0.5044333333333328</v>
+      </c>
+      <c r="H139" t="n">
         <v>0.4986699999999998</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>1</v>
+      </c>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5436,18 +6207,21 @@
         <v>189000</v>
       </c>
       <c r="G140" t="n">
+        <v>0.5062533333333329</v>
+      </c>
+      <c r="H140" t="n">
         <v>0.4994033333333332</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>1</v>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5471,18 +6245,21 @@
         <v>1019312.6982</v>
       </c>
       <c r="G141" t="n">
+        <v>0.5073199999999995</v>
+      </c>
+      <c r="H141" t="n">
         <v>0.5002016666666665</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>1</v>
+      </c>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5506,18 +6283,21 @@
         <v>608623.09</v>
       </c>
       <c r="G142" t="n">
+        <v>0.507333333333333</v>
+      </c>
+      <c r="H142" t="n">
         <v>0.5007183333333333</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>1</v>
+      </c>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5541,18 +6321,21 @@
         <v>165192.76</v>
       </c>
       <c r="G143" t="n">
+        <v>0.508453333333333</v>
+      </c>
+      <c r="H143" t="n">
         <v>0.5014483333333333</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>1</v>
+      </c>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5576,18 +6359,21 @@
         <v>244.4526</v>
       </c>
       <c r="G144" t="n">
+        <v>0.5088333333333329</v>
+      </c>
+      <c r="H144" t="n">
         <v>0.5018066666666666</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>1</v>
+      </c>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5611,18 +6397,21 @@
         <v>250412</v>
       </c>
       <c r="G145" t="n">
+        <v>0.5088933333333329</v>
+      </c>
+      <c r="H145" t="n">
         <v>0.50213</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>1</v>
+      </c>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5646,18 +6435,21 @@
         <v>1046.5555</v>
       </c>
       <c r="G146" t="n">
+        <v>0.5089999999999996</v>
+      </c>
+      <c r="H146" t="n">
         <v>0.50249</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>1</v>
+      </c>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5681,18 +6473,21 @@
         <v>486000</v>
       </c>
       <c r="G147" t="n">
+        <v>0.508773333333333</v>
+      </c>
+      <c r="H147" t="n">
         <v>0.5027416666666666</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>1</v>
+      </c>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5716,18 +6511,21 @@
         <v>100000</v>
       </c>
       <c r="G148" t="n">
+        <v>0.5076266666666663</v>
+      </c>
+      <c r="H148" t="n">
         <v>0.5027533333333333</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>1</v>
+      </c>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5751,18 +6549,21 @@
         <v>2500000</v>
       </c>
       <c r="G149" t="n">
+        <v>0.506493333333333</v>
+      </c>
+      <c r="H149" t="n">
         <v>0.5026966666666667</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>1</v>
+      </c>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5786,18 +6587,21 @@
         <v>943764.1676</v>
       </c>
       <c r="G150" t="n">
+        <v>0.5051133333333332</v>
+      </c>
+      <c r="H150" t="n">
         <v>0.5026383333333333</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5821,18 +6625,21 @@
         <v>1545.5655</v>
       </c>
       <c r="G151" t="n">
+        <v>0.5045666666666666</v>
+      </c>
+      <c r="H151" t="n">
         <v>0.5027366666666667</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5856,18 +6663,21 @@
         <v>6796.6886</v>
       </c>
       <c r="G152" t="n">
+        <v>0.5040066666666666</v>
+      </c>
+      <c r="H152" t="n">
         <v>0.5028316666666667</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5891,18 +6701,21 @@
         <v>291548</v>
       </c>
       <c r="G153" t="n">
+        <v>0.5032333333333333</v>
+      </c>
+      <c r="H153" t="n">
         <v>0.5029233333333334</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5926,18 +6739,21 @@
         <v>0.345</v>
       </c>
       <c r="G154" t="n">
+        <v>0.5025266666666666</v>
+      </c>
+      <c r="H154" t="n">
         <v>0.5030150000000001</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5961,18 +6777,21 @@
         <v>11699.655</v>
       </c>
       <c r="G155" t="n">
+        <v>0.5006266666666666</v>
+      </c>
+      <c r="H155" t="n">
         <v>0.5031066666666668</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5996,18 +6815,21 @@
         <v>6796.6886</v>
       </c>
       <c r="G156" t="n">
+        <v>0.4983666666666666</v>
+      </c>
+      <c r="H156" t="n">
         <v>0.5031083333333334</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6031,18 +6853,21 @@
         <v>17858.45920139366</v>
       </c>
       <c r="G157" t="n">
+        <v>0.4975733333333333</v>
+      </c>
+      <c r="H157" t="n">
         <v>0.5031950000000002</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6066,18 +6891,21 @@
         <v>8774.0046</v>
       </c>
       <c r="G158" t="n">
+        <v>0.4953133333333332</v>
+      </c>
+      <c r="H158" t="n">
         <v>0.5031950000000002</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6101,18 +6929,21 @@
         <v>70658.65240000001</v>
       </c>
       <c r="G159" t="n">
+        <v>0.4941133333333332</v>
+      </c>
+      <c r="H159" t="n">
         <v>0.5030966666666667</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6136,18 +6967,21 @@
         <v>173223.3261</v>
       </c>
       <c r="G160" t="n">
+        <v>0.4930866666666666</v>
+      </c>
+      <c r="H160" t="n">
         <v>0.5029416666666668</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6171,18 +7005,21 @@
         <v>13675.9811</v>
       </c>
       <c r="G161" t="n">
+        <v>0.4919666666666666</v>
+      </c>
+      <c r="H161" t="n">
         <v>0.5028050000000001</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6206,18 +7043,21 @@
         <v>1653.8567</v>
       </c>
       <c r="G162" t="n">
+        <v>0.4912866666666666</v>
+      </c>
+      <c r="H162" t="n">
         <v>0.5026700000000001</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6241,18 +7081,21 @@
         <v>16328</v>
       </c>
       <c r="G163" t="n">
+        <v>0.4915333333333333</v>
+      </c>
+      <c r="H163" t="n">
         <v>0.5025366666666666</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6276,18 +7119,21 @@
         <v>30000</v>
       </c>
       <c r="G164" t="n">
+        <v>0.4917733333333333</v>
+      </c>
+      <c r="H164" t="n">
         <v>0.502405</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6311,18 +7157,21 @@
         <v>1244.6723</v>
       </c>
       <c r="G165" t="n">
+        <v>0.4924466666666667</v>
+      </c>
+      <c r="H165" t="n">
         <v>0.5023816666666666</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6346,18 +7195,21 @@
         <v>16557.83958081419</v>
       </c>
       <c r="G166" t="n">
+        <v>0.4924733333333334</v>
+      </c>
+      <c r="H166" t="n">
         <v>0.502355</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6381,18 +7233,21 @@
         <v>18086.9607</v>
       </c>
       <c r="G167" t="n">
+        <v>0.49252</v>
+      </c>
+      <c r="H167" t="n">
         <v>0.5023266666666666</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6416,18 +7271,21 @@
         <v>225268.6385</v>
       </c>
       <c r="G168" t="n">
+        <v>0.4920333333333334</v>
+      </c>
+      <c r="H168" t="n">
         <v>0.5021599999999999</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6451,18 +7309,21 @@
         <v>1111</v>
       </c>
       <c r="G169" t="n">
+        <v>0.4920866666666667</v>
+      </c>
+      <c r="H169" t="n">
         <v>0.5020966666666666</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6486,18 +7347,21 @@
         <v>23612.7995</v>
       </c>
       <c r="G170" t="n">
+        <v>0.49214</v>
+      </c>
+      <c r="H170" t="n">
         <v>0.5020333333333333</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6521,18 +7385,21 @@
         <v>8052698.4398</v>
       </c>
       <c r="G171" t="n">
+        <v>0.4914733333333333</v>
+      </c>
+      <c r="H171" t="n">
         <v>0.5015566666666667</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6556,18 +7423,21 @@
         <v>1564505.0208</v>
       </c>
       <c r="G172" t="n">
+        <v>0.49046</v>
+      </c>
+      <c r="H172" t="n">
         <v>0.501325</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6591,18 +7461,21 @@
         <v>4339058.2977</v>
       </c>
       <c r="G173" t="n">
+        <v>0.4898</v>
+      </c>
+      <c r="H173" t="n">
         <v>0.5008466666666667</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6626,18 +7499,21 @@
         <v>4352788.4362</v>
       </c>
       <c r="G174" t="n">
+        <v>0.4885333333333333</v>
+      </c>
+      <c r="H174" t="n">
         <v>0.5002016666666667</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6661,18 +7537,21 @@
         <v>109054.0913</v>
       </c>
       <c r="G175" t="n">
+        <v>0.4881333333333333</v>
+      </c>
+      <c r="H175" t="n">
         <v>0.4997733333333333</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6696,18 +7575,21 @@
         <v>271693.9</v>
       </c>
       <c r="G176" t="n">
+        <v>0.4883399999999999</v>
+      </c>
+      <c r="H176" t="n">
         <v>0.4992583333333332</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6731,18 +7613,21 @@
         <v>18617.2814</v>
       </c>
       <c r="G177" t="n">
+        <v>0.4884933333333333</v>
+      </c>
+      <c r="H177" t="n">
         <v>0.4987383333333332</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6766,18 +7651,21 @@
         <v>2400</v>
       </c>
       <c r="G178" t="n">
+        <v>0.48864</v>
+      </c>
+      <c r="H178" t="n">
         <v>0.4982183333333333</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6801,18 +7689,21 @@
         <v>1153394</v>
       </c>
       <c r="G179" t="n">
+        <v>0.4879999999999999</v>
+      </c>
+      <c r="H179" t="n">
         <v>0.4975016666666666</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6836,18 +7727,21 @@
         <v>69328.07369999999</v>
       </c>
       <c r="G180" t="n">
+        <v>0.4878199999999999</v>
+      </c>
+      <c r="H180" t="n">
         <v>0.49726</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
+      <c r="M180" t="inlineStr"/>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6871,18 +7765,21 @@
         <v>70084.70050000001</v>
       </c>
       <c r="G181" t="n">
+        <v>0.4868066666666666</v>
+      </c>
+      <c r="H181" t="n">
         <v>0.4968066666666667</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6906,18 +7803,21 @@
         <v>1259.7987</v>
       </c>
       <c r="G182" t="n">
+        <v>0.4857866666666666</v>
+      </c>
+      <c r="H182" t="n">
         <v>0.4963583333333334</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6941,18 +7841,21 @@
         <v>1177128.9633</v>
       </c>
       <c r="G183" t="n">
+        <v>0.4853133333333332</v>
+      </c>
+      <c r="H183" t="n">
         <v>0.4960983333333334</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6976,18 +7879,21 @@
         <v>4121896.0843</v>
       </c>
       <c r="G184" t="n">
+        <v>0.4850733333333332</v>
+      </c>
+      <c r="H184" t="n">
         <v>0.4960300000000001</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7011,18 +7917,21 @@
         <v>18617.2814</v>
       </c>
       <c r="G185" t="n">
+        <v>0.4842399999999999</v>
+      </c>
+      <c r="H185" t="n">
         <v>0.4958150000000001</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7046,18 +7955,21 @@
         <v>41357.0734</v>
       </c>
       <c r="G186" t="n">
+        <v>0.4844866666666666</v>
+      </c>
+      <c r="H186" t="n">
         <v>0.4954116666666667</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7081,18 +7993,21 @@
         <v>89195.21589296575</v>
       </c>
       <c r="G187" t="n">
+        <v>0.4853799999999999</v>
+      </c>
+      <c r="H187" t="n">
         <v>0.4951866666666668</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
       <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7116,18 +8031,21 @@
         <v>54884</v>
       </c>
       <c r="G188" t="n">
+        <v>0.4860133333333332</v>
+      </c>
+      <c r="H188" t="n">
         <v>0.494895</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7151,18 +8069,21 @@
         <v>2924.965</v>
       </c>
       <c r="G189" t="n">
+        <v>0.4869333333333333</v>
+      </c>
+      <c r="H189" t="n">
         <v>0.4946033333333333</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7186,18 +8107,21 @@
         <v>6397.5691</v>
       </c>
       <c r="G190" t="n">
+        <v>0.4869866666666666</v>
+      </c>
+      <c r="H190" t="n">
         <v>0.494275</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
       <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7221,18 +8145,21 @@
         <v>152617.3352</v>
       </c>
       <c r="G191" t="n">
+        <v>0.4863799999999999</v>
+      </c>
+      <c r="H191" t="n">
         <v>0.4939216666666667</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7256,18 +8183,21 @@
         <v>33527.0091</v>
       </c>
       <c r="G192" t="n">
+        <v>0.4859799999999999</v>
+      </c>
+      <c r="H192" t="n">
         <v>0.4936333333333334</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7291,18 +8221,21 @@
         <v>1260305.7622</v>
       </c>
       <c r="G193" t="n">
+        <v>0.4860066666666666</v>
+      </c>
+      <c r="H193" t="n">
         <v>0.4934516666666667</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
       <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7326,18 +8259,21 @@
         <v>710770</v>
       </c>
       <c r="G194" t="n">
+        <v>0.4868133333333332</v>
+      </c>
+      <c r="H194" t="n">
         <v>0.49327</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7361,18 +8297,21 @@
         <v>1806.1135</v>
       </c>
       <c r="G195" t="n">
+        <v>0.4863399999999999</v>
+      </c>
+      <c r="H195" t="n">
         <v>0.49293</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
       <c r="K195" t="inlineStr"/>
       <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7396,18 +8335,21 @@
         <v>17405.5637</v>
       </c>
       <c r="G196" t="n">
+        <v>0.4871599999999999</v>
+      </c>
+      <c r="H196" t="n">
         <v>0.4927516666666667</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
       <c r="K196" t="inlineStr"/>
       <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7431,18 +8373,21 @@
         <v>4045.24</v>
       </c>
       <c r="G197" t="n">
+        <v>0.4879666666666665</v>
+      </c>
+      <c r="H197" t="n">
         <v>0.49257</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
       <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
+      <c r="M197" t="inlineStr"/>
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7466,18 +8411,21 @@
         <v>669293</v>
       </c>
       <c r="G198" t="n">
+        <v>0.4887799999999999</v>
+      </c>
+      <c r="H198" t="n">
         <v>0.4923399999999999</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
       <c r="K198" t="inlineStr"/>
       <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7501,18 +8449,21 @@
         <v>2500</v>
       </c>
       <c r="G199" t="n">
+        <v>0.4888199999999998</v>
+      </c>
+      <c r="H199" t="n">
         <v>0.4921266666666667</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
       <c r="K199" t="inlineStr"/>
       <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
+      <c r="M199" t="inlineStr"/>
+      <c r="N199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7536,18 +8487,21 @@
         <v>2500</v>
       </c>
       <c r="G200" t="n">
+        <v>0.4894533333333332</v>
+      </c>
+      <c r="H200" t="n">
         <v>0.491615</v>
       </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
       <c r="K200" t="inlineStr"/>
       <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
+      <c r="M200" t="inlineStr"/>
+      <c r="N200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7571,18 +8525,21 @@
         <v>54884</v>
       </c>
       <c r="G201" t="n">
+        <v>0.4900799999999998</v>
+      </c>
+      <c r="H201" t="n">
         <v>0.4911016666666666</v>
       </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
       <c r="K201" t="inlineStr"/>
       <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
+      <c r="M201" t="inlineStr"/>
+      <c r="N201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7606,18 +8563,21 @@
         <v>436458.5911</v>
       </c>
       <c r="G202" t="n">
+        <v>0.4900733333333332</v>
+      </c>
+      <c r="H202" t="n">
         <v>0.4908716666666667</v>
       </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
       <c r="K202" t="inlineStr"/>
       <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
+      <c r="M202" t="inlineStr"/>
+      <c r="N202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7641,18 +8601,21 @@
         <v>187955.6</v>
       </c>
       <c r="G203" t="n">
+        <v>0.4903199999999999</v>
+      </c>
+      <c r="H203" t="n">
         <v>0.4903616666666666</v>
       </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
       <c r="K203" t="inlineStr"/>
       <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
+      <c r="M203" t="inlineStr"/>
+      <c r="N203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7676,18 +8639,21 @@
         <v>5000</v>
       </c>
       <c r="G204" t="n">
+        <v>0.4909466666666666</v>
+      </c>
+      <c r="H204" t="n">
         <v>0.4901316666666666</v>
       </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
       <c r="K204" t="inlineStr"/>
       <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
+      <c r="M204" t="inlineStr"/>
+      <c r="N204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7711,18 +8677,21 @@
         <v>2500</v>
       </c>
       <c r="G205" t="n">
+        <v>0.4915733333333332</v>
+      </c>
+      <c r="H205" t="n">
         <v>0.489945</v>
       </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
       <c r="K205" t="inlineStr"/>
       <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
+      <c r="M205" t="inlineStr"/>
+      <c r="N205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7746,18 +8715,21 @@
         <v>13015.09</v>
       </c>
       <c r="G206" t="n">
+        <v>0.4921933333333331</v>
+      </c>
+      <c r="H206" t="n">
         <v>0.48972</v>
       </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
       <c r="K206" t="inlineStr"/>
       <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
+      <c r="M206" t="inlineStr"/>
+      <c r="N206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7781,18 +8753,21 @@
         <v>3000</v>
       </c>
       <c r="G207" t="n">
+        <v>0.4926533333333332</v>
+      </c>
+      <c r="H207" t="n">
         <v>0.4896033333333333</v>
       </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
       <c r="K207" t="inlineStr"/>
       <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
+      <c r="M207" t="inlineStr"/>
+      <c r="N207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7816,18 +8791,21 @@
         <v>629828.7979</v>
       </c>
       <c r="G208" t="n">
+        <v>0.4926866666666665</v>
+      </c>
+      <c r="H208" t="n">
         <v>0.4897166666666666</v>
       </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
       <c r="K208" t="inlineStr"/>
       <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
+      <c r="M208" t="inlineStr"/>
+      <c r="N208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7851,18 +8829,401 @@
         <v>5849</v>
       </c>
       <c r="G209" t="n">
+        <v>0.4927266666666665</v>
+      </c>
+      <c r="H209" t="n">
         <v>0.4898283333333333</v>
       </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
       <c r="K209" t="inlineStr"/>
       <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
+      <c r="M209" t="inlineStr"/>
+      <c r="N209" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>0.4931</v>
+      </c>
+      <c r="C210" t="n">
+        <v>0.4931</v>
+      </c>
+      <c r="D210" t="n">
+        <v>0.4931</v>
+      </c>
+      <c r="E210" t="n">
+        <v>0.4931</v>
+      </c>
+      <c r="F210" t="n">
+        <v>72027.8662</v>
+      </c>
+      <c r="G210" t="n">
+        <v>0.4931599999999998</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0.4899416666666666</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
+      <c r="M210" t="inlineStr"/>
+      <c r="N210" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>0.493</v>
+      </c>
+      <c r="C211" t="n">
+        <v>0.493</v>
+      </c>
+      <c r="D211" t="n">
+        <v>0.4931</v>
+      </c>
+      <c r="E211" t="n">
+        <v>0.493</v>
+      </c>
+      <c r="F211" t="n">
+        <v>105662</v>
+      </c>
+      <c r="G211" t="n">
+        <v>0.4931399999999999</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0.4898949999999999</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
+      <c r="M211" t="inlineStr"/>
+      <c r="N211" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>0.4932</v>
+      </c>
+      <c r="C212" t="n">
+        <v>0.4932</v>
+      </c>
+      <c r="D212" t="n">
+        <v>0.4932</v>
+      </c>
+      <c r="E212" t="n">
+        <v>0.4932</v>
+      </c>
+      <c r="F212" t="n">
+        <v>75000</v>
+      </c>
+      <c r="G212" t="n">
+        <v>0.4931466666666665</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0.4898549999999999</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
+      <c r="M212" t="inlineStr"/>
+      <c r="N212" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>0.4932</v>
+      </c>
+      <c r="C213" t="n">
+        <v>0.4932</v>
+      </c>
+      <c r="D213" t="n">
+        <v>0.4932</v>
+      </c>
+      <c r="E213" t="n">
+        <v>0.4932</v>
+      </c>
+      <c r="F213" t="n">
+        <v>75000</v>
+      </c>
+      <c r="G213" t="n">
+        <v>0.4931466666666665</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0.4898183333333332</v>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
+      <c r="M213" t="inlineStr"/>
+      <c r="N213" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>0.4932</v>
+      </c>
+      <c r="C214" t="n">
+        <v>0.4933</v>
+      </c>
+      <c r="D214" t="n">
+        <v>0.4933</v>
+      </c>
+      <c r="E214" t="n">
+        <v>0.4932</v>
+      </c>
+      <c r="F214" t="n">
+        <v>1035358.4413</v>
+      </c>
+      <c r="G214" t="n">
+        <v>0.4931533333333332</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0.4897833333333333</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
+      <c r="M214" t="inlineStr"/>
+      <c r="N214" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>0.4933</v>
+      </c>
+      <c r="C215" t="n">
+        <v>0.4933</v>
+      </c>
+      <c r="D215" t="n">
+        <v>0.4933</v>
+      </c>
+      <c r="E215" t="n">
+        <v>0.4933</v>
+      </c>
+      <c r="F215" t="n">
+        <v>350000</v>
+      </c>
+      <c r="G215" t="n">
+        <v>0.4931599999999998</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0.4897483333333333</v>
+      </c>
+      <c r="I215" t="n">
+        <v>0</v>
+      </c>
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
+      <c r="M215" t="inlineStr"/>
+      <c r="N215" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>0.4933</v>
+      </c>
+      <c r="C216" t="n">
+        <v>0.4933</v>
+      </c>
+      <c r="D216" t="n">
+        <v>0.4933</v>
+      </c>
+      <c r="E216" t="n">
+        <v>0.4933</v>
+      </c>
+      <c r="F216" t="n">
+        <v>27500</v>
+      </c>
+      <c r="G216" t="n">
+        <v>0.4931733333333331</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0.4898033333333334</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0</v>
+      </c>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
+      <c r="M216" t="inlineStr"/>
+      <c r="N216" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>0.4933</v>
+      </c>
+      <c r="C217" t="n">
+        <v>0.4933</v>
+      </c>
+      <c r="D217" t="n">
+        <v>0.4933</v>
+      </c>
+      <c r="E217" t="n">
+        <v>0.4933</v>
+      </c>
+      <c r="F217" t="n">
+        <v>175000</v>
+      </c>
+      <c r="G217" t="n">
+        <v>0.4931799999999998</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0.4897733333333333</v>
+      </c>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
+      <c r="M217" t="inlineStr"/>
+      <c r="N217" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>0.4933</v>
+      </c>
+      <c r="C218" t="n">
+        <v>0.4933</v>
+      </c>
+      <c r="D218" t="n">
+        <v>0.4933</v>
+      </c>
+      <c r="E218" t="n">
+        <v>0.4933</v>
+      </c>
+      <c r="F218" t="n">
+        <v>344132.3812</v>
+      </c>
+      <c r="G218" t="n">
+        <v>0.4931866666666664</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0.4898300000000001</v>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
+      <c r="M218" t="inlineStr"/>
+      <c r="N218" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>0.4933</v>
+      </c>
+      <c r="C219" t="n">
+        <v>0.4933</v>
+      </c>
+      <c r="D219" t="n">
+        <v>0.4933</v>
+      </c>
+      <c r="E219" t="n">
+        <v>0.4933</v>
+      </c>
+      <c r="F219" t="n">
+        <v>184726.9986</v>
+      </c>
+      <c r="G219" t="n">
+        <v>0.4931933333333331</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0.4899016666666667</v>
+      </c>
+      <c r="I219" t="n">
+        <v>0</v>
+      </c>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
+      <c r="M219" t="inlineStr"/>
+      <c r="N219" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-16 BackTest OCN.xlsx
+++ b/BackTest/2020-01-16 BackTest OCN.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N277"/>
+  <dimension ref="A1:M277"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1068,18 +1012,19 @@
         <v>-26482951.30244614</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
+        <v>0.4514</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.4514</v>
+      </c>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1104,18 +1049,23 @@
         <v>-26487807.30244614</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+        <v>0.4513</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.4514</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1140,24 +1090,23 @@
         <v>-27037807.30244614</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>0.4507</v>
       </c>
       <c r="J21" t="n">
-        <v>0.4507</v>
-      </c>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
+        <v>0.4514</v>
+      </c>
+      <c r="K21" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1182,24 +1131,23 @@
         <v>-26787807.30244614</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>0.4506</v>
       </c>
       <c r="J22" t="n">
-        <v>0.4506</v>
-      </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+        <v>0.4514</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1224,24 +1172,23 @@
         <v>-26862807.30244614</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>0.4511</v>
       </c>
       <c r="J23" t="n">
-        <v>0.4511</v>
-      </c>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+        <v>0.4514</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1266,24 +1213,23 @@
         <v>-15889885.99074614</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>0.4509</v>
       </c>
       <c r="J24" t="n">
-        <v>0.4509</v>
-      </c>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+        <v>0.4514</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1308,24 +1254,23 @@
         <v>-16289885.99074614</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>0.4528</v>
       </c>
       <c r="J25" t="n">
-        <v>0.4528</v>
-      </c>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+        <v>0.4514</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1350,24 +1295,23 @@
         <v>-14279330.67284614</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>0.4497</v>
       </c>
       <c r="J26" t="n">
-        <v>0.4497</v>
-      </c>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+        <v>0.4514</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1392,24 +1336,21 @@
         <v>-15195651.79624614</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
-        <v>0.4563</v>
-      </c>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+        <v>0.4514</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1434,24 +1375,23 @@
         <v>-14279295.49204614</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>0.4431</v>
       </c>
       <c r="J28" t="n">
-        <v>0.4431</v>
-      </c>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+        <v>0.4514</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1476,24 +1416,23 @@
         <v>-14187954.49204614</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>0.4463</v>
       </c>
       <c r="J29" t="n">
-        <v>0.4463</v>
-      </c>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+        <v>0.4514</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1518,24 +1457,23 @@
         <v>-14096641.49204614</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>0.4499</v>
       </c>
       <c r="J30" t="n">
-        <v>0.4499</v>
-      </c>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+        <v>0.4514</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1560,24 +1498,23 @@
         <v>-14013428.49204614</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>0.4526</v>
       </c>
       <c r="J31" t="n">
-        <v>0.4526</v>
-      </c>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+        <v>0.4514</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1602,24 +1539,23 @@
         <v>-14096568.49204614</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>0.4527</v>
       </c>
       <c r="J32" t="n">
-        <v>0.4527</v>
-      </c>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+        <v>0.4514</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1644,24 +1580,23 @@
         <v>-14096568.49204614</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>0.4499</v>
       </c>
       <c r="J33" t="n">
-        <v>0.4499</v>
-      </c>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+        <v>0.4514</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1686,24 +1621,23 @@
         <v>-14041684.49204614</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>0.4499</v>
       </c>
       <c r="J34" t="n">
-        <v>0.4499</v>
-      </c>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+        <v>0.4514</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1728,24 +1662,21 @@
         <v>-12277238.41154614</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
-        <v>0.454</v>
-      </c>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+        <v>0.4514</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1770,24 +1701,21 @@
         <v>-12277238.41154614</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
-        <v>0.456</v>
-      </c>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+        <v>0.4514</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1812,24 +1740,21 @@
         <v>-11127238.41154614</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
-        <v>0.456</v>
-      </c>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+        <v>0.4514</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1854,24 +1779,21 @@
         <v>-10857238.41154614</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
-        <v>0.4566</v>
-      </c>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+        <v>0.4514</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1896,24 +1818,21 @@
         <v>-11012095.34404614</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+        <v>0.4514</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1938,24 +1857,21 @@
         <v>-11012095.34404614</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
-        <v>0.464</v>
-      </c>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+        <v>0.4514</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1980,24 +1896,21 @@
         <v>-11087095.34404614</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
-        <v>0.464</v>
-      </c>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+        <v>0.4514</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2022,24 +1935,21 @@
         <v>-11003095.34404614</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="n">
-        <v>0.4599</v>
-      </c>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+        <v>0.4514</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2064,24 +1974,23 @@
         <v>-16333446.60044614</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>0.4699</v>
       </c>
       <c r="J43" t="n">
-        <v>0.4699</v>
-      </c>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+        <v>0.4514</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2106,24 +2015,23 @@
         <v>-16323447.60044614</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4604</v>
       </c>
       <c r="J44" t="n">
-        <v>0.4604</v>
-      </c>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+        <v>0.4514</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2148,24 +2056,23 @@
         <v>-16406732.60044614</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>0.4699</v>
       </c>
       <c r="J45" t="n">
-        <v>0.4699</v>
-      </c>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+        <v>0.4514</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2190,24 +2097,23 @@
         <v>-16406732.60044614</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>0.4621</v>
       </c>
       <c r="J46" t="n">
-        <v>0.4621</v>
-      </c>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+        <v>0.4514</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2232,24 +2138,23 @@
         <v>-8252203.19814614</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>0.4621</v>
       </c>
       <c r="J47" t="n">
-        <v>0.4621</v>
-      </c>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+        <v>0.4514</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2274,24 +2179,23 @@
         <v>-7528203.19814614</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>0.4622</v>
       </c>
       <c r="J48" t="n">
-        <v>0.4622</v>
-      </c>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+        <v>0.4514</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2316,24 +2220,23 @@
         <v>-7532995.78814614</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>0.4698</v>
       </c>
       <c r="J49" t="n">
-        <v>0.4698</v>
-      </c>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+        <v>0.4514</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2358,24 +2261,23 @@
         <v>-7407692.02814614</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>0.4621</v>
       </c>
       <c r="J50" t="n">
-        <v>0.4621</v>
-      </c>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+        <v>0.4514</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2400,22 +2302,23 @@
         <v>-7819882.38714614</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+        <v>0.4696</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.4514</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2440,24 +2343,23 @@
         <v>-6788472.22444614</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>0.4474</v>
       </c>
       <c r="J52" t="n">
-        <v>0.4474</v>
-      </c>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+        <v>0.4514</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2482,24 +2384,23 @@
         <v>-6788472.22444614</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>0.4599</v>
       </c>
       <c r="J53" t="n">
-        <v>0.4599</v>
-      </c>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+        <v>0.4514</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2524,24 +2425,23 @@
         <v>-7048547.65364614</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>0.4599</v>
       </c>
       <c r="J54" t="n">
-        <v>0.4599</v>
-      </c>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+        <v>0.4514</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2566,24 +2466,23 @@
         <v>-7046628.65364614</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>0.4501</v>
       </c>
       <c r="J55" t="n">
-        <v>0.4501</v>
-      </c>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+        <v>0.4514</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2608,24 +2507,23 @@
         <v>-7046628.65364614</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>0.4598</v>
       </c>
       <c r="J56" t="n">
-        <v>0.4598</v>
-      </c>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+        <v>0.4514</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2650,24 +2548,21 @@
         <v>-7164701.23064614</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
-        <v>0.4598</v>
-      </c>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+        <v>0.4514</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2692,24 +2587,21 @@
         <v>-7064701.23064614</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
-        <v>0.4567</v>
-      </c>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+        <v>0.4514</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2734,24 +2626,21 @@
         <v>-6960978.23064614</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="n">
-        <v>0.4598</v>
-      </c>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+        <v>0.4514</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2776,24 +2665,21 @@
         <v>-6879918.23064614</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="n">
-        <v>0.4599</v>
-      </c>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+        <v>0.4514</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2818,24 +2704,21 @@
         <v>-7237468.23064614</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="n">
-        <v>0.4699</v>
-      </c>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+        <v>0.4514</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2860,24 +2743,21 @@
         <v>-7305158.23064614</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="n">
-        <v>0.4698</v>
-      </c>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+        <v>0.4514</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2902,24 +2782,21 @@
         <v>-9985119.35304614</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="n">
-        <v>0.4696</v>
-      </c>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+        <v>0.4514</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2944,24 +2821,21 @@
         <v>-9033373.50754614</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="n">
-        <v>0.4493</v>
-      </c>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+        <v>0.4514</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2986,24 +2860,21 @@
         <v>-10963105.72644614</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="n">
-        <v>0.4641</v>
-      </c>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+        <v>0.4514</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3028,24 +2899,21 @@
         <v>-10648539.61784614</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
-        <v>0.455</v>
-      </c>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+        <v>0.4514</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3070,24 +2938,23 @@
         <v>-10648539.61784614</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>0.4571</v>
       </c>
       <c r="J67" t="n">
-        <v>0.4571</v>
-      </c>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+        <v>0.4514</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3112,24 +2979,23 @@
         <v>-11170489.61784614</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>0.4571</v>
       </c>
       <c r="J68" t="n">
-        <v>0.4571</v>
-      </c>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+        <v>0.4514</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3154,24 +3020,23 @@
         <v>-11234879.61784614</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>0.4565</v>
       </c>
       <c r="J69" t="n">
-        <v>0.4565</v>
-      </c>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+        <v>0.4514</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3196,24 +3061,23 @@
         <v>-10262943.32684614</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>0.4546</v>
       </c>
       <c r="J70" t="n">
-        <v>0.4546</v>
-      </c>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+        <v>0.4514</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3238,24 +3102,23 @@
         <v>-9961865.617846141</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>0.4564</v>
       </c>
       <c r="J71" t="n">
-        <v>0.4564</v>
-      </c>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+        <v>0.4514</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3280,24 +3143,23 @@
         <v>-10033455.61784614</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>0.4651</v>
       </c>
       <c r="J72" t="n">
-        <v>0.4651</v>
-      </c>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+        <v>0.4514</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3322,24 +3184,23 @@
         <v>-9654315.617846141</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>0.4544</v>
       </c>
       <c r="J73" t="n">
-        <v>0.4544</v>
-      </c>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+        <v>0.4514</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3364,24 +3225,23 @@
         <v>-9654315.617846141</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>0.455</v>
       </c>
       <c r="J74" t="n">
-        <v>0.455</v>
-      </c>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+        <v>0.4514</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3406,24 +3266,23 @@
         <v>-9654315.617846141</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>0.455</v>
       </c>
       <c r="J75" t="n">
-        <v>0.455</v>
-      </c>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+        <v>0.4514</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3448,24 +3307,23 @@
         <v>-9623958.617846141</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>0.455</v>
       </c>
       <c r="J76" t="n">
-        <v>0.455</v>
-      </c>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+        <v>0.4514</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3490,24 +3348,23 @@
         <v>-9881518.617846141</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>0.4648</v>
       </c>
       <c r="J77" t="n">
-        <v>0.4648</v>
-      </c>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+        <v>0.4514</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3532,24 +3389,23 @@
         <v>-12973015.81284614</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>0.4565</v>
       </c>
       <c r="J78" t="n">
-        <v>0.4565</v>
-      </c>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+        <v>0.4514</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3574,24 +3430,23 @@
         <v>-12973015.81284614</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>0.4548</v>
       </c>
       <c r="J79" t="n">
-        <v>0.4548</v>
-      </c>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+        <v>0.4514</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3616,24 +3471,23 @@
         <v>-11429089.71624614</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>0.4548</v>
       </c>
       <c r="J80" t="n">
-        <v>0.4548</v>
-      </c>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+        <v>0.4514</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3658,24 +3512,23 @@
         <v>-11748419.71624614</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>0.4648</v>
       </c>
       <c r="J81" t="n">
-        <v>0.4648</v>
-      </c>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+        <v>0.4514</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3700,24 +3553,23 @@
         <v>-13096074.86594614</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>0.4635</v>
       </c>
       <c r="J82" t="n">
-        <v>0.4635</v>
-      </c>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+        <v>0.4514</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3742,24 +3594,23 @@
         <v>-12672858.86594614</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>0.4545</v>
       </c>
       <c r="J83" t="n">
-        <v>0.4545</v>
-      </c>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+        <v>0.4514</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3784,24 +3635,23 @@
         <v>-13345899.69624614</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>0.4558</v>
       </c>
       <c r="J84" t="n">
-        <v>0.4558</v>
-      </c>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+        <v>0.4514</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3826,24 +3676,21 @@
         <v>-13191011.69624614</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
-        <v>0.4555</v>
-      </c>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+        <v>0.4514</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3868,24 +3715,23 @@
         <v>-13062231.69624614</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>0.4576</v>
       </c>
       <c r="J86" t="n">
-        <v>0.4576</v>
-      </c>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+        <v>0.4514</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3910,24 +3756,23 @@
         <v>-13062231.69624614</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>0.4577</v>
       </c>
       <c r="J87" t="n">
-        <v>0.4577</v>
-      </c>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+        <v>0.4514</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3952,24 +3797,23 @@
         <v>-13062231.69624614</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>0.4577</v>
       </c>
       <c r="J88" t="n">
-        <v>0.4577</v>
-      </c>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+        <v>0.4514</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3994,24 +3838,23 @@
         <v>-12682794.14494614</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>0.4577</v>
       </c>
       <c r="J89" t="n">
-        <v>0.4577</v>
-      </c>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+        <v>0.4514</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4036,24 +3879,23 @@
         <v>-9402735.424746139</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>0.4578</v>
       </c>
       <c r="J90" t="n">
-        <v>0.4578</v>
-      </c>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+        <v>0.4514</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4078,24 +3920,23 @@
         <v>-12571786.17614614</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>0.4679</v>
       </c>
       <c r="J91" t="n">
-        <v>0.4679</v>
-      </c>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+        <v>0.4514</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4120,22 +3961,23 @@
         <v>-13098891.17614614</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+        <v>0.4676</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.4514</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4162,20 +4004,19 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0.4514</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4200,22 +4041,23 @@
         <v>-12986993.17614614</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+        <v>0.4676</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.4514</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4240,22 +4082,23 @@
         <v>-12993368.93364614</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+        <v>0.4676</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.4514</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4280,22 +4123,23 @@
         <v>-12193290.49264614</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+        <v>0.4673</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.4514</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4320,22 +4164,23 @@
         <v>-12361386.49264614</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+        <v>0.4675</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.4514</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4360,22 +4205,23 @@
         <v>-12016835.52464614</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+        <v>0.4673</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.4514</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4400,22 +4246,23 @@
         <v>-13558495.04784614</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+        <v>0.4674</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.4514</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4440,22 +4287,23 @@
         <v>-12589441.10184614</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+        <v>0.4578</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.4514</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4480,22 +4328,23 @@
         <v>-12589441.10184614</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+        <v>0.4579</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.4514</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4520,22 +4369,23 @@
         <v>-12754372.23984614</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+        <v>0.4579</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0.4514</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4560,22 +4410,23 @@
         <v>-16037954.42014614</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+        <v>0.4578</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0.4514</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4600,22 +4451,23 @@
         <v>-16137954.42014614</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+        <v>0.4577</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0.4514</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4640,24 +4492,23 @@
         <v>-16469687.51854614</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>0.4576</v>
       </c>
       <c r="J105" t="n">
-        <v>0.4576</v>
-      </c>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+        <v>0.4514</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4682,24 +4533,23 @@
         <v>-15575069.76134614</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>0.4502</v>
       </c>
       <c r="J106" t="n">
-        <v>0.4502</v>
-      </c>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+        <v>0.4514</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4724,24 +4574,23 @@
         <v>-15840968.58884614</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>0.4577</v>
       </c>
       <c r="J107" t="n">
-        <v>0.4577</v>
-      </c>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+        <v>0.4514</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4766,24 +4615,23 @@
         <v>-15713304.58884614</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>0.4576</v>
       </c>
       <c r="J108" t="n">
-        <v>0.4576</v>
-      </c>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+        <v>0.4514</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4808,22 +4656,23 @@
         <v>-13679466.80774614</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+        <v>0.4692</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0.4514</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4848,22 +4697,23 @@
         <v>-9235203.750446137</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+        <v>0.4731</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0.4514</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4890,20 +4740,19 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0.4514</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4930,20 +4779,19 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0.4514</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4970,20 +4818,19 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0.4514</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -5008,22 +4855,21 @@
         <v>-9939645.646246137</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0.4514</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -5048,22 +4894,21 @@
         <v>-9939645.646246137</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0.4514</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5088,22 +4933,21 @@
         <v>-7803863.646246137</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0.4514</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5128,22 +4972,21 @@
         <v>-6475587.736946138</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0.4514</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5168,22 +5011,21 @@
         <v>-6475587.736946138</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0.4514</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5208,22 +5050,21 @@
         <v>-6481686.658846138</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0.4514</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5248,22 +5089,21 @@
         <v>-6506686.658846138</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0.4514</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5290,20 +5130,19 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0.4514</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5330,20 +5169,19 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0.4514</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5370,20 +5208,19 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0.4514</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5410,20 +5247,19 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0.4514</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5450,20 +5286,19 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0.4514</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5490,20 +5325,19 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0.4514</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5530,20 +5364,19 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0.4514</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5570,20 +5403,19 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0.4514</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5610,20 +5442,19 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0.4514</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5650,20 +5481,19 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0.4514</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5690,20 +5520,19 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0.4514</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5730,20 +5559,19 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0.4514</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5768,22 +5596,23 @@
         <v>-7439110.948246138</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+        <v>0.48</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0.4514</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5808,22 +5637,23 @@
         <v>-7439110.948246138</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+        <v>0.4799</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0.4514</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5850,20 +5680,19 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0.4514</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5890,20 +5719,19 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0.4514</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5928,22 +5756,23 @@
         <v>-7438474.143946138</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+        <v>0.4799</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0.4514</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5970,20 +5799,19 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0.4514</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -6010,20 +5838,19 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0.4514</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -6050,20 +5877,19 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0.4514</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -6090,20 +5916,19 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0.4514</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -6130,20 +5955,19 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0.4514</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6170,20 +5994,19 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0.4514</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6210,20 +6033,19 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0.4514</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6250,20 +6072,19 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0.4514</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6290,20 +6111,19 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0.4514</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6330,20 +6150,19 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0.4514</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6370,20 +6189,19 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0.4514</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6410,20 +6228,19 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0.4514</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6450,20 +6267,19 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0.4514</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6490,20 +6306,19 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0.4514</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6530,20 +6345,19 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0.4514</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6570,20 +6384,19 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0.4514</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6610,20 +6423,19 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0.4514</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6650,20 +6462,19 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0.4514</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6690,20 +6501,19 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0.4514</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6730,20 +6540,19 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0.4514</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6770,20 +6579,19 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0.4514</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6810,20 +6618,19 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0.4514</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6850,20 +6657,19 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0.4514</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6890,20 +6696,19 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0.4514</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6930,20 +6735,19 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0.4514</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6970,20 +6774,19 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0.4514</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -7010,20 +6813,19 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0.4514</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -7050,20 +6852,19 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0.4514</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -7090,20 +6891,19 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0.4514</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -7130,20 +6930,19 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0.4514</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -7170,20 +6969,19 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0.4514</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -7208,22 +7006,23 @@
         <v>6034644.972853862</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0.4514</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L169" t="n">
+        <v>1.121716880815242</v>
       </c>
       <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+        <v>1.057901907356948</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7250,20 +7049,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7290,20 +7082,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7328,22 +7113,15 @@
         <v>6082353.627853862</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7368,20 +7146,15 @@
         <v>6082353.627853862</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="L173" t="n">
+        <v>1</v>
       </c>
       <c r="M173" t="inlineStr"/>
-      <c r="N173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7408,16 +7181,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7442,18 +7212,15 @@
         <v>6156515.456776123</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7478,18 +7245,15 @@
         <v>6156515.456776123</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7514,18 +7278,15 @@
         <v>6156515.456776123</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7550,18 +7311,15 @@
         <v>5924843.961876122</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7586,18 +7344,15 @@
         <v>5924843.961876122</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7622,18 +7377,15 @@
         <v>5011682.881776122</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7658,18 +7410,15 @@
         <v>4961682.881776122</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7694,18 +7443,15 @@
         <v>5263011.650776123</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7732,16 +7478,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7768,16 +7511,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7804,16 +7544,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7840,16 +7577,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>1</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7876,16 +7610,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>1</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7912,16 +7643,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7948,16 +7676,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7984,16 +7709,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -8020,16 +7742,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -8056,16 +7775,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -8092,16 +7808,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -8128,16 +7841,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -8164,16 +7874,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -8200,16 +7907,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -8236,16 +7940,13 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -8272,16 +7973,13 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -8308,16 +8006,13 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -8344,16 +8039,13 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>1</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8380,16 +8072,13 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8416,16 +8105,13 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8452,16 +8138,13 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8488,16 +8171,13 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8524,16 +8204,13 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8560,16 +8237,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8596,16 +8270,13 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8632,16 +8303,13 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8668,16 +8336,13 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8704,16 +8369,13 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8740,16 +8402,13 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8776,16 +8435,13 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8812,16 +8468,13 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8848,16 +8501,13 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8884,16 +8534,13 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8920,16 +8567,13 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8956,16 +8600,13 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8992,16 +8633,13 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -9028,16 +8666,13 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -9064,16 +8699,13 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -9100,16 +8732,13 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -9136,16 +8765,13 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -9172,16 +8798,13 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -9208,16 +8831,13 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -9244,16 +8864,13 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -9280,16 +8897,13 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -9316,16 +8930,13 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -9352,16 +8963,13 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -9388,16 +8996,13 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -9424,16 +9029,13 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -9460,16 +9062,13 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9496,16 +9095,13 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9532,16 +9128,13 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9568,16 +9161,13 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9604,16 +9194,13 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9640,16 +9227,13 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9676,16 +9260,13 @@
       <c r="H237" t="n">
         <v>0</v>
       </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9712,16 +9293,13 @@
       <c r="H238" t="n">
         <v>0</v>
       </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9748,16 +9326,13 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9784,16 +9359,13 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9820,16 +9392,13 @@
       <c r="H241" t="n">
         <v>0</v>
       </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9856,16 +9425,13 @@
       <c r="H242" t="n">
         <v>0</v>
       </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9892,16 +9458,13 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9928,16 +9491,13 @@
       <c r="H244" t="n">
         <v>0</v>
       </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9964,16 +9524,13 @@
       <c r="H245" t="n">
         <v>0</v>
       </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -10000,16 +9557,13 @@
       <c r="H246" t="n">
         <v>0</v>
       </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -10036,16 +9590,13 @@
       <c r="H247" t="n">
         <v>0</v>
       </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -10072,16 +9623,13 @@
       <c r="H248" t="n">
         <v>0</v>
       </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -10108,16 +9656,13 @@
       <c r="H249" t="n">
         <v>0</v>
       </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -10144,16 +9689,13 @@
       <c r="H250" t="n">
         <v>0</v>
       </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -10180,16 +9722,13 @@
       <c r="H251" t="n">
         <v>0</v>
       </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -10216,16 +9755,13 @@
       <c r="H252" t="n">
         <v>0</v>
       </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -10252,16 +9788,13 @@
       <c r="H253" t="n">
         <v>0</v>
       </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -10288,16 +9821,13 @@
       <c r="H254" t="n">
         <v>0</v>
       </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -10324,16 +9854,13 @@
       <c r="H255" t="n">
         <v>0</v>
       </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -10360,16 +9887,13 @@
       <c r="H256" t="n">
         <v>0</v>
       </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -10396,16 +9920,13 @@
       <c r="H257" t="n">
         <v>0</v>
       </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -10432,16 +9953,13 @@
       <c r="H258" t="n">
         <v>0</v>
       </c>
-      <c r="I258" t="n">
-        <v>0</v>
-      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -10468,16 +9986,13 @@
       <c r="H259" t="n">
         <v>0</v>
       </c>
-      <c r="I259" t="n">
-        <v>0</v>
-      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -10504,16 +10019,13 @@
       <c r="H260" t="n">
         <v>0</v>
       </c>
-      <c r="I260" t="n">
-        <v>0</v>
-      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -10540,16 +10052,13 @@
       <c r="H261" t="n">
         <v>0</v>
       </c>
-      <c r="I261" t="n">
-        <v>0</v>
-      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -10576,16 +10085,13 @@
       <c r="H262" t="n">
         <v>0</v>
       </c>
-      <c r="I262" t="n">
-        <v>0</v>
-      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -10612,16 +10118,13 @@
       <c r="H263" t="n">
         <v>0</v>
       </c>
-      <c r="I263" t="n">
-        <v>0</v>
-      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -10648,16 +10151,13 @@
       <c r="H264" t="n">
         <v>0</v>
       </c>
-      <c r="I264" t="n">
-        <v>0</v>
-      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -10684,16 +10184,13 @@
       <c r="H265" t="n">
         <v>0</v>
       </c>
-      <c r="I265" t="n">
-        <v>0</v>
-      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -10720,16 +10217,13 @@
       <c r="H266" t="n">
         <v>0</v>
       </c>
-      <c r="I266" t="n">
-        <v>0</v>
-      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -10756,16 +10250,13 @@
       <c r="H267" t="n">
         <v>0</v>
       </c>
-      <c r="I267" t="n">
-        <v>0</v>
-      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-      <c r="N267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -10792,16 +10283,13 @@
       <c r="H268" t="n">
         <v>0</v>
       </c>
-      <c r="I268" t="n">
-        <v>0</v>
-      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
-      <c r="M268" t="n">
-        <v>1</v>
-      </c>
-      <c r="N268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -10828,16 +10316,13 @@
       <c r="H269" t="n">
         <v>0</v>
       </c>
-      <c r="I269" t="n">
-        <v>0</v>
-      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
-      <c r="M269" t="n">
-        <v>1</v>
-      </c>
-      <c r="N269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -10864,16 +10349,13 @@
       <c r="H270" t="n">
         <v>0</v>
       </c>
-      <c r="I270" t="n">
-        <v>0</v>
-      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
-      <c r="M270" t="n">
-        <v>1</v>
-      </c>
-      <c r="N270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -10900,16 +10382,13 @@
       <c r="H271" t="n">
         <v>0</v>
       </c>
-      <c r="I271" t="n">
-        <v>0</v>
-      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
-      <c r="M271" t="n">
-        <v>1</v>
-      </c>
-      <c r="N271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -10936,16 +10415,13 @@
       <c r="H272" t="n">
         <v>0</v>
       </c>
-      <c r="I272" t="n">
-        <v>0</v>
-      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
-      <c r="M272" t="n">
-        <v>1</v>
-      </c>
-      <c r="N272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -10972,16 +10448,13 @@
       <c r="H273" t="n">
         <v>0</v>
       </c>
-      <c r="I273" t="n">
-        <v>0</v>
-      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
-      <c r="M273" t="n">
-        <v>1</v>
-      </c>
-      <c r="N273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -11008,16 +10481,13 @@
       <c r="H274" t="n">
         <v>0</v>
       </c>
-      <c r="I274" t="n">
-        <v>0</v>
-      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
-      <c r="M274" t="n">
-        <v>1</v>
-      </c>
-      <c r="N274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -11044,16 +10514,13 @@
       <c r="H275" t="n">
         <v>0</v>
       </c>
-      <c r="I275" t="n">
-        <v>0</v>
-      </c>
+      <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
-      <c r="M275" t="n">
-        <v>1</v>
-      </c>
-      <c r="N275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -11080,16 +10547,13 @@
       <c r="H276" t="n">
         <v>0</v>
       </c>
-      <c r="I276" t="n">
-        <v>0</v>
-      </c>
+      <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
-      <c r="M276" t="n">
-        <v>1</v>
-      </c>
-      <c r="N276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -11116,18 +10580,15 @@
       <c r="H277" t="n">
         <v>0</v>
       </c>
-      <c r="I277" t="n">
-        <v>0</v>
-      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
-      <c r="M277" t="n">
-        <v>1</v>
-      </c>
-      <c r="N277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest OCN.xlsx
+++ b/BackTest/2020-01-16 BackTest OCN.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -682,10 +682,14 @@
         <v>-25676157.75394614</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.4528</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.4528</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
@@ -715,11 +719,19 @@
         <v>-25674958.75394614</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.4404</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.4528</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -751,8 +763,14 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0.4528</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -880,11 +898,17 @@
         <v>-25810602.31394614</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.4506</v>
+      </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -913,11 +937,17 @@
         <v>-26360602.31394614</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.4575</v>
+      </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -946,11 +976,17 @@
         <v>-26728562.30244614</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.4567</v>
+      </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -979,11 +1015,17 @@
         <v>-26476356.30244614</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.45</v>
+      </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1012,15 +1054,17 @@
         <v>-26482951.30244614</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>0.4514</v>
       </c>
-      <c r="J19" t="n">
-        <v>0.4514</v>
-      </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1049,17 +1093,15 @@
         <v>-26487807.30244614</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>0.4513</v>
       </c>
-      <c r="J20" t="n">
-        <v>0.4514</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L20" t="n">
@@ -1090,17 +1132,15 @@
         <v>-27037807.30244614</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0.4507</v>
       </c>
-      <c r="J21" t="n">
-        <v>0.4514</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L21" t="n">
@@ -1131,14 +1171,12 @@
         <v>-26787807.30244614</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0.4506</v>
       </c>
-      <c r="J22" t="n">
-        <v>0.4514</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1172,14 +1210,12 @@
         <v>-26862807.30244614</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>0.4511</v>
       </c>
-      <c r="J23" t="n">
-        <v>0.4514</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1213,14 +1249,12 @@
         <v>-15889885.99074614</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>0.4509</v>
       </c>
-      <c r="J24" t="n">
-        <v>0.4514</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1254,14 +1288,12 @@
         <v>-16289885.99074614</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>0.4528</v>
       </c>
-      <c r="J25" t="n">
-        <v>0.4514</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1295,14 +1327,12 @@
         <v>-14279330.67284614</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>0.4497</v>
       </c>
-      <c r="J26" t="n">
-        <v>0.4514</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1336,12 +1366,12 @@
         <v>-15195651.79624614</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>0.4514</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.4563</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1375,14 +1405,12 @@
         <v>-14279295.49204614</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>0.4431</v>
       </c>
-      <c r="J28" t="n">
-        <v>0.4514</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1416,14 +1444,12 @@
         <v>-14187954.49204614</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>0.4463</v>
       </c>
-      <c r="J29" t="n">
-        <v>0.4514</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1457,14 +1483,12 @@
         <v>-14096641.49204614</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>0.4499</v>
       </c>
-      <c r="J30" t="n">
-        <v>0.4514</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1498,14 +1522,12 @@
         <v>-14013428.49204614</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>0.4526</v>
       </c>
-      <c r="J31" t="n">
-        <v>0.4514</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1539,14 +1561,12 @@
         <v>-14096568.49204614</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>0.4527</v>
       </c>
-      <c r="J32" t="n">
-        <v>0.4514</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1580,14 +1600,12 @@
         <v>-14096568.49204614</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>0.4499</v>
       </c>
-      <c r="J33" t="n">
-        <v>0.4514</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1621,14 +1639,12 @@
         <v>-14041684.49204614</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>0.4499</v>
       </c>
-      <c r="J34" t="n">
-        <v>0.4514</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1662,12 +1678,12 @@
         <v>-12277238.41154614</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>0.4514</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.454</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1701,12 +1717,12 @@
         <v>-12277238.41154614</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>0.4514</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.456</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1740,12 +1756,12 @@
         <v>-11127238.41154614</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>0.4514</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.456</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1779,12 +1795,12 @@
         <v>-10857238.41154614</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>0.4514</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.4566</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1821,9 +1837,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>0.4514</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1860,9 +1874,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>0.4514</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1899,9 +1911,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>0.4514</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1938,9 +1948,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>0.4514</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1974,14 +1982,10 @@
         <v>-16333446.60044614</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0.4699</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.4514</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2015,14 +2019,12 @@
         <v>-16323447.60044614</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>0.4604</v>
       </c>
-      <c r="J44" t="n">
-        <v>0.4514</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2056,14 +2058,10 @@
         <v>-16406732.60044614</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0.4699</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.4514</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2097,14 +2095,10 @@
         <v>-16406732.60044614</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0.4621</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.4514</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2138,14 +2132,10 @@
         <v>-8252203.19814614</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0.4621</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.4514</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2179,14 +2169,10 @@
         <v>-7528203.19814614</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0.4622</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.4514</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2220,14 +2206,10 @@
         <v>-7532995.78814614</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0.4698</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.4514</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2261,14 +2243,10 @@
         <v>-7407692.02814614</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0.4621</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.4514</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2302,14 +2280,10 @@
         <v>-7819882.38714614</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0.4696</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.4514</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2343,14 +2317,10 @@
         <v>-6788472.22444614</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0.4474</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.4514</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2384,14 +2354,12 @@
         <v>-6788472.22444614</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>0.4599</v>
       </c>
-      <c r="J53" t="n">
-        <v>0.4514</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2425,14 +2393,12 @@
         <v>-7048547.65364614</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>0.4599</v>
       </c>
-      <c r="J54" t="n">
-        <v>0.4514</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2466,14 +2432,12 @@
         <v>-7046628.65364614</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>0.4501</v>
       </c>
-      <c r="J55" t="n">
-        <v>0.4514</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2507,14 +2471,12 @@
         <v>-7046628.65364614</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>0.4598</v>
       </c>
-      <c r="J56" t="n">
-        <v>0.4514</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2548,12 +2510,12 @@
         <v>-7164701.23064614</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>0.4514</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.4598</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2590,9 +2552,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>0.4514</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2629,9 +2589,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>0.4514</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2668,9 +2626,7 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>0.4514</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2707,9 +2663,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>0.4514</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2746,9 +2700,7 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>0.4514</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2785,9 +2737,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>0.4514</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2824,9 +2774,7 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>0.4514</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2863,9 +2811,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>0.4514</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2902,9 +2848,7 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>0.4514</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2938,14 +2882,10 @@
         <v>-10648539.61784614</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0.4571</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0.4514</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2979,14 +2919,12 @@
         <v>-11170489.61784614</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>0.4571</v>
       </c>
-      <c r="J68" t="n">
-        <v>0.4514</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3020,14 +2958,12 @@
         <v>-11234879.61784614</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>0.4565</v>
       </c>
-      <c r="J69" t="n">
-        <v>0.4514</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3061,14 +2997,12 @@
         <v>-10262943.32684614</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>0.4546</v>
       </c>
-      <c r="J70" t="n">
-        <v>0.4514</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3102,14 +3036,12 @@
         <v>-9961865.617846141</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>0.4564</v>
       </c>
-      <c r="J71" t="n">
-        <v>0.4514</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3143,14 +3075,12 @@
         <v>-10033455.61784614</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>0.4651</v>
       </c>
-      <c r="J72" t="n">
-        <v>0.4514</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3184,14 +3114,12 @@
         <v>-9654315.617846141</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>0.4544</v>
       </c>
-      <c r="J73" t="n">
-        <v>0.4514</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3225,14 +3153,12 @@
         <v>-9654315.617846141</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>0.455</v>
       </c>
-      <c r="J74" t="n">
-        <v>0.4514</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3266,14 +3192,12 @@
         <v>-9654315.617846141</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>0.455</v>
       </c>
-      <c r="J75" t="n">
-        <v>0.4514</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3307,14 +3231,12 @@
         <v>-9623958.617846141</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>0.455</v>
       </c>
-      <c r="J76" t="n">
-        <v>0.4514</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3348,14 +3270,12 @@
         <v>-9881518.617846141</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>0.4648</v>
       </c>
-      <c r="J77" t="n">
-        <v>0.4514</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3389,14 +3309,12 @@
         <v>-12973015.81284614</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>0.4565</v>
       </c>
-      <c r="J78" t="n">
-        <v>0.4514</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3430,14 +3348,12 @@
         <v>-12973015.81284614</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>0.4548</v>
       </c>
-      <c r="J79" t="n">
-        <v>0.4514</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3471,14 +3387,12 @@
         <v>-11429089.71624614</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>0.4548</v>
       </c>
-      <c r="J80" t="n">
-        <v>0.4514</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3512,14 +3426,12 @@
         <v>-11748419.71624614</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>0.4648</v>
       </c>
-      <c r="J81" t="n">
-        <v>0.4514</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3553,14 +3465,12 @@
         <v>-13096074.86594614</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>0.4635</v>
       </c>
-      <c r="J82" t="n">
-        <v>0.4514</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3594,14 +3504,12 @@
         <v>-12672858.86594614</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>0.4545</v>
       </c>
-      <c r="J83" t="n">
-        <v>0.4514</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3635,14 +3543,12 @@
         <v>-13345899.69624614</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>0.4558</v>
       </c>
-      <c r="J84" t="n">
-        <v>0.4514</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3676,12 +3582,12 @@
         <v>-13191011.69624614</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>0.4514</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0.4555</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3715,14 +3621,12 @@
         <v>-13062231.69624614</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>0.4576</v>
       </c>
-      <c r="J86" t="n">
-        <v>0.4514</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3756,14 +3660,12 @@
         <v>-13062231.69624614</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>0.4577</v>
       </c>
-      <c r="J87" t="n">
-        <v>0.4514</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3797,14 +3699,12 @@
         <v>-13062231.69624614</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>0.4577</v>
       </c>
-      <c r="J88" t="n">
-        <v>0.4514</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3838,14 +3738,12 @@
         <v>-12682794.14494614</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>0.4577</v>
       </c>
-      <c r="J89" t="n">
-        <v>0.4514</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3879,14 +3777,12 @@
         <v>-9402735.424746139</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
         <v>0.4578</v>
       </c>
-      <c r="J90" t="n">
-        <v>0.4514</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3920,14 +3816,12 @@
         <v>-12571786.17614614</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>0.4679</v>
       </c>
-      <c r="J91" t="n">
-        <v>0.4514</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3961,14 +3855,12 @@
         <v>-13098891.17614614</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>0.4676</v>
       </c>
-      <c r="J92" t="n">
-        <v>0.4514</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4005,9 +3897,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>0.4514</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4041,14 +3931,10 @@
         <v>-12986993.17614614</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0.4676</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.4514</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4082,14 +3968,10 @@
         <v>-12993368.93364614</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0.4676</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0.4514</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4123,14 +4005,10 @@
         <v>-12193290.49264614</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0.4673</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0.4514</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4164,14 +4042,10 @@
         <v>-12361386.49264614</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0.4675</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0.4514</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4205,14 +4079,10 @@
         <v>-12016835.52464614</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0.4673</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0.4514</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4246,14 +4116,10 @@
         <v>-13558495.04784614</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0.4674</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0.4514</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4287,14 +4153,10 @@
         <v>-12589441.10184614</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0.4578</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0.4514</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4328,14 +4190,10 @@
         <v>-12589441.10184614</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0.4579</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0.4514</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4369,14 +4227,12 @@
         <v>-12754372.23984614</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>0.4579</v>
       </c>
-      <c r="J102" t="n">
-        <v>0.4514</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4410,14 +4266,10 @@
         <v>-16037954.42014614</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0.4578</v>
-      </c>
-      <c r="J103" t="n">
-        <v>0.4514</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4451,14 +4303,10 @@
         <v>-16137954.42014614</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0.4577</v>
-      </c>
-      <c r="J104" t="n">
-        <v>0.4514</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4492,14 +4340,12 @@
         <v>-16469687.51854614</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>0.4576</v>
       </c>
-      <c r="J105" t="n">
-        <v>0.4514</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4533,14 +4379,12 @@
         <v>-15575069.76134614</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>0.4502</v>
       </c>
-      <c r="J106" t="n">
-        <v>0.4514</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4574,14 +4418,12 @@
         <v>-15840968.58884614</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>0.4577</v>
       </c>
-      <c r="J107" t="n">
-        <v>0.4514</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4615,14 +4457,12 @@
         <v>-15713304.58884614</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
         <v>0.4576</v>
       </c>
-      <c r="J108" t="n">
-        <v>0.4514</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4656,14 +4496,12 @@
         <v>-13679466.80774614</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>0.4692</v>
       </c>
-      <c r="J109" t="n">
-        <v>0.4514</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4697,14 +4535,10 @@
         <v>-9235203.750446137</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0.4731</v>
-      </c>
-      <c r="J110" t="n">
-        <v>0.4514</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4741,9 +4575,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>0.4514</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4780,9 +4612,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>0.4514</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4819,9 +4649,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>0.4514</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4855,12 +4683,10 @@
         <v>-9939645.646246137</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>0.4514</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4894,12 +4720,10 @@
         <v>-9939645.646246137</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>0.4514</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4933,12 +4757,10 @@
         <v>-7803863.646246137</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>0.4514</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4972,12 +4794,10 @@
         <v>-6475587.736946138</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>0.4514</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5011,12 +4831,10 @@
         <v>-6475587.736946138</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>0.4514</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5050,12 +4868,10 @@
         <v>-6481686.658846138</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>0.4514</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5089,12 +4905,10 @@
         <v>-6506686.658846138</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>0.4514</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5131,9 +4945,7 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>0.4514</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5170,9 +4982,7 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>0.4514</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5206,12 +5016,12 @@
         <v>-7055332.408146138</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>0.4514</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0.4505</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5248,9 +5058,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>0.4514</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5284,12 +5092,12 @@
         <v>-6843407.897846138</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>0.4514</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0.4761</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5326,9 +5134,7 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>0.4514</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5365,9 +5171,7 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>0.4514</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5404,9 +5208,7 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>0.4514</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5443,9 +5245,7 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>0.4514</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5482,9 +5282,7 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>0.4514</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5521,9 +5319,7 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>0.4514</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5560,9 +5356,7 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>0.4514</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5596,14 +5390,12 @@
         <v>-7439110.948246138</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I133" t="n">
         <v>0.48</v>
       </c>
-      <c r="J133" t="n">
-        <v>0.4514</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5637,14 +5429,10 @@
         <v>-7439110.948246138</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0.4799</v>
-      </c>
-      <c r="J134" t="n">
-        <v>0.4514</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5681,9 +5469,7 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>0.4514</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5720,9 +5506,7 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>0.4514</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5756,14 +5540,10 @@
         <v>-7438474.143946138</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0.4799</v>
-      </c>
-      <c r="J137" t="n">
-        <v>0.4514</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5800,9 +5580,7 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>0.4514</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5839,9 +5617,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>0.4514</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5878,9 +5654,7 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>0.4514</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5917,9 +5691,7 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>0.4514</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5956,9 +5728,7 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>0.4514</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5995,9 +5765,7 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>0.4514</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6034,9 +5802,7 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>0.4514</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6073,9 +5839,7 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>0.4514</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6112,9 +5876,7 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>0.4514</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6151,9 +5913,7 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>0.4514</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6190,9 +5950,7 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>0.4514</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6229,9 +5987,7 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>0.4514</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6268,9 +6024,7 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>0.4514</v>
-      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6307,9 +6061,7 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>0.4514</v>
-      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6346,9 +6098,7 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>0.4514</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6385,9 +6135,7 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>0.4514</v>
-      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6424,9 +6172,7 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>0.4514</v>
-      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6463,9 +6209,7 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>0.4514</v>
-      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6502,9 +6246,7 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>0.4514</v>
-      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6541,9 +6283,7 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>0.4514</v>
-      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6580,9 +6320,7 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>0.4514</v>
-      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6619,9 +6357,7 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>0.4514</v>
-      </c>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6658,9 +6394,7 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>0.4514</v>
-      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6697,9 +6431,7 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>0.4514</v>
-      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6736,9 +6468,7 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>0.4514</v>
-      </c>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6775,9 +6505,7 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>0.4514</v>
-      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6814,9 +6542,7 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>0.4514</v>
-      </c>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6853,9 +6579,7 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>0.4514</v>
-      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6892,9 +6616,7 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>0.4514</v>
-      </c>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6931,9 +6653,7 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>0.4514</v>
-      </c>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6970,9 +6690,7 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>0.4514</v>
-      </c>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7006,23 +6724,19 @@
         <v>6034644.972853862</v>
       </c>
       <c r="H169" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>0.4514</v>
-      </c>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L169" t="n">
-        <v>1.121716880815242</v>
-      </c>
-      <c r="M169" t="n">
-        <v>1.057901907356948</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7051,7 +6765,11 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -7084,7 +6802,11 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -7113,11 +6835,15 @@
         <v>6082353.627853862</v>
       </c>
       <c r="H172" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -7146,11 +6872,15 @@
         <v>6082353.627853862</v>
       </c>
       <c r="H173" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -7183,7 +6913,11 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7212,11 +6946,15 @@
         <v>6156515.456776123</v>
       </c>
       <c r="H175" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7245,11 +6983,15 @@
         <v>6156515.456776123</v>
       </c>
       <c r="H176" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7278,11 +7020,15 @@
         <v>6156515.456776123</v>
       </c>
       <c r="H177" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7311,11 +7057,15 @@
         <v>5924843.961876122</v>
       </c>
       <c r="H178" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7344,11 +7094,15 @@
         <v>5924843.961876122</v>
       </c>
       <c r="H179" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7377,11 +7131,15 @@
         <v>5011682.881776122</v>
       </c>
       <c r="H180" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7410,11 +7168,15 @@
         <v>4961682.881776122</v>
       </c>
       <c r="H181" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7443,11 +7205,15 @@
         <v>5263011.650776123</v>
       </c>
       <c r="H182" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7480,7 +7246,11 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7513,7 +7283,11 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7546,7 +7320,11 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7579,7 +7357,11 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7612,7 +7394,11 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7645,7 +7431,11 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7678,7 +7468,11 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7711,7 +7505,11 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7744,7 +7542,11 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7777,7 +7579,11 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7810,7 +7616,11 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7843,7 +7653,11 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7876,7 +7690,11 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7909,7 +7727,11 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7942,7 +7764,11 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7971,14 +7797,16 @@
         <v>1944205.824519532</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L198" t="inlineStr"/>
       <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
@@ -8004,7 +7832,7 @@
         <v>1944205.824519532</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -8037,7 +7865,7 @@
         <v>1335582.734519532</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -8070,7 +7898,7 @@
         <v>1500775.494519532</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -8103,7 +7931,7 @@
         <v>1500531.041919532</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -8136,7 +7964,7 @@
         <v>1250119.041919532</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -8169,7 +7997,7 @@
         <v>1251165.597419532</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -8202,7 +8030,7 @@
         <v>765165.5974195325</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -8235,7 +8063,7 @@
         <v>665165.5974195325</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -8334,7 +8162,7 @@
         <v>2222946.995319533</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -8367,7 +8195,7 @@
         <v>2216150.306719533</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -8400,7 +8228,7 @@
         <v>1924602.306719533</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -8499,7 +8327,7 @@
         <v>1917805.618119533</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -8565,7 +8393,7 @@
         <v>1926890.072720926</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -10589,6 +10417,6 @@
       <c r="M277" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest OCN.xlsx
+++ b/BackTest/2020-01-16 BackTest OCN.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -517,10 +517,14 @@
         <v>-25674461.40984614</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.4465</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.4465</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
@@ -550,11 +554,19 @@
         <v>-25674461.40984614</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.4465</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.4465</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,11 +595,19 @@
         <v>-25674461.40984614</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.4465</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.4465</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -616,10 +636,14 @@
         <v>-25672462.40984614</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.4465</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.4465</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
@@ -649,11 +673,19 @@
         <v>-25672462.40984614</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.4528</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.4465</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -688,9 +720,13 @@
         <v>0.4528</v>
       </c>
       <c r="J9" t="n">
-        <v>0.4528</v>
-      </c>
-      <c r="K9" t="inlineStr"/>
+        <v>0.4465</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -725,13 +761,9 @@
         <v>0.4404</v>
       </c>
       <c r="J10" t="n">
-        <v>0.4528</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0.4404</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -764,7 +796,7 @@
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
-        <v>0.4528</v>
+        <v>0.4404</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -802,8 +834,14 @@
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0.4404</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -898,17 +936,11 @@
         <v>-25810602.31394614</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0.4506</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -937,17 +969,11 @@
         <v>-26360602.31394614</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0.4575</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -976,17 +1002,11 @@
         <v>-26728562.30244614</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0.4567</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1015,17 +1035,11 @@
         <v>-26476356.30244614</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0.45</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1054,17 +1068,11 @@
         <v>-26482951.30244614</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0.4514</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1093,17 +1101,11 @@
         <v>-26487807.30244614</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0.4513</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1132,17 +1134,11 @@
         <v>-27037807.30244614</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0.4507</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1171,17 +1167,11 @@
         <v>-26787807.30244614</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0.4506</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1210,17 +1200,11 @@
         <v>-26862807.30244614</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0.4511</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1249,17 +1233,11 @@
         <v>-15889885.99074614</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0.4509</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1288,17 +1266,11 @@
         <v>-16289885.99074614</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0.4528</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1327,17 +1299,11 @@
         <v>-14279330.67284614</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0.4497</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1366,17 +1332,11 @@
         <v>-15195651.79624614</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0.4563</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1410,12 +1370,10 @@
       <c r="I28" t="n">
         <v>0.4431</v>
       </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="n">
+        <v>0.4431</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1449,10 +1407,12 @@
       <c r="I29" t="n">
         <v>0.4463</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0.4431</v>
+      </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L29" t="n">
@@ -1488,10 +1448,12 @@
       <c r="I30" t="n">
         <v>0.4499</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0.4431</v>
+      </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L30" t="n">
@@ -1527,10 +1489,12 @@
       <c r="I31" t="n">
         <v>0.4526</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0.4431</v>
+      </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L31" t="n">
@@ -1566,7 +1530,9 @@
       <c r="I32" t="n">
         <v>0.4527</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0.4431</v>
+      </c>
       <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1600,12 +1566,12 @@
         <v>-14096568.49204614</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0.4499</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0.4431</v>
+      </c>
       <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1644,7 +1610,9 @@
       <c r="I34" t="n">
         <v>0.4499</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0.4431</v>
+      </c>
       <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1678,12 +1646,12 @@
         <v>-12277238.41154614</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0.454</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0.4431</v>
+      </c>
       <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1717,12 +1685,12 @@
         <v>-12277238.41154614</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0.456</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0.4431</v>
+      </c>
       <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1756,12 +1724,12 @@
         <v>-11127238.41154614</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0.456</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0.4431</v>
+      </c>
       <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1795,12 +1763,12 @@
         <v>-10857238.41154614</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0.4566</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0.4431</v>
+      </c>
       <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1837,7 +1805,9 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0.4431</v>
+      </c>
       <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1874,7 +1844,9 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0.4431</v>
+      </c>
       <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1911,7 +1883,9 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0.4431</v>
+      </c>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1948,7 +1922,9 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0.4431</v>
+      </c>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1985,7 +1961,9 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0.4431</v>
+      </c>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2019,12 +1997,12 @@
         <v>-16323447.60044614</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0.4604</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0.4431</v>
+      </c>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2061,7 +2039,9 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0.4431</v>
+      </c>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2098,7 +2078,9 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0.4431</v>
+      </c>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2135,7 +2117,9 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0.4431</v>
+      </c>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2172,7 +2156,9 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0.4431</v>
+      </c>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2209,7 +2195,9 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0.4431</v>
+      </c>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2246,7 +2234,9 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0.4431</v>
+      </c>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2283,7 +2273,9 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0.4431</v>
+      </c>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2320,7 +2312,9 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0.4431</v>
+      </c>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2354,12 +2348,12 @@
         <v>-6788472.22444614</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0.4599</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0.4431</v>
+      </c>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2393,12 +2387,12 @@
         <v>-7048547.65364614</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0.4599</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0.4431</v>
+      </c>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2432,12 +2426,12 @@
         <v>-7046628.65364614</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0.4501</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0.4431</v>
+      </c>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2471,12 +2465,12 @@
         <v>-7046628.65364614</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0.4598</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0.4431</v>
+      </c>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2510,12 +2504,12 @@
         <v>-7164701.23064614</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0.4598</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0.4431</v>
+      </c>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2552,7 +2546,9 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0.4431</v>
+      </c>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2589,7 +2585,9 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0.4431</v>
+      </c>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2626,7 +2624,9 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0.4431</v>
+      </c>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2663,7 +2663,9 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0.4431</v>
+      </c>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2700,7 +2702,9 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0.4431</v>
+      </c>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2737,7 +2741,9 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0.4431</v>
+      </c>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2774,7 +2780,9 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0.4431</v>
+      </c>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2811,7 +2819,9 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0.4431</v>
+      </c>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2848,7 +2858,9 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0.4431</v>
+      </c>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2885,7 +2897,9 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0.4431</v>
+      </c>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2919,12 +2933,12 @@
         <v>-11170489.61784614</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0.4571</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0.4431</v>
+      </c>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2958,12 +2972,12 @@
         <v>-11234879.61784614</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0.4565</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0.4431</v>
+      </c>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2997,12 +3011,12 @@
         <v>-10262943.32684614</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0.4546</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0.4431</v>
+      </c>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3036,12 +3050,12 @@
         <v>-9961865.617846141</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0.4564</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0.4431</v>
+      </c>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3075,12 +3089,12 @@
         <v>-10033455.61784614</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0.4651</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0.4431</v>
+      </c>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3114,12 +3128,12 @@
         <v>-9654315.617846141</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0.4544</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0.4431</v>
+      </c>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3153,12 +3167,12 @@
         <v>-9654315.617846141</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0.455</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0.4431</v>
+      </c>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3192,12 +3206,12 @@
         <v>-9654315.617846141</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0.455</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0.4431</v>
+      </c>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3231,12 +3245,12 @@
         <v>-9623958.617846141</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0.455</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0.4431</v>
+      </c>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3270,12 +3284,12 @@
         <v>-9881518.617846141</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0.4648</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0.4431</v>
+      </c>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3309,12 +3323,12 @@
         <v>-12973015.81284614</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0.4565</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0.4431</v>
+      </c>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3348,12 +3362,12 @@
         <v>-12973015.81284614</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0.4548</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0.4431</v>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3387,12 +3401,12 @@
         <v>-11429089.71624614</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0.4548</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0.4431</v>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3426,12 +3440,12 @@
         <v>-11748419.71624614</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0.4648</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0.4431</v>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3465,12 +3479,12 @@
         <v>-13096074.86594614</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0.4635</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0.4431</v>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3504,12 +3518,12 @@
         <v>-12672858.86594614</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0.4545</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0.4431</v>
+      </c>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3543,12 +3557,12 @@
         <v>-13345899.69624614</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0.4558</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0.4431</v>
+      </c>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3582,12 +3596,12 @@
         <v>-13191011.69624614</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0.4555</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0.4431</v>
+      </c>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3621,12 +3635,12 @@
         <v>-13062231.69624614</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0.4576</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0.4431</v>
+      </c>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3660,12 +3674,12 @@
         <v>-13062231.69624614</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0.4577</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0.4431</v>
+      </c>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3699,12 +3713,12 @@
         <v>-13062231.69624614</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0.4577</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0.4431</v>
+      </c>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3738,12 +3752,12 @@
         <v>-12682794.14494614</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0.4577</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0.4431</v>
+      </c>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3777,12 +3791,12 @@
         <v>-9402735.424746139</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0.4578</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0.4431</v>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3816,12 +3830,12 @@
         <v>-12571786.17614614</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0.4679</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0.4431</v>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3855,12 +3869,12 @@
         <v>-13098891.17614614</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0.4676</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0.4431</v>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3897,7 +3911,9 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0.4431</v>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3934,7 +3950,9 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0.4431</v>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3971,7 +3989,9 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0.4431</v>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4008,7 +4028,9 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0.4431</v>
+      </c>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4045,7 +4067,9 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0.4431</v>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4082,7 +4106,9 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0.4431</v>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4119,7 +4145,9 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0.4431</v>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4156,7 +4184,9 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0.4431</v>
+      </c>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4193,7 +4223,9 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0.4431</v>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4227,12 +4259,12 @@
         <v>-12754372.23984614</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0.4579</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0.4431</v>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4269,7 +4301,9 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0.4431</v>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4306,7 +4340,9 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0.4431</v>
+      </c>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4340,12 +4376,12 @@
         <v>-16469687.51854614</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0.4576</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0.4431</v>
+      </c>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4379,12 +4415,12 @@
         <v>-15575069.76134614</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0.4502</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0.4431</v>
+      </c>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4418,12 +4454,12 @@
         <v>-15840968.58884614</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0.4577</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0.4431</v>
+      </c>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4457,12 +4493,12 @@
         <v>-15713304.58884614</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0.4576</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0.4431</v>
+      </c>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4496,12 +4532,12 @@
         <v>-13679466.80774614</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0.4692</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0.4431</v>
+      </c>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4538,7 +4574,9 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0.4431</v>
+      </c>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4575,7 +4613,9 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0.4431</v>
+      </c>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4612,7 +4652,9 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0.4431</v>
+      </c>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4649,7 +4691,9 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0.4431</v>
+      </c>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4686,7 +4730,9 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0.4431</v>
+      </c>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4723,7 +4769,9 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0.4431</v>
+      </c>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4760,7 +4808,9 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0.4431</v>
+      </c>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4797,7 +4847,9 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0.4431</v>
+      </c>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4834,7 +4886,9 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0.4431</v>
+      </c>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4871,7 +4925,9 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0.4431</v>
+      </c>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4908,7 +4964,9 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0.4431</v>
+      </c>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4945,7 +5003,9 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0.4431</v>
+      </c>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4982,7 +5042,9 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0.4431</v>
+      </c>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5016,12 +5078,12 @@
         <v>-7055332.408146138</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0.4505</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0.4431</v>
+      </c>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5058,7 +5120,9 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0.4431</v>
+      </c>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5092,12 +5156,12 @@
         <v>-6843407.897846138</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0.4761</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0.4431</v>
+      </c>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5134,7 +5198,9 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0.4431</v>
+      </c>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5171,7 +5237,9 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0.4431</v>
+      </c>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5208,7 +5276,9 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0.4431</v>
+      </c>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5245,7 +5315,9 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0.4431</v>
+      </c>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5282,7 +5354,9 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0.4431</v>
+      </c>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5319,7 +5393,9 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0.4431</v>
+      </c>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5356,7 +5432,9 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0.4431</v>
+      </c>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5390,12 +5468,12 @@
         <v>-7439110.948246138</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0.4431</v>
+      </c>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5432,7 +5510,9 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0.4431</v>
+      </c>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5469,7 +5549,9 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0.4431</v>
+      </c>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5506,7 +5588,9 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0.4431</v>
+      </c>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5543,7 +5627,9 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0.4431</v>
+      </c>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5580,7 +5666,9 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0.4431</v>
+      </c>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5617,7 +5705,9 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0.4431</v>
+      </c>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5654,7 +5744,9 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0.4431</v>
+      </c>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5691,7 +5783,9 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0.4431</v>
+      </c>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5728,7 +5822,9 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0.4431</v>
+      </c>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5765,7 +5861,9 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0.4431</v>
+      </c>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5802,7 +5900,9 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0.4431</v>
+      </c>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5839,7 +5939,9 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0.4431</v>
+      </c>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5876,7 +5978,9 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0.4431</v>
+      </c>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5910,19 +6014,23 @@
         <v>-1277576.695346138</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0.4431</v>
+      </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+        <v>1.10039381629429</v>
+      </c>
+      <c r="M147" t="n">
+        <v>1.057901907356948</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5947,15 +6055,11 @@
         <v>-1277576.695346138</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5988,11 +6092,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6025,11 +6125,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6058,15 +6154,11 @@
         <v>-1262220.967446138</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6095,15 +6187,11 @@
         <v>-1262220.967446138</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6132,15 +6220,11 @@
         <v>-1262220.967446138</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6169,15 +6253,11 @@
         <v>-1262220.967446138</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6206,15 +6286,11 @@
         <v>-1262220.967446138</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6243,15 +6319,11 @@
         <v>-1262220.967446138</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6280,15 +6352,11 @@
         <v>-864078.9674461382</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6317,15 +6385,11 @@
         <v>-789078.9674461382</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6354,15 +6418,11 @@
         <v>-853975.5071461381</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6395,11 +6455,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6432,11 +6488,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6469,11 +6521,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6506,11 +6554,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6543,11 +6587,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6580,11 +6620,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6617,11 +6653,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6654,11 +6686,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6691,11 +6719,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6728,11 +6752,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6765,11 +6785,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6802,11 +6818,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6839,11 +6851,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6876,11 +6884,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6913,11 +6917,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6950,11 +6950,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6987,11 +6983,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7024,11 +7016,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7061,11 +7049,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7098,11 +7082,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7135,11 +7115,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7172,11 +7148,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7209,11 +7181,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7246,11 +7214,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7283,11 +7247,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7320,11 +7280,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7357,11 +7313,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7394,11 +7346,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7431,11 +7379,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7468,11 +7412,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7505,11 +7445,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7542,11 +7478,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7579,11 +7511,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7616,11 +7544,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7653,11 +7577,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7690,11 +7610,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7727,11 +7643,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7764,11 +7676,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7797,16 +7705,14 @@
         <v>1944205.824519532</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
       <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
@@ -7832,7 +7738,7 @@
         <v>1944205.824519532</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7865,7 +7771,7 @@
         <v>1335582.734519532</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7898,7 +7804,7 @@
         <v>1500775.494519532</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7931,7 +7837,7 @@
         <v>1500531.041919532</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7964,7 +7870,7 @@
         <v>1250119.041919532</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7997,7 +7903,7 @@
         <v>1251165.597419532</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -8030,7 +7936,7 @@
         <v>765165.5974195325</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -8063,7 +7969,7 @@
         <v>665165.5974195325</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -8162,7 +8068,7 @@
         <v>2222946.995319533</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -8195,7 +8101,7 @@
         <v>2216150.306719533</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -8228,7 +8134,7 @@
         <v>1924602.306719533</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -8327,7 +8233,7 @@
         <v>1917805.618119533</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -8393,7 +8299,7 @@
         <v>1926890.072720926</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -10417,6 +10323,6 @@
       <c r="M277" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest OCN.xlsx
+++ b/BackTest/2020-01-16 BackTest OCN.xlsx
@@ -517,14 +517,10 @@
         <v>-25674461.40984614</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.4465</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.4465</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
@@ -554,19 +550,11 @@
         <v>-25674461.40984614</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.4465</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.4465</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -595,19 +583,11 @@
         <v>-25674461.40984614</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.4465</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.4465</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -636,14 +616,10 @@
         <v>-25672462.40984614</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.4465</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.4465</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
@@ -673,19 +649,11 @@
         <v>-25672462.40984614</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.4528</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.4465</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -714,19 +682,11 @@
         <v>-25676157.75394614</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.4528</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.4465</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -755,14 +715,10 @@
         <v>-25674958.75394614</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.4404</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.4404</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
@@ -795,14 +751,8 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>0.4404</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -834,14 +784,8 @@
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>0.4404</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -1101,10 +1045,14 @@
         <v>-26487807.30244614</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.4513</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.4513</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
@@ -1134,11 +1082,19 @@
         <v>-27037807.30244614</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.4507</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.4513</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1167,11 +1123,19 @@
         <v>-26787807.30244614</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.4506</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.4513</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1200,11 +1164,19 @@
         <v>-26862807.30244614</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.4511</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.4513</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1233,11 +1205,19 @@
         <v>-15889885.99074614</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.4509</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.4513</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1266,11 +1246,19 @@
         <v>-16289885.99074614</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.4528</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.4513</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1299,11 +1287,19 @@
         <v>-14279330.67284614</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.4497</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.4513</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1332,11 +1328,19 @@
         <v>-15195651.79624614</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.4563</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.4513</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1371,9 +1375,13 @@
         <v>0.4431</v>
       </c>
       <c r="J28" t="n">
-        <v>0.4431</v>
-      </c>
-      <c r="K28" t="inlineStr"/>
+        <v>0.4513</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1408,11 +1416,11 @@
         <v>0.4463</v>
       </c>
       <c r="J29" t="n">
-        <v>0.4431</v>
+        <v>0.4513</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L29" t="n">
@@ -1449,11 +1457,11 @@
         <v>0.4499</v>
       </c>
       <c r="J30" t="n">
-        <v>0.4431</v>
+        <v>0.4513</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L30" t="n">
@@ -1490,11 +1498,11 @@
         <v>0.4526</v>
       </c>
       <c r="J31" t="n">
-        <v>0.4431</v>
+        <v>0.4513</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L31" t="n">
@@ -1531,7 +1539,7 @@
         <v>0.4527</v>
       </c>
       <c r="J32" t="n">
-        <v>0.4431</v>
+        <v>0.4513</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -1566,11 +1574,13 @@
         <v>-14096568.49204614</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.4499</v>
+      </c>
       <c r="J33" t="n">
-        <v>0.4431</v>
+        <v>0.4513</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -1611,7 +1621,7 @@
         <v>0.4499</v>
       </c>
       <c r="J34" t="n">
-        <v>0.4431</v>
+        <v>0.4513</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -1646,11 +1656,13 @@
         <v>-12277238.41154614</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.454</v>
+      </c>
       <c r="J35" t="n">
-        <v>0.4431</v>
+        <v>0.4513</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -1685,11 +1697,13 @@
         <v>-12277238.41154614</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.456</v>
+      </c>
       <c r="J36" t="n">
-        <v>0.4431</v>
+        <v>0.4513</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -1724,11 +1738,13 @@
         <v>-11127238.41154614</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.456</v>
+      </c>
       <c r="J37" t="n">
-        <v>0.4431</v>
+        <v>0.4513</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -1763,11 +1779,13 @@
         <v>-10857238.41154614</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.4566</v>
+      </c>
       <c r="J38" t="n">
-        <v>0.4431</v>
+        <v>0.4513</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -1802,11 +1820,13 @@
         <v>-11012095.34404614</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.47</v>
+      </c>
       <c r="J39" t="n">
-        <v>0.4431</v>
+        <v>0.4513</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -1841,11 +1861,13 @@
         <v>-11012095.34404614</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.464</v>
+      </c>
       <c r="J40" t="n">
-        <v>0.4431</v>
+        <v>0.4513</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -1880,11 +1902,13 @@
         <v>-11087095.34404614</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.464</v>
+      </c>
       <c r="J41" t="n">
-        <v>0.4431</v>
+        <v>0.4513</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -1919,11 +1943,13 @@
         <v>-11003095.34404614</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.4599</v>
+      </c>
       <c r="J42" t="n">
-        <v>0.4431</v>
+        <v>0.4513</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -1958,11 +1984,13 @@
         <v>-16333446.60044614</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.4699</v>
+      </c>
       <c r="J43" t="n">
-        <v>0.4431</v>
+        <v>0.4513</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -1997,11 +2025,13 @@
         <v>-16323447.60044614</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.4604</v>
+      </c>
       <c r="J44" t="n">
-        <v>0.4431</v>
+        <v>0.4513</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -2036,11 +2066,13 @@
         <v>-16406732.60044614</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.4699</v>
+      </c>
       <c r="J45" t="n">
-        <v>0.4431</v>
+        <v>0.4513</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -2075,11 +2107,13 @@
         <v>-16406732.60044614</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.4621</v>
+      </c>
       <c r="J46" t="n">
-        <v>0.4431</v>
+        <v>0.4513</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -2114,11 +2148,13 @@
         <v>-8252203.19814614</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.4621</v>
+      </c>
       <c r="J47" t="n">
-        <v>0.4431</v>
+        <v>0.4513</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -2153,11 +2189,13 @@
         <v>-7528203.19814614</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.4622</v>
+      </c>
       <c r="J48" t="n">
-        <v>0.4431</v>
+        <v>0.4513</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -2192,11 +2230,13 @@
         <v>-7532995.78814614</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.4698</v>
+      </c>
       <c r="J49" t="n">
-        <v>0.4431</v>
+        <v>0.4513</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -2231,11 +2271,13 @@
         <v>-7407692.02814614</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.4621</v>
+      </c>
       <c r="J50" t="n">
-        <v>0.4431</v>
+        <v>0.4513</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -2270,11 +2312,13 @@
         <v>-7819882.38714614</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.4696</v>
+      </c>
       <c r="J51" t="n">
-        <v>0.4431</v>
+        <v>0.4513</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -2309,11 +2353,13 @@
         <v>-6788472.22444614</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.4474</v>
+      </c>
       <c r="J52" t="n">
-        <v>0.4431</v>
+        <v>0.4513</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -2348,11 +2394,13 @@
         <v>-6788472.22444614</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.4599</v>
+      </c>
       <c r="J53" t="n">
-        <v>0.4431</v>
+        <v>0.4513</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -2387,11 +2435,13 @@
         <v>-7048547.65364614</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.4599</v>
+      </c>
       <c r="J54" t="n">
-        <v>0.4431</v>
+        <v>0.4513</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -2426,11 +2476,13 @@
         <v>-7046628.65364614</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.4501</v>
+      </c>
       <c r="J55" t="n">
-        <v>0.4431</v>
+        <v>0.4513</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -2465,11 +2517,13 @@
         <v>-7046628.65364614</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.4598</v>
+      </c>
       <c r="J56" t="n">
-        <v>0.4431</v>
+        <v>0.4513</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -2504,11 +2558,13 @@
         <v>-7164701.23064614</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.4598</v>
+      </c>
       <c r="J57" t="n">
-        <v>0.4431</v>
+        <v>0.4513</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -2543,11 +2599,13 @@
         <v>-7064701.23064614</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.4567</v>
+      </c>
       <c r="J58" t="n">
-        <v>0.4431</v>
+        <v>0.4513</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -2582,11 +2640,13 @@
         <v>-6960978.23064614</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.4598</v>
+      </c>
       <c r="J59" t="n">
-        <v>0.4431</v>
+        <v>0.4513</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -2625,7 +2685,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="n">
-        <v>0.4431</v>
+        <v>0.4513</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -2664,7 +2724,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="n">
-        <v>0.4431</v>
+        <v>0.4513</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -2703,7 +2763,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="n">
-        <v>0.4431</v>
+        <v>0.4513</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -2742,7 +2802,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="n">
-        <v>0.4431</v>
+        <v>0.4513</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -2781,7 +2841,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="n">
-        <v>0.4431</v>
+        <v>0.4513</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -2820,7 +2880,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="n">
-        <v>0.4431</v>
+        <v>0.4513</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -2859,7 +2919,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
-        <v>0.4431</v>
+        <v>0.4513</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -2898,7 +2958,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
-        <v>0.4431</v>
+        <v>0.4513</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -2937,7 +2997,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
-        <v>0.4431</v>
+        <v>0.4513</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -2976,7 +3036,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
-        <v>0.4431</v>
+        <v>0.4513</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -3015,7 +3075,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="n">
-        <v>0.4431</v>
+        <v>0.4513</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -3054,7 +3114,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="n">
-        <v>0.4431</v>
+        <v>0.4513</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -3093,7 +3153,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
-        <v>0.4431</v>
+        <v>0.4513</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -3128,11 +3188,13 @@
         <v>-9654315.617846141</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0.4544</v>
+      </c>
       <c r="J73" t="n">
-        <v>0.4431</v>
+        <v>0.4513</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -3167,11 +3229,13 @@
         <v>-9654315.617846141</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0.455</v>
+      </c>
       <c r="J74" t="n">
-        <v>0.4431</v>
+        <v>0.4513</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -3210,7 +3274,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
-        <v>0.4431</v>
+        <v>0.4513</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -3249,7 +3313,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
-        <v>0.4431</v>
+        <v>0.4513</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -3288,7 +3352,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
-        <v>0.4431</v>
+        <v>0.4513</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -3327,7 +3391,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
-        <v>0.4431</v>
+        <v>0.4513</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -3362,11 +3426,13 @@
         <v>-12973015.81284614</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0.4548</v>
+      </c>
       <c r="J79" t="n">
-        <v>0.4431</v>
+        <v>0.4513</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3401,11 +3467,13 @@
         <v>-11429089.71624614</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0.4548</v>
+      </c>
       <c r="J80" t="n">
-        <v>0.4431</v>
+        <v>0.4513</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3444,7 +3512,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
-        <v>0.4431</v>
+        <v>0.4513</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -3483,7 +3551,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
-        <v>0.4431</v>
+        <v>0.4513</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -3522,7 +3590,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
-        <v>0.4431</v>
+        <v>0.4513</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -3561,7 +3629,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
-        <v>0.4431</v>
+        <v>0.4513</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -3600,7 +3668,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
-        <v>0.4431</v>
+        <v>0.4513</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -3639,7 +3707,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
-        <v>0.4431</v>
+        <v>0.4513</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -3678,7 +3746,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="n">
-        <v>0.4431</v>
+        <v>0.4513</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -3717,7 +3785,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
-        <v>0.4431</v>
+        <v>0.4513</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -3756,7 +3824,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
-        <v>0.4431</v>
+        <v>0.4513</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -3795,7 +3863,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
-        <v>0.4431</v>
+        <v>0.4513</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -3834,7 +3902,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
-        <v>0.4431</v>
+        <v>0.4513</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -3873,7 +3941,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
-        <v>0.4431</v>
+        <v>0.4513</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -3912,7 +3980,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
-        <v>0.4431</v>
+        <v>0.4513</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -3951,7 +4019,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
-        <v>0.4431</v>
+        <v>0.4513</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -3990,7 +4058,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
-        <v>0.4431</v>
+        <v>0.4513</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -4029,7 +4097,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
-        <v>0.4431</v>
+        <v>0.4513</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -4068,7 +4136,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
-        <v>0.4431</v>
+        <v>0.4513</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -4107,7 +4175,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
-        <v>0.4431</v>
+        <v>0.4513</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -4146,7 +4214,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
-        <v>0.4431</v>
+        <v>0.4513</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -4185,7 +4253,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
-        <v>0.4431</v>
+        <v>0.4513</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -4224,7 +4292,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
-        <v>0.4431</v>
+        <v>0.4513</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -4263,7 +4331,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
-        <v>0.4431</v>
+        <v>0.4513</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -4302,7 +4370,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
-        <v>0.4431</v>
+        <v>0.4513</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -4341,7 +4409,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
-        <v>0.4431</v>
+        <v>0.4513</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -4380,7 +4448,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
-        <v>0.4431</v>
+        <v>0.4513</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -4419,7 +4487,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
-        <v>0.4431</v>
+        <v>0.4513</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4458,7 +4526,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
-        <v>0.4431</v>
+        <v>0.4513</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4497,7 +4565,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
-        <v>0.4431</v>
+        <v>0.4513</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4536,7 +4604,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
-        <v>0.4431</v>
+        <v>0.4513</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4575,7 +4643,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
-        <v>0.4431</v>
+        <v>0.4513</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4614,7 +4682,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
-        <v>0.4431</v>
+        <v>0.4513</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4653,7 +4721,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
-        <v>0.4431</v>
+        <v>0.4513</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4692,7 +4760,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="n">
-        <v>0.4431</v>
+        <v>0.4513</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4731,7 +4799,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
-        <v>0.4431</v>
+        <v>0.4513</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4770,7 +4838,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="n">
-        <v>0.4431</v>
+        <v>0.4513</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4809,7 +4877,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
-        <v>0.4431</v>
+        <v>0.4513</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -4848,7 +4916,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
-        <v>0.4431</v>
+        <v>0.4513</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -4887,7 +4955,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
-        <v>0.4431</v>
+        <v>0.4513</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -4926,7 +4994,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
-        <v>0.4431</v>
+        <v>0.4513</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -4965,7 +5033,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
-        <v>0.4431</v>
+        <v>0.4513</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -5004,7 +5072,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
-        <v>0.4431</v>
+        <v>0.4513</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -5043,7 +5111,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
-        <v>0.4431</v>
+        <v>0.4513</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -5082,7 +5150,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
-        <v>0.4431</v>
+        <v>0.4513</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -5121,7 +5189,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="n">
-        <v>0.4431</v>
+        <v>0.4513</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -5160,7 +5228,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="n">
-        <v>0.4431</v>
+        <v>0.4513</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -5199,7 +5267,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="n">
-        <v>0.4431</v>
+        <v>0.4513</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -5238,7 +5306,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="n">
-        <v>0.4431</v>
+        <v>0.4513</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -5277,7 +5345,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="n">
-        <v>0.4431</v>
+        <v>0.4513</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -5316,7 +5384,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="n">
-        <v>0.4431</v>
+        <v>0.4513</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -5355,7 +5423,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="n">
-        <v>0.4431</v>
+        <v>0.4513</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -5394,7 +5462,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="n">
-        <v>0.4431</v>
+        <v>0.4513</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -5433,7 +5501,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="n">
-        <v>0.4431</v>
+        <v>0.4513</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -5472,7 +5540,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="n">
-        <v>0.4431</v>
+        <v>0.4513</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -5511,7 +5579,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="n">
-        <v>0.4431</v>
+        <v>0.4513</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -5550,7 +5618,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="n">
-        <v>0.4431</v>
+        <v>0.4513</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -5589,7 +5657,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="n">
-        <v>0.4431</v>
+        <v>0.4513</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -5628,7 +5696,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="n">
-        <v>0.4431</v>
+        <v>0.4513</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -5667,7 +5735,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="n">
-        <v>0.4431</v>
+        <v>0.4513</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -5706,7 +5774,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="n">
-        <v>0.4431</v>
+        <v>0.4513</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -5745,7 +5813,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="n">
-        <v>0.4431</v>
+        <v>0.4513</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -5784,7 +5852,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="n">
-        <v>0.4431</v>
+        <v>0.4513</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -5823,7 +5891,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="n">
-        <v>0.4431</v>
+        <v>0.4513</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -5862,7 +5930,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="n">
-        <v>0.4431</v>
+        <v>0.4513</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -5901,7 +5969,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="n">
-        <v>0.4431</v>
+        <v>0.4513</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -5940,7 +6008,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
-        <v>0.4431</v>
+        <v>0.4513</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -5979,7 +6047,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
-        <v>0.4431</v>
+        <v>0.4513</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -6014,23 +6082,21 @@
         <v>-1277576.695346138</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
-        <v>0.4431</v>
+        <v>0.4513</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L147" t="n">
-        <v>1.10039381629429</v>
-      </c>
-      <c r="M147" t="n">
-        <v>1.057901907356948</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6055,11 +6121,17 @@
         <v>-1277576.695346138</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0.4513</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6091,8 +6163,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0.4513</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6124,8 +6202,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0.4513</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6154,11 +6238,17 @@
         <v>-1262220.967446138</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0.4513</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6187,11 +6277,17 @@
         <v>-1262220.967446138</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0.4513</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6220,11 +6316,17 @@
         <v>-1262220.967446138</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0.4513</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6253,11 +6355,17 @@
         <v>-1262220.967446138</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0.4513</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6286,11 +6394,17 @@
         <v>-1262220.967446138</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0.4513</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6319,11 +6433,17 @@
         <v>-1262220.967446138</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0.4513</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6352,11 +6472,17 @@
         <v>-864078.9674461382</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0.4513</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6385,11 +6511,17 @@
         <v>-789078.9674461382</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0.4513</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6418,11 +6550,17 @@
         <v>-853975.5071461381</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0.4513</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6454,8 +6592,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0.4513</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6487,8 +6631,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0.4513</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6520,8 +6670,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0.4513</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6553,8 +6709,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0.4513</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6586,8 +6748,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0.4513</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6619,8 +6787,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0.4513</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6652,8 +6826,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0.4513</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6682,15 +6862,23 @@
         <v>6014625.972853862</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0.4513</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+        <v>1.102910480833149</v>
+      </c>
+      <c r="M167" t="n">
+        <v>1.057901907356948</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6715,7 +6903,7 @@
         <v>6014625.972853862</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6748,7 +6936,7 @@
         <v>6034644.972853862</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6781,7 +6969,7 @@
         <v>6027353.627853862</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6814,7 +7002,7 @@
         <v>6082353.627853862</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6880,7 +7068,7 @@
         <v>6082353.627853862</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6913,7 +7101,7 @@
         <v>9263345.446476122</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6946,7 +7134,7 @@
         <v>6156515.456776123</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6979,7 +7167,7 @@
         <v>6156515.456776123</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -7012,7 +7200,7 @@
         <v>6156515.456776123</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -7045,7 +7233,7 @@
         <v>5924843.961876122</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -7078,7 +7266,7 @@
         <v>5924843.961876122</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -7111,7 +7299,7 @@
         <v>5011682.881776122</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -7144,7 +7332,7 @@
         <v>4961682.881776122</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -7177,7 +7365,7 @@
         <v>5263011.650776123</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -7210,7 +7398,7 @@
         <v>5080001.650776123</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -7243,7 +7431,7 @@
         <v>5180001.650776123</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -7276,7 +7464,7 @@
         <v>5178028.485819533</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -7309,7 +7497,7 @@
         <v>5385224.051219532</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -7342,7 +7530,7 @@
         <v>5281486.941219532</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -7375,7 +7563,7 @@
         <v>6532553.651519531</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7408,7 +7596,7 @@
         <v>7673803.193919531</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7441,7 +7629,7 @@
         <v>4582595.935019531</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7474,7 +7662,7 @@
         <v>4582595.935019531</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7507,7 +7695,7 @@
         <v>4230628.598719532</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7540,7 +7728,7 @@
         <v>4562094.164219532</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7573,7 +7761,7 @@
         <v>3310092.353319532</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7606,7 +7794,7 @@
         <v>3310092.353319532</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7639,7 +7827,7 @@
         <v>3730205.824519532</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7672,7 +7860,7 @@
         <v>1755205.824519532</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7705,7 +7893,7 @@
         <v>1944205.824519532</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7738,7 +7926,7 @@
         <v>1944205.824519532</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7771,7 +7959,7 @@
         <v>1335582.734519532</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7804,7 +7992,7 @@
         <v>1500775.494519532</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7837,7 +8025,7 @@
         <v>1500531.041919532</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>

--- a/BackTest/2020-01-16 BackTest OCN.xlsx
+++ b/BackTest/2020-01-16 BackTest OCN.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M277"/>
+  <dimension ref="A1:L277"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>25835.8</v>
       </c>
       <c r="G2" t="n">
-        <v>-25674461.40984614</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,19 @@
         <v>764653.2</v>
       </c>
       <c r="G3" t="n">
-        <v>-25674461.40984614</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>0.4465</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.4465</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +507,23 @@
         <v>25835.8</v>
       </c>
       <c r="G4" t="n">
-        <v>-25674461.40984614</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+        <v>0.4465</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.4465</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +545,23 @@
         <v>7957</v>
       </c>
       <c r="G5" t="n">
-        <v>-25674461.40984614</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+        <v>0.4465</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.4465</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +583,19 @@
         <v>165888</v>
       </c>
       <c r="G6" t="n">
-        <v>-25674461.40984614</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>0.4465</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.4465</v>
+      </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +617,23 @@
         <v>1999</v>
       </c>
       <c r="G7" t="n">
-        <v>-25672462.40984614</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+        <v>0.4465</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.4465</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +655,21 @@
         <v>2400</v>
       </c>
       <c r="G8" t="n">
-        <v>-25672462.40984614</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="n">
+        <v>0.4465</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +691,15 @@
         <v>3695.3441</v>
       </c>
       <c r="G9" t="n">
-        <v>-25676157.75394614</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +721,15 @@
         <v>1199</v>
       </c>
       <c r="G10" t="n">
-        <v>-25674958.75394614</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +751,15 @@
         <v>86791</v>
       </c>
       <c r="G11" t="n">
-        <v>-25588167.75394614</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +781,15 @@
         <v>50000</v>
       </c>
       <c r="G12" t="n">
-        <v>-25638167.75394614</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +811,15 @@
         <v>30670</v>
       </c>
       <c r="G13" t="n">
-        <v>-25607497.75394614</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +841,15 @@
         <v>238491.6</v>
       </c>
       <c r="G14" t="n">
-        <v>-25845989.35394614</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +871,15 @@
         <v>35387.04</v>
       </c>
       <c r="G15" t="n">
-        <v>-25810602.31394614</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +901,15 @@
         <v>550000</v>
       </c>
       <c r="G16" t="n">
-        <v>-26360602.31394614</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +931,15 @@
         <v>367959.9885</v>
       </c>
       <c r="G17" t="n">
-        <v>-26728562.30244614</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +961,15 @@
         <v>252206</v>
       </c>
       <c r="G18" t="n">
-        <v>-26476356.30244614</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +991,15 @@
         <v>6595</v>
       </c>
       <c r="G19" t="n">
-        <v>-26482951.30244614</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,22 +1021,15 @@
         <v>4856</v>
       </c>
       <c r="G20" t="n">
-        <v>-26487807.30244614</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1079,26 +1051,15 @@
         <v>550000</v>
       </c>
       <c r="G21" t="n">
-        <v>-27037807.30244614</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0.4507</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1120,26 +1081,15 @@
         <v>250000</v>
       </c>
       <c r="G22" t="n">
-        <v>-26787807.30244614</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0.4506</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1161,26 +1111,15 @@
         <v>75000</v>
       </c>
       <c r="G23" t="n">
-        <v>-26862807.30244614</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0.4511</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1202,26 +1141,15 @@
         <v>10972921.3117</v>
       </c>
       <c r="G24" t="n">
-        <v>-15889885.99074614</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0.4509</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1243,26 +1171,15 @@
         <v>400000</v>
       </c>
       <c r="G25" t="n">
-        <v>-16289885.99074614</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0.4528</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1284,26 +1201,15 @@
         <v>2010555.3179</v>
       </c>
       <c r="G26" t="n">
-        <v>-14279330.67284614</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0.4497</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1325,26 +1231,15 @@
         <v>916321.1234</v>
       </c>
       <c r="G27" t="n">
-        <v>-15195651.79624614</v>
-      </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0.4563</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1366,26 +1261,15 @@
         <v>916356.3042</v>
       </c>
       <c r="G28" t="n">
-        <v>-14279295.49204614</v>
-      </c>
-      <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0.4431</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1407,26 +1291,15 @@
         <v>91341</v>
       </c>
       <c r="G29" t="n">
-        <v>-14187954.49204614</v>
-      </c>
-      <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0.4463</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1448,26 +1321,15 @@
         <v>91313</v>
       </c>
       <c r="G30" t="n">
-        <v>-14096641.49204614</v>
-      </c>
-      <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0.4499</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1489,26 +1351,15 @@
         <v>83213</v>
       </c>
       <c r="G31" t="n">
-        <v>-14013428.49204614</v>
-      </c>
-      <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0.4526</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1530,26 +1381,15 @@
         <v>83140</v>
       </c>
       <c r="G32" t="n">
-        <v>-14096568.49204614</v>
-      </c>
-      <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0.4527</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1571,26 +1411,15 @@
         <v>1430</v>
       </c>
       <c r="G33" t="n">
-        <v>-14096568.49204614</v>
-      </c>
-      <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0.4499</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1612,26 +1441,15 @@
         <v>54884</v>
       </c>
       <c r="G34" t="n">
-        <v>-14041684.49204614</v>
-      </c>
-      <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0.4499</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1653,26 +1471,15 @@
         <v>1764446.0805</v>
       </c>
       <c r="G35" t="n">
-        <v>-12277238.41154614</v>
-      </c>
-      <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0.454</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1694,26 +1501,15 @@
         <v>1025000</v>
       </c>
       <c r="G36" t="n">
-        <v>-12277238.41154614</v>
-      </c>
-      <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0.456</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1735,26 +1531,15 @@
         <v>1150000</v>
       </c>
       <c r="G37" t="n">
-        <v>-11127238.41154614</v>
-      </c>
-      <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0.456</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1776,26 +1561,15 @@
         <v>270000</v>
       </c>
       <c r="G38" t="n">
-        <v>-10857238.41154614</v>
-      </c>
-      <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0.4566</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1817,26 +1591,15 @@
         <v>154856.9325</v>
       </c>
       <c r="G39" t="n">
-        <v>-11012095.34404614</v>
-      </c>
-      <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1858,26 +1621,15 @@
         <v>3423.0675</v>
       </c>
       <c r="G40" t="n">
-        <v>-11012095.34404614</v>
-      </c>
-      <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0.464</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1899,26 +1651,15 @@
         <v>75000</v>
       </c>
       <c r="G41" t="n">
-        <v>-11087095.34404614</v>
-      </c>
-      <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0.464</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1940,26 +1681,15 @@
         <v>84000</v>
       </c>
       <c r="G42" t="n">
-        <v>-11003095.34404614</v>
-      </c>
-      <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0.4599</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1981,26 +1711,15 @@
         <v>5330351.2564</v>
       </c>
       <c r="G43" t="n">
-        <v>-16333446.60044614</v>
-      </c>
-      <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0.4699</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2022,26 +1741,15 @@
         <v>9999</v>
       </c>
       <c r="G44" t="n">
-        <v>-16323447.60044614</v>
-      </c>
-      <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0.4604</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2063,26 +1771,15 @@
         <v>83285</v>
       </c>
       <c r="G45" t="n">
-        <v>-16406732.60044614</v>
-      </c>
-      <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0.4699</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2104,26 +1801,15 @@
         <v>300000</v>
       </c>
       <c r="G46" t="n">
-        <v>-16406732.60044614</v>
-      </c>
-      <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0.4621</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2145,26 +1831,15 @@
         <v>8154529.4023</v>
       </c>
       <c r="G47" t="n">
-        <v>-8252203.19814614</v>
-      </c>
-      <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0.4621</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2186,26 +1861,15 @@
         <v>724000</v>
       </c>
       <c r="G48" t="n">
-        <v>-7528203.19814614</v>
-      </c>
-      <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0.4622</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2227,26 +1891,15 @@
         <v>4792.59</v>
       </c>
       <c r="G49" t="n">
-        <v>-7532995.78814614</v>
-      </c>
-      <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0.4698</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2268,26 +1921,15 @@
         <v>125303.76</v>
       </c>
       <c r="G50" t="n">
-        <v>-7407692.02814614</v>
-      </c>
-      <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0.4621</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2309,26 +1951,15 @@
         <v>412190.359</v>
       </c>
       <c r="G51" t="n">
-        <v>-7819882.38714614</v>
-      </c>
-      <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0.4696</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2350,26 +1981,15 @@
         <v>1031410.1627</v>
       </c>
       <c r="G52" t="n">
-        <v>-6788472.22444614</v>
-      </c>
-      <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0.4474</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2391,26 +2011,15 @@
         <v>6504.721</v>
       </c>
       <c r="G53" t="n">
-        <v>-6788472.22444614</v>
-      </c>
-      <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0.4599</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2432,26 +2041,15 @@
         <v>260075.4292</v>
       </c>
       <c r="G54" t="n">
-        <v>-7048547.65364614</v>
-      </c>
-      <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0.4599</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2473,26 +2071,15 @@
         <v>1919</v>
       </c>
       <c r="G55" t="n">
-        <v>-7046628.65364614</v>
-      </c>
-      <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0.4501</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2514,26 +2101,15 @@
         <v>132431</v>
       </c>
       <c r="G56" t="n">
-        <v>-7046628.65364614</v>
-      </c>
-      <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0.4598</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2555,26 +2131,15 @@
         <v>118072.577</v>
       </c>
       <c r="G57" t="n">
-        <v>-7164701.23064614</v>
-      </c>
-      <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0.4598</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2596,26 +2161,15 @@
         <v>100000</v>
       </c>
       <c r="G58" t="n">
-        <v>-7064701.23064614</v>
-      </c>
-      <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0.4567</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2637,26 +2191,15 @@
         <v>103723</v>
       </c>
       <c r="G59" t="n">
-        <v>-6960978.23064614</v>
-      </c>
-      <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0.4598</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2678,24 +2221,15 @@
         <v>81060</v>
       </c>
       <c r="G60" t="n">
-        <v>-6879918.23064614</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2717,24 +2251,15 @@
         <v>357550</v>
       </c>
       <c r="G61" t="n">
-        <v>-7237468.23064614</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2756,24 +2281,15 @@
         <v>67690</v>
       </c>
       <c r="G62" t="n">
-        <v>-7305158.23064614</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2795,24 +2311,15 @@
         <v>2679961.1224</v>
       </c>
       <c r="G63" t="n">
-        <v>-9985119.35304614</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2834,24 +2341,15 @@
         <v>951745.8455000001</v>
       </c>
       <c r="G64" t="n">
-        <v>-9033373.50754614</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2873,24 +2371,15 @@
         <v>1929732.2189</v>
       </c>
       <c r="G65" t="n">
-        <v>-10963105.72644614</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2912,24 +2401,15 @@
         <v>314566.1086</v>
       </c>
       <c r="G66" t="n">
-        <v>-10648539.61784614</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2951,24 +2431,15 @@
         <v>11013</v>
       </c>
       <c r="G67" t="n">
-        <v>-10648539.61784614</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2990,24 +2461,15 @@
         <v>521950</v>
       </c>
       <c r="G68" t="n">
-        <v>-11170489.61784614</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3029,24 +2491,15 @@
         <v>64390</v>
       </c>
       <c r="G69" t="n">
-        <v>-11234879.61784614</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3068,24 +2521,15 @@
         <v>971936.291</v>
       </c>
       <c r="G70" t="n">
-        <v>-10262943.32684614</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3107,24 +2551,15 @@
         <v>301077.709</v>
       </c>
       <c r="G71" t="n">
-        <v>-9961865.617846141</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3146,24 +2581,15 @@
         <v>71590</v>
       </c>
       <c r="G72" t="n">
-        <v>-10033455.61784614</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3185,26 +2611,15 @@
         <v>379140</v>
       </c>
       <c r="G73" t="n">
-        <v>-9654315.617846141</v>
-      </c>
-      <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0.4544</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3226,26 +2641,15 @@
         <v>183956.737</v>
       </c>
       <c r="G74" t="n">
-        <v>-9654315.617846141</v>
-      </c>
-      <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0.455</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3267,24 +2671,15 @@
         <v>300825.632</v>
       </c>
       <c r="G75" t="n">
-        <v>-9654315.617846141</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3306,24 +2701,15 @@
         <v>30357</v>
       </c>
       <c r="G76" t="n">
-        <v>-9623958.617846141</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3345,24 +2731,15 @@
         <v>257560</v>
       </c>
       <c r="G77" t="n">
-        <v>-9881518.617846141</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3384,24 +2761,15 @@
         <v>3091497.195</v>
       </c>
       <c r="G78" t="n">
-        <v>-12973015.81284614</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3423,26 +2791,15 @@
         <v>1185997.465</v>
       </c>
       <c r="G79" t="n">
-        <v>-12973015.81284614</v>
-      </c>
-      <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0.4548</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3464,26 +2821,15 @@
         <v>1543926.0966</v>
       </c>
       <c r="G80" t="n">
-        <v>-11429089.71624614</v>
-      </c>
-      <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0.4548</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3505,24 +2851,15 @@
         <v>319330</v>
       </c>
       <c r="G81" t="n">
-        <v>-11748419.71624614</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3544,24 +2881,15 @@
         <v>1347655.1497</v>
       </c>
       <c r="G82" t="n">
-        <v>-13096074.86594614</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3583,24 +2911,15 @@
         <v>423216</v>
       </c>
       <c r="G83" t="n">
-        <v>-12672858.86594614</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3622,24 +2941,15 @@
         <v>673040.8303</v>
       </c>
       <c r="G84" t="n">
-        <v>-13345899.69624614</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3661,24 +2971,15 @@
         <v>154888</v>
       </c>
       <c r="G85" t="n">
-        <v>-13191011.69624614</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3700,24 +3001,15 @@
         <v>128780</v>
       </c>
       <c r="G86" t="n">
-        <v>-13062231.69624614</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3739,24 +3031,15 @@
         <v>17045.1548</v>
       </c>
       <c r="G87" t="n">
-        <v>-13062231.69624614</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3778,24 +3061,15 @@
         <v>64390</v>
       </c>
       <c r="G88" t="n">
-        <v>-13062231.69624614</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3817,24 +3091,15 @@
         <v>379437.5513</v>
       </c>
       <c r="G89" t="n">
-        <v>-12682794.14494614</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3856,24 +3121,15 @@
         <v>3280058.7202</v>
       </c>
       <c r="G90" t="n">
-        <v>-9402735.424746139</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3895,24 +3151,15 @@
         <v>3169050.7514</v>
       </c>
       <c r="G91" t="n">
-        <v>-12571786.17614614</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3934,24 +3181,15 @@
         <v>527105</v>
       </c>
       <c r="G92" t="n">
-        <v>-13098891.17614614</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3973,24 +3211,15 @@
         <v>111898</v>
       </c>
       <c r="G93" t="n">
-        <v>-12986993.17614614</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4012,24 +3241,15 @@
         <v>334782</v>
       </c>
       <c r="G94" t="n">
-        <v>-12986993.17614614</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4051,24 +3271,15 @@
         <v>6375.7575</v>
       </c>
       <c r="G95" t="n">
-        <v>-12993368.93364614</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4090,24 +3301,15 @@
         <v>800078.441</v>
       </c>
       <c r="G96" t="n">
-        <v>-12193290.49264614</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4129,24 +3331,15 @@
         <v>168096</v>
       </c>
       <c r="G97" t="n">
-        <v>-12361386.49264614</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4168,24 +3361,15 @@
         <v>344550.968</v>
       </c>
       <c r="G98" t="n">
-        <v>-12016835.52464614</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4207,24 +3391,15 @@
         <v>1541659.5232</v>
       </c>
       <c r="G99" t="n">
-        <v>-13558495.04784614</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4246,24 +3421,15 @@
         <v>969053.946</v>
       </c>
       <c r="G100" t="n">
-        <v>-12589441.10184614</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4285,24 +3451,15 @@
         <v>7942.13</v>
       </c>
       <c r="G101" t="n">
-        <v>-12589441.10184614</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4324,24 +3481,15 @@
         <v>164931.138</v>
       </c>
       <c r="G102" t="n">
-        <v>-12754372.23984614</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4363,24 +3511,15 @@
         <v>3283582.1803</v>
       </c>
       <c r="G103" t="n">
-        <v>-16037954.42014614</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4402,24 +3541,15 @@
         <v>100000</v>
       </c>
       <c r="G104" t="n">
-        <v>-16137954.42014614</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4441,24 +3571,15 @@
         <v>331733.0984</v>
       </c>
       <c r="G105" t="n">
-        <v>-16469687.51854614</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4480,24 +3601,15 @@
         <v>894617.7572</v>
       </c>
       <c r="G106" t="n">
-        <v>-15575069.76134614</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4519,24 +3631,15 @@
         <v>265898.8275</v>
       </c>
       <c r="G107" t="n">
-        <v>-15840968.58884614</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4558,24 +3661,15 @@
         <v>127664</v>
       </c>
       <c r="G108" t="n">
-        <v>-15713304.58884614</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4597,24 +3691,15 @@
         <v>2033837.7811</v>
       </c>
       <c r="G109" t="n">
-        <v>-13679466.80774614</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4636,24 +3721,15 @@
         <v>4444263.0573</v>
       </c>
       <c r="G110" t="n">
-        <v>-9235203.750446137</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4675,24 +3751,15 @@
         <v>1050337.5513</v>
       </c>
       <c r="G111" t="n">
-        <v>-10285541.30174614</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4714,24 +3781,15 @@
         <v>468030</v>
       </c>
       <c r="G112" t="n">
-        <v>-9817511.301746137</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4753,24 +3811,15 @@
         <v>1955.6555</v>
       </c>
       <c r="G113" t="n">
-        <v>-9815555.646246137</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4792,24 +3841,15 @@
         <v>124090</v>
       </c>
       <c r="G114" t="n">
-        <v>-9939645.646246137</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4831,24 +3871,15 @@
         <v>2122368</v>
       </c>
       <c r="G115" t="n">
-        <v>-9939645.646246137</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4870,24 +3901,15 @@
         <v>2135782</v>
       </c>
       <c r="G116" t="n">
-        <v>-7803863.646246137</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4909,24 +3931,15 @@
         <v>1328275.9093</v>
       </c>
       <c r="G117" t="n">
-        <v>-6475587.736946138</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4948,24 +3961,15 @@
         <v>4100</v>
       </c>
       <c r="G118" t="n">
-        <v>-6475587.736946138</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4987,24 +3991,15 @@
         <v>6098.9219</v>
       </c>
       <c r="G119" t="n">
-        <v>-6481686.658846138</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5026,24 +4021,15 @@
         <v>25000</v>
       </c>
       <c r="G120" t="n">
-        <v>-6506686.658846138</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5065,24 +4051,15 @@
         <v>374445.84</v>
       </c>
       <c r="G121" t="n">
-        <v>-6881132.498846138</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5104,24 +4081,15 @@
         <v>381879.9093</v>
       </c>
       <c r="G122" t="n">
-        <v>-7263012.408146138</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5143,24 +4111,15 @@
         <v>207680</v>
       </c>
       <c r="G123" t="n">
-        <v>-7055332.408146138</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5182,24 +4141,15 @@
         <v>209269.6448</v>
       </c>
       <c r="G124" t="n">
-        <v>-6846062.763346138</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5221,24 +4171,15 @@
         <v>2654.8655</v>
       </c>
       <c r="G125" t="n">
-        <v>-6843407.897846138</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5260,24 +4201,15 @@
         <v>70970</v>
       </c>
       <c r="G126" t="n">
-        <v>-6914377.897846138</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5299,24 +4231,15 @@
         <v>231901.9704</v>
       </c>
       <c r="G127" t="n">
-        <v>-7146279.868246138</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5338,24 +4261,15 @@
         <v>90289.10000000001</v>
       </c>
       <c r="G128" t="n">
-        <v>-7055990.768246138</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5377,24 +4291,15 @@
         <v>806027.6</v>
       </c>
       <c r="G129" t="n">
-        <v>-7862018.368246138</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5416,24 +4321,15 @@
         <v>69300</v>
       </c>
       <c r="G130" t="n">
-        <v>-7792718.368246138</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5455,24 +4351,15 @@
         <v>9985</v>
       </c>
       <c r="G131" t="n">
-        <v>-7802703.368246138</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5494,24 +4381,15 @@
         <v>366673.2</v>
       </c>
       <c r="G132" t="n">
-        <v>-7436030.168246138</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5533,24 +4411,15 @@
         <v>3080.78</v>
       </c>
       <c r="G133" t="n">
-        <v>-7439110.948246138</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5572,24 +4441,15 @@
         <v>13680</v>
       </c>
       <c r="G134" t="n">
-        <v>-7439110.948246138</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5611,24 +4471,15 @@
         <v>4577</v>
       </c>
       <c r="G135" t="n">
-        <v>-7443687.948246138</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5650,24 +4501,15 @@
         <v>10859</v>
       </c>
       <c r="G136" t="n">
-        <v>-7432828.948246138</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5689,24 +4531,15 @@
         <v>5645.1957</v>
       </c>
       <c r="G137" t="n">
-        <v>-7438474.143946138</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5728,24 +4561,15 @@
         <v>379506.2917</v>
       </c>
       <c r="G138" t="n">
-        <v>-7058967.852246138</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5767,24 +4591,15 @@
         <v>13832.328</v>
       </c>
       <c r="G139" t="n">
-        <v>-7072800.180246138</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5806,24 +4621,15 @@
         <v>94445.14599999999</v>
       </c>
       <c r="G140" t="n">
-        <v>-7072800.180246138</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5845,24 +4651,15 @@
         <v>1524996.4</v>
       </c>
       <c r="G141" t="n">
-        <v>-5547803.780246139</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5884,24 +4681,15 @@
         <v>840395</v>
       </c>
       <c r="G142" t="n">
-        <v>-4707408.780246139</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5923,24 +4711,15 @@
         <v>766941.1735</v>
       </c>
       <c r="G143" t="n">
-        <v>-5474349.953746138</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5962,24 +4741,15 @@
         <v>355815.2537</v>
       </c>
       <c r="G144" t="n">
-        <v>-5474349.953746138</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6001,24 +4771,15 @@
         <v>7285</v>
       </c>
       <c r="G145" t="n">
-        <v>-5474349.953746138</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6040,24 +4801,15 @@
         <v>2888000.9584</v>
       </c>
       <c r="G146" t="n">
-        <v>-2586348.995346138</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6079,24 +4831,15 @@
         <v>1308772.3</v>
       </c>
       <c r="G147" t="n">
-        <v>-1277576.695346138</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6118,24 +4861,15 @@
         <v>6959</v>
       </c>
       <c r="G148" t="n">
-        <v>-1277576.695346138</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6157,24 +4891,15 @@
         <v>15355.7279</v>
       </c>
       <c r="G149" t="n">
-        <v>-1262220.967446138</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6196,24 +4921,15 @@
         <v>6851</v>
       </c>
       <c r="G150" t="n">
-        <v>-1262220.967446138</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6235,24 +4951,15 @@
         <v>189028</v>
       </c>
       <c r="G151" t="n">
-        <v>-1262220.967446138</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6274,24 +4981,15 @@
         <v>350722.1635</v>
       </c>
       <c r="G152" t="n">
-        <v>-1262220.967446138</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6313,24 +5011,15 @@
         <v>982001</v>
       </c>
       <c r="G153" t="n">
-        <v>-1262220.967446138</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6352,24 +5041,15 @@
         <v>114508.1116</v>
       </c>
       <c r="G154" t="n">
-        <v>-1262220.967446138</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6391,24 +5071,15 @@
         <v>320617.3157</v>
       </c>
       <c r="G155" t="n">
-        <v>-1262220.967446138</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6430,24 +5101,15 @@
         <v>864135.4282</v>
       </c>
       <c r="G156" t="n">
-        <v>-1262220.967446138</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6469,24 +5131,15 @@
         <v>398142</v>
       </c>
       <c r="G157" t="n">
-        <v>-864078.9674461382</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6508,24 +5161,15 @@
         <v>75000</v>
       </c>
       <c r="G158" t="n">
-        <v>-789078.9674461382</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6547,24 +5191,15 @@
         <v>64896.5397</v>
       </c>
       <c r="G159" t="n">
-        <v>-853975.5071461381</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6586,24 +5221,15 @@
         <v>50000</v>
       </c>
       <c r="G160" t="n">
-        <v>-853975.5071461381</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6625,24 +5251,15 @@
         <v>75000</v>
       </c>
       <c r="G161" t="n">
-        <v>-853975.5071461381</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6664,24 +5281,15 @@
         <v>391098</v>
       </c>
       <c r="G162" t="n">
-        <v>-1245073.507146138</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6703,24 +5311,15 @@
         <v>58800</v>
       </c>
       <c r="G163" t="n">
-        <v>-1303873.507146138</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6742,24 +5341,15 @@
         <v>8090.48</v>
       </c>
       <c r="G164" t="n">
-        <v>-1303873.507146138</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6781,24 +5371,15 @@
         <v>986882</v>
       </c>
       <c r="G165" t="n">
-        <v>-316991.5071461382</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6820,24 +5401,15 @@
         <v>2054011.58</v>
       </c>
       <c r="G166" t="n">
-        <v>1737020.072853862</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6859,26 +5431,15 @@
         <v>4277605.9</v>
       </c>
       <c r="G167" t="n">
-        <v>6014625.972853862</v>
-      </c>
-      <c r="H167" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L167" t="n">
-        <v>1.102910480833149</v>
-      </c>
-      <c r="M167" t="n">
-        <v>1.057901907356948</v>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6900,18 +5461,15 @@
         <v>4372606.7964</v>
       </c>
       <c r="G168" t="n">
-        <v>6014625.972853862</v>
-      </c>
-      <c r="H168" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6933,18 +5491,15 @@
         <v>20019</v>
       </c>
       <c r="G169" t="n">
-        <v>6034644.972853862</v>
-      </c>
-      <c r="H169" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6966,18 +5521,15 @@
         <v>7291.345</v>
       </c>
       <c r="G170" t="n">
-        <v>6027353.627853862</v>
-      </c>
-      <c r="H170" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6999,18 +5551,15 @@
         <v>55000</v>
       </c>
       <c r="G171" t="n">
-        <v>6082353.627853862</v>
-      </c>
-      <c r="H171" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7032,18 +5581,15 @@
         <v>410160</v>
       </c>
       <c r="G172" t="n">
-        <v>6082353.627853862</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7065,18 +5611,15 @@
         <v>1814721</v>
       </c>
       <c r="G173" t="n">
-        <v>6082353.627853862</v>
-      </c>
-      <c r="H173" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7098,18 +5641,15 @@
         <v>3180991.81862226</v>
       </c>
       <c r="G174" t="n">
-        <v>9263345.446476122</v>
-      </c>
-      <c r="H174" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7131,18 +5671,15 @@
         <v>3106829.9897</v>
       </c>
       <c r="G175" t="n">
-        <v>6156515.456776123</v>
-      </c>
-      <c r="H175" t="n">
         <v>2</v>
       </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7164,18 +5701,15 @@
         <v>124698</v>
       </c>
       <c r="G176" t="n">
-        <v>6156515.456776123</v>
-      </c>
-      <c r="H176" t="n">
         <v>2</v>
       </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7197,18 +5731,15 @@
         <v>19309.8263</v>
       </c>
       <c r="G177" t="n">
-        <v>6156515.456776123</v>
-      </c>
-      <c r="H177" t="n">
         <v>2</v>
       </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7230,18 +5761,15 @@
         <v>231671.4949</v>
       </c>
       <c r="G178" t="n">
-        <v>5924843.961876122</v>
-      </c>
-      <c r="H178" t="n">
         <v>2</v>
       </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7263,18 +5791,15 @@
         <v>16508.5051</v>
       </c>
       <c r="G179" t="n">
-        <v>5924843.961876122</v>
-      </c>
-      <c r="H179" t="n">
         <v>2</v>
       </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7296,18 +5821,15 @@
         <v>913161.0801</v>
       </c>
       <c r="G180" t="n">
-        <v>5011682.881776122</v>
-      </c>
-      <c r="H180" t="n">
         <v>2</v>
       </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7329,18 +5851,15 @@
         <v>50000</v>
       </c>
       <c r="G181" t="n">
-        <v>4961682.881776122</v>
-      </c>
-      <c r="H181" t="n">
         <v>2</v>
       </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7362,18 +5881,15 @@
         <v>301328.769</v>
       </c>
       <c r="G182" t="n">
-        <v>5263011.650776123</v>
-      </c>
-      <c r="H182" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7395,18 +5911,15 @@
         <v>183010</v>
       </c>
       <c r="G183" t="n">
-        <v>5080001.650776123</v>
-      </c>
-      <c r="H183" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7428,18 +5941,15 @@
         <v>100000</v>
       </c>
       <c r="G184" t="n">
-        <v>5180001.650776123</v>
-      </c>
-      <c r="H184" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7461,18 +5971,15 @@
         <v>1973.164956590371</v>
       </c>
       <c r="G185" t="n">
-        <v>5178028.485819533</v>
-      </c>
-      <c r="H185" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7494,18 +6001,15 @@
         <v>207195.5654</v>
       </c>
       <c r="G186" t="n">
-        <v>5385224.051219532</v>
-      </c>
-      <c r="H186" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7527,18 +6031,15 @@
         <v>103737.11</v>
       </c>
       <c r="G187" t="n">
-        <v>5281486.941219532</v>
-      </c>
-      <c r="H187" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7560,18 +6061,15 @@
         <v>1251066.7103</v>
       </c>
       <c r="G188" t="n">
-        <v>6532553.651519531</v>
-      </c>
-      <c r="H188" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7593,18 +6091,15 @@
         <v>1141249.5424</v>
       </c>
       <c r="G189" t="n">
-        <v>7673803.193919531</v>
-      </c>
-      <c r="H189" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7626,18 +6121,15 @@
         <v>3091207.2589</v>
       </c>
       <c r="G190" t="n">
-        <v>4582595.935019531</v>
-      </c>
-      <c r="H190" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7659,18 +6151,15 @@
         <v>573325.8194</v>
       </c>
       <c r="G191" t="n">
-        <v>4582595.935019531</v>
-      </c>
-      <c r="H191" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7692,18 +6181,15 @@
         <v>351967.3363</v>
       </c>
       <c r="G192" t="n">
-        <v>4230628.598719532</v>
-      </c>
-      <c r="H192" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7725,18 +6211,15 @@
         <v>331465.5655</v>
       </c>
       <c r="G193" t="n">
-        <v>4562094.164219532</v>
-      </c>
-      <c r="H193" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7758,18 +6241,15 @@
         <v>1252001.8109</v>
       </c>
       <c r="G194" t="n">
-        <v>3310092.353319532</v>
-      </c>
-      <c r="H194" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7791,18 +6271,15 @@
         <v>285538.6961</v>
       </c>
       <c r="G195" t="n">
-        <v>3310092.353319532</v>
-      </c>
-      <c r="H195" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7824,18 +6301,15 @@
         <v>420113.4712</v>
       </c>
       <c r="G196" t="n">
-        <v>3730205.824519532</v>
-      </c>
-      <c r="H196" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7857,18 +6331,15 @@
         <v>1975000</v>
       </c>
       <c r="G197" t="n">
-        <v>1755205.824519532</v>
-      </c>
-      <c r="H197" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7890,18 +6361,15 @@
         <v>189000</v>
       </c>
       <c r="G198" t="n">
-        <v>1944205.824519532</v>
-      </c>
-      <c r="H198" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7923,18 +6391,15 @@
         <v>1019312.6982</v>
       </c>
       <c r="G199" t="n">
-        <v>1944205.824519532</v>
-      </c>
-      <c r="H199" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7956,18 +6421,15 @@
         <v>608623.09</v>
       </c>
       <c r="G200" t="n">
-        <v>1335582.734519532</v>
-      </c>
-      <c r="H200" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7989,18 +6451,15 @@
         <v>165192.76</v>
       </c>
       <c r="G201" t="n">
-        <v>1500775.494519532</v>
-      </c>
-      <c r="H201" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8022,18 +6481,15 @@
         <v>244.4526</v>
       </c>
       <c r="G202" t="n">
-        <v>1500531.041919532</v>
-      </c>
-      <c r="H202" t="n">
         <v>2</v>
       </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8055,18 +6511,15 @@
         <v>250412</v>
       </c>
       <c r="G203" t="n">
-        <v>1250119.041919532</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8088,18 +6541,15 @@
         <v>1046.5555</v>
       </c>
       <c r="G204" t="n">
-        <v>1251165.597419532</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8121,18 +6571,15 @@
         <v>486000</v>
       </c>
       <c r="G205" t="n">
-        <v>765165.5974195325</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8154,18 +6601,15 @@
         <v>100000</v>
       </c>
       <c r="G206" t="n">
-        <v>665165.5974195325</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8187,18 +6631,15 @@
         <v>2500000</v>
       </c>
       <c r="G207" t="n">
-        <v>3165165.597419532</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8220,18 +6661,15 @@
         <v>943764.1676</v>
       </c>
       <c r="G208" t="n">
-        <v>2221401.429819533</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8253,18 +6691,15 @@
         <v>1545.5655</v>
       </c>
       <c r="G209" t="n">
-        <v>2222946.995319533</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8286,18 +6721,15 @@
         <v>6796.6886</v>
       </c>
       <c r="G210" t="n">
-        <v>2216150.306719533</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8319,18 +6751,15 @@
         <v>291548</v>
       </c>
       <c r="G211" t="n">
-        <v>1924602.306719533</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8352,18 +6781,15 @@
         <v>0.345</v>
       </c>
       <c r="G212" t="n">
-        <v>1924602.306719533</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8385,18 +6811,15 @@
         <v>11699.655</v>
       </c>
       <c r="G213" t="n">
-        <v>1924602.306719533</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8418,18 +6841,15 @@
         <v>6796.6886</v>
       </c>
       <c r="G214" t="n">
-        <v>1917805.618119533</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8451,18 +6871,15 @@
         <v>17858.45920139366</v>
       </c>
       <c r="G215" t="n">
-        <v>1935664.077320926</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8484,18 +6901,15 @@
         <v>8774.0046</v>
       </c>
       <c r="G216" t="n">
-        <v>1926890.072720926</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8517,18 +6931,15 @@
         <v>70658.65240000001</v>
       </c>
       <c r="G217" t="n">
-        <v>1856231.420320926</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8550,18 +6961,15 @@
         <v>173223.3261</v>
       </c>
       <c r="G218" t="n">
-        <v>1856231.420320926</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8583,18 +6991,15 @@
         <v>13675.9811</v>
       </c>
       <c r="G219" t="n">
-        <v>1869907.401420926</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8616,18 +7021,15 @@
         <v>1653.8567</v>
       </c>
       <c r="G220" t="n">
-        <v>1871561.258120926</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8649,18 +7051,15 @@
         <v>16328</v>
       </c>
       <c r="G221" t="n">
-        <v>1887889.258120926</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8682,18 +7081,15 @@
         <v>30000</v>
       </c>
       <c r="G222" t="n">
-        <v>1887889.258120926</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8715,18 +7111,15 @@
         <v>1244.6723</v>
       </c>
       <c r="G223" t="n">
-        <v>1889133.930420926</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8748,18 +7141,15 @@
         <v>16557.83958081419</v>
       </c>
       <c r="G224" t="n">
-        <v>1872576.090840112</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8781,18 +7171,15 @@
         <v>18086.9607</v>
       </c>
       <c r="G225" t="n">
-        <v>1890663.051540112</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8814,18 +7201,15 @@
         <v>225268.6385</v>
       </c>
       <c r="G226" t="n">
-        <v>1665394.413040112</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8847,18 +7231,15 @@
         <v>1111</v>
       </c>
       <c r="G227" t="n">
-        <v>1666505.413040112</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8880,18 +7261,15 @@
         <v>23612.7995</v>
       </c>
       <c r="G228" t="n">
-        <v>1666505.413040112</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8913,18 +7291,15 @@
         <v>8052698.4398</v>
       </c>
       <c r="G229" t="n">
-        <v>-6386193.026759888</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8946,18 +7321,15 @@
         <v>1564505.0208</v>
       </c>
       <c r="G230" t="n">
-        <v>-7950698.047559888</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8979,18 +7351,15 @@
         <v>4339058.2977</v>
       </c>
       <c r="G231" t="n">
-        <v>-3611639.749859888</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9012,18 +7381,15 @@
         <v>4352788.4362</v>
       </c>
       <c r="G232" t="n">
-        <v>-7964428.186059888</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9045,18 +7411,15 @@
         <v>109054.0913</v>
       </c>
       <c r="G233" t="n">
-        <v>-7855374.094759888</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9078,18 +7441,15 @@
         <v>271693.9</v>
       </c>
       <c r="G234" t="n">
-        <v>-7583680.194759888</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9111,18 +7471,15 @@
         <v>18617.2814</v>
       </c>
       <c r="G235" t="n">
-        <v>-7602297.476159887</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9144,18 +7501,15 @@
         <v>2400</v>
       </c>
       <c r="G236" t="n">
-        <v>-7602297.476159887</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9177,18 +7531,15 @@
         <v>1153394</v>
       </c>
       <c r="G237" t="n">
-        <v>-8755691.476159887</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9210,18 +7561,15 @@
         <v>69328.07369999999</v>
       </c>
       <c r="G238" t="n">
-        <v>-8686363.402459888</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9243,18 +7591,15 @@
         <v>70084.70050000001</v>
       </c>
       <c r="G239" t="n">
-        <v>-8756448.102959888</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9276,18 +7621,15 @@
         <v>1259.7987</v>
       </c>
       <c r="G240" t="n">
-        <v>-8756448.102959888</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9309,18 +7651,15 @@
         <v>1177128.9633</v>
       </c>
       <c r="G241" t="n">
-        <v>-8756448.102959888</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9342,18 +7681,15 @@
         <v>4121896.0843</v>
       </c>
       <c r="G242" t="n">
-        <v>-4634552.018659888</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9375,18 +7711,15 @@
         <v>18617.2814</v>
       </c>
       <c r="G243" t="n">
-        <v>-4653169.300059888</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9408,18 +7741,15 @@
         <v>41357.0734</v>
       </c>
       <c r="G244" t="n">
-        <v>-4653169.300059888</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9441,18 +7771,15 @@
         <v>89195.21589296575</v>
       </c>
       <c r="G245" t="n">
-        <v>-4563974.084166922</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9474,18 +7801,15 @@
         <v>54884</v>
       </c>
       <c r="G246" t="n">
-        <v>-4618858.084166922</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9507,18 +7831,15 @@
         <v>2924.965</v>
       </c>
       <c r="G247" t="n">
-        <v>-4621783.049166922</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9540,18 +7861,15 @@
         <v>6397.5691</v>
       </c>
       <c r="G248" t="n">
-        <v>-4621783.049166922</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9573,18 +7891,15 @@
         <v>152617.3352</v>
       </c>
       <c r="G249" t="n">
-        <v>-4621783.049166922</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9606,18 +7921,15 @@
         <v>33527.0091</v>
       </c>
       <c r="G250" t="n">
-        <v>-4588256.040066921</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9639,18 +7951,15 @@
         <v>1260305.7622</v>
       </c>
       <c r="G251" t="n">
-        <v>-3327950.277866921</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9672,18 +7981,15 @@
         <v>710770</v>
       </c>
       <c r="G252" t="n">
-        <v>-4038720.277866921</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9705,18 +8011,15 @@
         <v>1806.1135</v>
       </c>
       <c r="G253" t="n">
-        <v>-4040526.391366921</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9738,18 +8041,15 @@
         <v>17405.5637</v>
       </c>
       <c r="G254" t="n">
-        <v>-4023120.827666922</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9771,18 +8071,15 @@
         <v>4045.24</v>
       </c>
       <c r="G255" t="n">
-        <v>-4027166.067666922</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9804,18 +8101,15 @@
         <v>669293</v>
       </c>
       <c r="G256" t="n">
-        <v>-3357873.067666922</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9837,18 +8131,15 @@
         <v>2500</v>
       </c>
       <c r="G257" t="n">
-        <v>-3357873.067666922</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9870,18 +8161,15 @@
         <v>2500</v>
       </c>
       <c r="G258" t="n">
-        <v>-3357873.067666922</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -9903,18 +8191,15 @@
         <v>54884</v>
       </c>
       <c r="G259" t="n">
-        <v>-3412757.067666922</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>1</v>
+      </c>
+      <c r="L259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -9936,18 +8221,15 @@
         <v>436458.5911</v>
       </c>
       <c r="G260" t="n">
-        <v>-2976298.476566922</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -9969,18 +8251,15 @@
         <v>187955.6</v>
       </c>
       <c r="G261" t="n">
-        <v>-2976298.476566922</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -10002,18 +8281,15 @@
         <v>5000</v>
       </c>
       <c r="G262" t="n">
-        <v>-2976298.476566922</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -10035,18 +8311,15 @@
         <v>2500</v>
       </c>
       <c r="G263" t="n">
-        <v>-2976298.476566922</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -10068,18 +8341,15 @@
         <v>13015.09</v>
       </c>
       <c r="G264" t="n">
-        <v>-2989313.566566922</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -10101,18 +8371,15 @@
         <v>3000</v>
       </c>
       <c r="G265" t="n">
-        <v>-2989313.566566922</v>
-      </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
+      <c r="K265" t="n">
+        <v>1</v>
+      </c>
+      <c r="L265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -10134,18 +8401,15 @@
         <v>629828.7979</v>
       </c>
       <c r="G266" t="n">
-        <v>-2989313.566566922</v>
-      </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
+      <c r="K266" t="n">
+        <v>1</v>
+      </c>
+      <c r="L266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -10167,18 +8431,15 @@
         <v>5849</v>
       </c>
       <c r="G267" t="n">
-        <v>-2989313.566566922</v>
-      </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
+      <c r="K267" t="n">
+        <v>1</v>
+      </c>
+      <c r="L267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -10200,18 +8461,15 @@
         <v>72027.8662</v>
       </c>
       <c r="G268" t="n">
-        <v>-2989313.566566922</v>
-      </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
+      <c r="K268" t="n">
+        <v>1</v>
+      </c>
+      <c r="L268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -10233,18 +8491,15 @@
         <v>105662</v>
       </c>
       <c r="G269" t="n">
-        <v>-3094975.566566922</v>
-      </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H269" t="inlineStr"/>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
+      <c r="K269" t="n">
+        <v>1</v>
+      </c>
+      <c r="L269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -10266,18 +8521,15 @@
         <v>75000</v>
       </c>
       <c r="G270" t="n">
-        <v>-3019975.566566922</v>
-      </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H270" t="inlineStr"/>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
+      <c r="K270" t="n">
+        <v>1</v>
+      </c>
+      <c r="L270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -10299,18 +8551,15 @@
         <v>75000</v>
       </c>
       <c r="G271" t="n">
-        <v>-3019975.566566922</v>
-      </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
+      <c r="K271" t="n">
+        <v>1</v>
+      </c>
+      <c r="L271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -10332,18 +8581,15 @@
         <v>1035358.4413</v>
       </c>
       <c r="G272" t="n">
-        <v>-1984617.125266922</v>
-      </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H272" t="inlineStr"/>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
+      <c r="K272" t="n">
+        <v>1</v>
+      </c>
+      <c r="L272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -10365,18 +8611,15 @@
         <v>350000</v>
       </c>
       <c r="G273" t="n">
-        <v>-1984617.125266922</v>
-      </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H273" t="inlineStr"/>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
+      <c r="K273" t="n">
+        <v>1</v>
+      </c>
+      <c r="L273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -10398,18 +8641,15 @@
         <v>27500</v>
       </c>
       <c r="G274" t="n">
-        <v>-1984617.125266922</v>
-      </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
+      <c r="K274" t="n">
+        <v>1</v>
+      </c>
+      <c r="L274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -10431,18 +8671,15 @@
         <v>175000</v>
       </c>
       <c r="G275" t="n">
-        <v>-1984617.125266922</v>
-      </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H275" t="inlineStr"/>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
-      <c r="L275" t="n">
-        <v>1</v>
-      </c>
-      <c r="M275" t="inlineStr"/>
+      <c r="K275" t="n">
+        <v>1</v>
+      </c>
+      <c r="L275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -10464,18 +8701,15 @@
         <v>344132.3812</v>
       </c>
       <c r="G276" t="n">
-        <v>-1984617.125266922</v>
-      </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H276" t="inlineStr"/>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
-      <c r="L276" t="n">
-        <v>1</v>
-      </c>
-      <c r="M276" t="inlineStr"/>
+      <c r="K276" t="n">
+        <v>1</v>
+      </c>
+      <c r="L276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -10497,18 +8731,15 @@
         <v>184726.9986</v>
       </c>
       <c r="G277" t="n">
-        <v>-1984617.125266922</v>
-      </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H277" t="inlineStr"/>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
-      <c r="L277" t="n">
-        <v>1</v>
-      </c>
-      <c r="M277" t="inlineStr"/>
+      <c r="K277" t="n">
+        <v>1</v>
+      </c>
+      <c r="L277" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
